--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542944253707583</v>
+        <v>0.9542944253707597</v>
       </c>
       <c r="D2">
-        <v>0.96579645482267</v>
+        <v>0.9657964548226715</v>
       </c>
       <c r="E2">
-        <v>0.9683954834627541</v>
+        <v>0.9683954834627553</v>
       </c>
       <c r="F2">
-        <v>0.9710744335425874</v>
+        <v>0.9710744335425885</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039116764121431</v>
       </c>
       <c r="J2">
-        <v>0.9779337518107034</v>
+        <v>0.9779337518107051</v>
       </c>
       <c r="K2">
-        <v>0.9777538012408067</v>
+        <v>0.9777538012408082</v>
       </c>
       <c r="L2">
-        <v>0.9803134145815524</v>
+        <v>0.9803134145815536</v>
       </c>
       <c r="M2">
-        <v>0.9829520183833433</v>
+        <v>0.9829520183833445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646252907241269</v>
+        <v>0.9646252907241265</v>
       </c>
       <c r="D3">
-        <v>0.9747682433885848</v>
+        <v>0.9747682433885846</v>
       </c>
       <c r="E3">
-        <v>0.9771345658278061</v>
+        <v>0.9771345658278059</v>
       </c>
       <c r="F3">
-        <v>0.9812553981079907</v>
+        <v>0.9812553981079899</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041553302335521</v>
       </c>
       <c r="J3">
-        <v>0.9861290678168348</v>
+        <v>0.9861290678168345</v>
       </c>
       <c r="K3">
-        <v>0.9857344842225739</v>
+        <v>0.9857344842225737</v>
       </c>
       <c r="L3">
-        <v>0.9880686228205552</v>
+        <v>0.988068622820555</v>
       </c>
       <c r="M3">
-        <v>0.9921338741777546</v>
+        <v>0.9921338741777539</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710162368401333</v>
+        <v>0.9710162368401326</v>
       </c>
       <c r="D4">
-        <v>0.9803258721186822</v>
+        <v>0.9803258721186813</v>
       </c>
       <c r="E4">
-        <v>0.9825488087993243</v>
+        <v>0.982548808799324</v>
       </c>
       <c r="F4">
-        <v>0.9875471915350124</v>
+        <v>0.9875471915350122</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043028092756585</v>
       </c>
       <c r="J4">
-        <v>0.991191576253551</v>
+        <v>0.9911915762535505</v>
       </c>
       <c r="K4">
-        <v>0.9906676930938634</v>
+        <v>0.9906676930938628</v>
       </c>
       <c r="L4">
-        <v>0.9928625196872904</v>
+        <v>0.9928625196872901</v>
       </c>
       <c r="M4">
-        <v>0.997798271434495</v>
+        <v>0.9977982714344948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736382393832429</v>
+        <v>0.9736382393832422</v>
       </c>
       <c r="D5">
-        <v>0.982607607595014</v>
+        <v>0.9826076075950132</v>
       </c>
       <c r="E5">
-        <v>0.9847718372643809</v>
+        <v>0.9847718372643801</v>
       </c>
       <c r="F5">
-        <v>0.9901268004484077</v>
+        <v>0.9901268004484068</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043625118791206</v>
+        <v>1.043625118791205</v>
       </c>
       <c r="J5">
-        <v>0.9932666809972809</v>
+        <v>0.9932666809972801</v>
       </c>
       <c r="K5">
-        <v>0.9926905775934342</v>
+        <v>0.9926905775934334</v>
       </c>
       <c r="L5">
-        <v>0.9948282819313284</v>
+        <v>0.9948282819313278</v>
       </c>
       <c r="M5">
-        <v>1.000118232202959</v>
+        <v>1.000118232202958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,31 +573,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740748371642275</v>
+        <v>0.9740748371642282</v>
       </c>
       <c r="D6">
-        <v>0.982987637036742</v>
+        <v>0.9829876370367426</v>
       </c>
       <c r="E6">
-        <v>0.9851420977795047</v>
+        <v>0.9851420977795049</v>
       </c>
       <c r="F6">
-        <v>0.9905562334733345</v>
+        <v>0.990556233473335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04372405211763</v>
+        <v>1.043724052117631</v>
       </c>
       <c r="J6">
-        <v>0.9936120990032615</v>
+        <v>0.9936120990032622</v>
       </c>
       <c r="K6">
-        <v>0.9930273487518214</v>
+        <v>0.9930273487518221</v>
       </c>
       <c r="L6">
-        <v>0.9951555432028233</v>
+        <v>0.995155543202824</v>
       </c>
       <c r="M6">
         <v>1.000504297808329</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710515197476921</v>
+        <v>0.9710515197476935</v>
       </c>
       <c r="D7">
-        <v>0.9803565700239365</v>
+        <v>0.9803565700239378</v>
       </c>
       <c r="E7">
-        <v>0.9825787162624778</v>
+        <v>0.9825787162624793</v>
       </c>
       <c r="F7">
-        <v>0.9875819109981473</v>
+        <v>0.987581910998149</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043036158810751</v>
       </c>
       <c r="J7">
-        <v>0.9912195074706696</v>
+        <v>0.991219507470671</v>
       </c>
       <c r="K7">
-        <v>0.9906949183351058</v>
+        <v>0.9906949183351074</v>
       </c>
       <c r="L7">
-        <v>0.9928889761437132</v>
+        <v>0.9928889761437149</v>
       </c>
       <c r="M7">
-        <v>0.9978295058857131</v>
+        <v>0.9978295058857147</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578502341916134</v>
+        <v>0.9578502341916146</v>
       </c>
       <c r="D8">
-        <v>0.968882780115115</v>
+        <v>0.9688827801151164</v>
       </c>
       <c r="E8">
-        <v>0.9714015792184402</v>
+        <v>0.9714015792184417</v>
       </c>
       <c r="F8">
-        <v>0.9745799021845087</v>
+        <v>0.9745799021845102</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039962186312989</v>
       </c>
       <c r="J8">
-        <v>0.980756002084466</v>
+        <v>0.9807560020844674</v>
       </c>
       <c r="K8">
-        <v>0.980501429820215</v>
+        <v>0.9805014298202166</v>
       </c>
       <c r="L8">
-        <v>0.9829833940696672</v>
+        <v>0.9829833940696685</v>
       </c>
       <c r="M8">
-        <v>0.9861155816794224</v>
+        <v>0.9861155816794238</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.932039013058667</v>
+        <v>0.9320390130586683</v>
       </c>
       <c r="D9">
-        <v>0.9465213817514624</v>
+        <v>0.9465213817514635</v>
       </c>
       <c r="E9">
-        <v>0.9496260121906714</v>
+        <v>0.9496260121906726</v>
       </c>
       <c r="F9">
-        <v>0.9491141772996609</v>
+        <v>0.9491141772996613</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033691289467387</v>
       </c>
       <c r="J9">
-        <v>0.9602430751891693</v>
+        <v>0.9602430751891705</v>
       </c>
       <c r="K9">
-        <v>0.9605461033930428</v>
+        <v>0.960546103393044</v>
       </c>
       <c r="L9">
-        <v>0.9635929069453392</v>
+        <v>0.9635929069453403</v>
       </c>
       <c r="M9">
-        <v>0.9630905715294653</v>
+        <v>0.9630905715294659</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.912601244261405</v>
+        <v>0.9126012442614034</v>
       </c>
       <c r="D10">
-        <v>0.9297487505537894</v>
+        <v>0.929748750553788</v>
       </c>
       <c r="E10">
-        <v>0.9333003418812599</v>
+        <v>0.9333003418812585</v>
       </c>
       <c r="F10">
-        <v>0.9299230516789623</v>
+        <v>0.9299230516789605</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028808609684722</v>
       </c>
       <c r="J10">
-        <v>0.9447695271696531</v>
+        <v>0.9447695271696517</v>
       </c>
       <c r="K10">
-        <v>0.9455138749564965</v>
+        <v>0.9455138749564952</v>
       </c>
       <c r="L10">
-        <v>0.9489882006965585</v>
+        <v>0.9489882006965571</v>
       </c>
       <c r="M10">
-        <v>0.9456843658268225</v>
+        <v>0.945684365826821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9035000710382617</v>
+        <v>0.9035000710382625</v>
       </c>
       <c r="D11">
-        <v>0.9219165691958014</v>
+        <v>0.9219165691958022</v>
       </c>
       <c r="E11">
-        <v>0.9256793336117177</v>
+        <v>0.9256793336117184</v>
       </c>
       <c r="F11">
-        <v>0.9209391789669555</v>
+        <v>0.9209391789669564</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026489818730499</v>
       </c>
       <c r="J11">
-        <v>0.9375218967553749</v>
+        <v>0.9375218967553757</v>
       </c>
       <c r="K11">
-        <v>0.9384782478926876</v>
+        <v>0.9384782478926884</v>
       </c>
       <c r="L11">
-        <v>0.9421535043289536</v>
+        <v>0.9421535043289543</v>
       </c>
       <c r="M11">
-        <v>0.9375237448434912</v>
+        <v>0.937523744843492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8999992184356362</v>
+        <v>0.8999992184356344</v>
       </c>
       <c r="D12">
-        <v>0.9189075761075354</v>
+        <v>0.9189075761075337</v>
       </c>
       <c r="E12">
-        <v>0.9227519110910359</v>
+        <v>0.9227519110910338</v>
       </c>
       <c r="F12">
-        <v>0.9174842783398063</v>
+        <v>0.9174842783398048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025593564889017</v>
+        <v>1.025593564889016</v>
       </c>
       <c r="J12">
-        <v>0.9347340310149768</v>
+        <v>0.934734031014975</v>
       </c>
       <c r="K12">
-        <v>0.9357727655673576</v>
+        <v>0.9357727655673558</v>
       </c>
       <c r="L12">
-        <v>0.9395254516319655</v>
+        <v>0.9395254516319638</v>
       </c>
       <c r="M12">
-        <v>0.9343836609055713</v>
+        <v>0.93438366090557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9007559350614779</v>
+        <v>0.9007559350614786</v>
       </c>
       <c r="D13">
-        <v>0.9195577980955011</v>
+        <v>0.9195577980955019</v>
       </c>
       <c r="E13">
-        <v>0.9233844850605665</v>
+        <v>0.9233844850605673</v>
       </c>
       <c r="F13">
-        <v>0.9182310145234551</v>
+        <v>0.9182310145234561</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02578747520616</v>
       </c>
       <c r="J13">
-        <v>0.9353366265410101</v>
+        <v>0.9353366265410109</v>
       </c>
       <c r="K13">
-        <v>0.9363575156913686</v>
+        <v>0.9363575156913692</v>
       </c>
       <c r="L13">
-        <v>0.9400934584079053</v>
+        <v>0.9400934584079061</v>
       </c>
       <c r="M13">
-        <v>0.9350624318935779</v>
+        <v>0.9350624318935787</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9032132598777083</v>
+        <v>0.9032132598777096</v>
       </c>
       <c r="D14">
-        <v>0.9216699753113696</v>
+        <v>0.9216699753113707</v>
       </c>
       <c r="E14">
-        <v>0.9254394152482776</v>
+        <v>0.9254394152482787</v>
       </c>
       <c r="F14">
-        <v>0.9206561120332974</v>
+        <v>0.9206561120332984</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026416475237557</v>
       </c>
       <c r="J14">
-        <v>0.93729349515508</v>
+        <v>0.937293495155081</v>
       </c>
       <c r="K14">
-        <v>0.9382565786415602</v>
+        <v>0.938256578641561</v>
       </c>
       <c r="L14">
-        <v>0.9419381755962167</v>
+        <v>0.9419381755962178</v>
       </c>
       <c r="M14">
-        <v>0.9372665068740027</v>
+        <v>0.9372665068740035</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9047107642390404</v>
+        <v>0.9047107642390403</v>
       </c>
       <c r="D15">
-        <v>0.9229576505606217</v>
+        <v>0.9229576505606216</v>
       </c>
       <c r="E15">
-        <v>0.9266922502483182</v>
+        <v>0.9266922502483179</v>
       </c>
       <c r="F15">
-        <v>0.9221341041560706</v>
+        <v>0.9221341041560702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026799247679981</v>
+        <v>1.02679924767998</v>
       </c>
       <c r="J15">
-        <v>0.9384860330387486</v>
+        <v>0.9384860330387483</v>
       </c>
       <c r="K15">
-        <v>0.9394139992979472</v>
+        <v>0.939413999297947</v>
       </c>
       <c r="L15">
-        <v>0.94306249681646</v>
+        <v>0.9430624968164598</v>
       </c>
       <c r="M15">
-        <v>0.9386095655438347</v>
+        <v>0.9386095655438342</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9131894466127906</v>
+        <v>0.9131894466127904</v>
       </c>
       <c r="D16">
-        <v>0.9302554128465257</v>
+        <v>0.9302554128465259</v>
       </c>
       <c r="E16">
-        <v>0.9337933992418811</v>
+        <v>0.933793399241881</v>
       </c>
       <c r="F16">
-        <v>0.9305037533470295</v>
+        <v>0.9305037533470294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028957852815478</v>
+        <v>1.028957852815477</v>
       </c>
       <c r="J16">
-        <v>0.9452379141037417</v>
+        <v>0.9452379141037416</v>
       </c>
       <c r="K16">
         <v>0.9459686719096326</v>
       </c>
       <c r="L16">
-        <v>0.9494300290946812</v>
+        <v>0.9494300290946813</v>
       </c>
       <c r="M16">
         <v>0.9462116083523969</v>
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.918313626968573</v>
+        <v>0.9183136269685729</v>
       </c>
       <c r="D17">
         <v>0.9346716398149596</v>
@@ -1000,13 +1000,13 @@
         <v>0.9380913208518985</v>
       </c>
       <c r="F17">
-        <v>0.9355628437353376</v>
+        <v>0.9355628437353379</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030254444844379</v>
+        <v>1.03025444484438</v>
       </c>
       <c r="J17">
         <v>0.9493180610977974</v>
@@ -1015,10 +1015,10 @@
         <v>0.9499310255571064</v>
       </c>
       <c r="L17">
-        <v>0.9532794921106281</v>
+        <v>0.953279492110628</v>
       </c>
       <c r="M17">
-        <v>0.9508036039538221</v>
+        <v>0.9508036039538224</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9212378064777269</v>
+        <v>0.9212378064777265</v>
       </c>
       <c r="D18">
-        <v>0.9371937187610765</v>
+        <v>0.9371937187610762</v>
       </c>
       <c r="E18">
-        <v>0.9405460577412649</v>
+        <v>0.9405460577412643</v>
       </c>
       <c r="F18">
-        <v>0.9384500052152255</v>
+        <v>0.938450005215225</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030991319292251</v>
       </c>
       <c r="J18">
-        <v>0.9516461827406031</v>
+        <v>0.9516461827406026</v>
       </c>
       <c r="K18">
-        <v>0.9521924187184777</v>
+        <v>0.952192418718477</v>
       </c>
       <c r="L18">
-        <v>0.9554765304086673</v>
+        <v>0.9554765304086668</v>
       </c>
       <c r="M18">
-        <v>0.9534230617712143</v>
+        <v>0.9534230617712137</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9222243690382107</v>
+        <v>0.9222243690382106</v>
       </c>
       <c r="D19">
-        <v>0.9380449287141641</v>
+        <v>0.9380449287141637</v>
       </c>
       <c r="E19">
-        <v>0.9413745752428792</v>
+        <v>0.941374575242879</v>
       </c>
       <c r="F19">
-        <v>0.9394240859024015</v>
+        <v>0.9394240859024013</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031239395268631</v>
       </c>
       <c r="J19">
-        <v>0.9524315914820948</v>
+        <v>0.9524315914820946</v>
       </c>
       <c r="K19">
-        <v>0.952955397247903</v>
+        <v>0.9529553972479028</v>
       </c>
       <c r="L19">
-        <v>0.9562178076336471</v>
+        <v>0.9562178076336468</v>
       </c>
       <c r="M19">
-        <v>0.9543066287211963</v>
+        <v>0.9543066287211962</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9177706521846974</v>
+        <v>0.9177706521846954</v>
       </c>
       <c r="D20">
-        <v>0.9342034801883332</v>
+        <v>0.934203480188331</v>
       </c>
       <c r="E20">
-        <v>0.937635679119079</v>
+        <v>0.9376356791190771</v>
       </c>
       <c r="F20">
-        <v>0.9350267494423259</v>
+        <v>0.9350267494423243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030117367335511</v>
+        <v>1.03011736733551</v>
       </c>
       <c r="J20">
-        <v>0.9488857408569774</v>
+        <v>0.9488857408569755</v>
       </c>
       <c r="K20">
-        <v>0.9495111356084491</v>
+        <v>0.9495111356084471</v>
       </c>
       <c r="L20">
-        <v>0.9528715572016778</v>
+        <v>0.9528715572016762</v>
       </c>
       <c r="M20">
-        <v>0.9503171243598028</v>
+        <v>0.9503171243598013</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9024931216059453</v>
+        <v>0.9024931216059447</v>
       </c>
       <c r="D21">
-        <v>0.9210508782036755</v>
+        <v>0.921050878203675</v>
       </c>
       <c r="E21">
-        <v>0.9248370850052859</v>
+        <v>0.9248370850052853</v>
       </c>
       <c r="F21">
-        <v>0.9199453903772238</v>
+        <v>0.9199453903772233</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026232254351467</v>
       </c>
       <c r="J21">
-        <v>0.9367200157812248</v>
+        <v>0.9367200157812242</v>
       </c>
       <c r="K21">
-        <v>0.9377000166121313</v>
+        <v>0.9377000166121308</v>
       </c>
       <c r="L21">
-        <v>0.9413975359598764</v>
+        <v>0.9413975359598759</v>
       </c>
       <c r="M21">
-        <v>0.9366206081180966</v>
+        <v>0.9366206081180962</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8921794113187589</v>
+        <v>0.8921794113187579</v>
       </c>
       <c r="D22">
-        <v>0.912194108481605</v>
+        <v>0.9121941084816042</v>
       </c>
       <c r="E22">
-        <v>0.916221354538327</v>
+        <v>0.9162213545383268</v>
       </c>
       <c r="F22">
-        <v>0.9097694150538062</v>
+        <v>0.9097694150538053</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02358438127944</v>
       </c>
       <c r="J22">
-        <v>0.9285073511976402</v>
+        <v>0.9285073511976394</v>
       </c>
       <c r="K22">
-        <v>0.9297316915783016</v>
+        <v>0.9297316915783008</v>
       </c>
       <c r="L22">
-        <v>0.9336576258300054</v>
+        <v>0.933657625830005</v>
       </c>
       <c r="M22">
-        <v>0.9273685800156166</v>
+        <v>0.9273685800156157</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8977211143767712</v>
+        <v>0.897721114376769</v>
       </c>
       <c r="D23">
-        <v>0.916950672953953</v>
+        <v>0.9169506729539511</v>
       </c>
       <c r="E23">
-        <v>0.9208481925323397</v>
+        <v>0.920848192532338</v>
       </c>
       <c r="F23">
-        <v>0.9152363936468902</v>
+        <v>0.9152363936468886</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025009216500581</v>
       </c>
       <c r="J23">
-        <v>0.9329199468421155</v>
+        <v>0.9329199468421133</v>
       </c>
       <c r="K23">
-        <v>0.9340125299962924</v>
+        <v>0.9340125299962901</v>
       </c>
       <c r="L23">
-        <v>0.9378156449628188</v>
+        <v>0.9378156449628173</v>
       </c>
       <c r="M23">
-        <v>0.9323401161315175</v>
+        <v>0.9323401161315158</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9180161976896323</v>
+        <v>0.9180161976896318</v>
       </c>
       <c r="D24">
-        <v>0.9344151866904544</v>
+        <v>0.9344151866904538</v>
       </c>
       <c r="E24">
-        <v>0.9378417242183467</v>
+        <v>0.9378417242183459</v>
       </c>
       <c r="F24">
-        <v>0.935269183078288</v>
+        <v>0.9352691830782872</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030179366422329</v>
       </c>
       <c r="J24">
-        <v>0.9490812467289004</v>
+        <v>0.9490812467288996</v>
       </c>
       <c r="K24">
-        <v>0.9497010186887176</v>
+        <v>0.9497010186887169</v>
       </c>
       <c r="L24">
-        <v>0.9530560337329401</v>
+        <v>0.9530560337329397</v>
       </c>
       <c r="M24">
-        <v>0.9505371246921253</v>
+        <v>0.9505371246921244</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.939060903962964</v>
+        <v>0.9390609039629643</v>
       </c>
       <c r="D25">
-        <v>0.9525949765533576</v>
+        <v>0.9525949765533577</v>
       </c>
       <c r="E25">
         <v>0.9555394117124171</v>
       </c>
       <c r="F25">
-        <v>0.9560456586434668</v>
+        <v>0.9560456586434669</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03542537188635</v>
       </c>
       <c r="J25">
-        <v>0.9658287961449111</v>
+        <v>0.9658287961449114</v>
       </c>
       <c r="K25">
-        <v>0.965976651975117</v>
+        <v>0.9659766519751168</v>
       </c>
       <c r="L25">
-        <v>0.9688694993067386</v>
+        <v>0.9688694993067385</v>
       </c>
       <c r="M25">
-        <v>0.969366918015256</v>
+        <v>0.9693669180152563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542944253707597</v>
+        <v>0.9542944253707583</v>
       </c>
       <c r="D2">
-        <v>0.9657964548226715</v>
+        <v>0.96579645482267</v>
       </c>
       <c r="E2">
-        <v>0.9683954834627553</v>
+        <v>0.9683954834627541</v>
       </c>
       <c r="F2">
-        <v>0.9710744335425885</v>
+        <v>0.9710744335425874</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039116764121431</v>
       </c>
       <c r="J2">
-        <v>0.9779337518107051</v>
+        <v>0.9779337518107034</v>
       </c>
       <c r="K2">
-        <v>0.9777538012408082</v>
+        <v>0.9777538012408067</v>
       </c>
       <c r="L2">
-        <v>0.9803134145815536</v>
+        <v>0.9803134145815524</v>
       </c>
       <c r="M2">
-        <v>0.9829520183833445</v>
+        <v>0.9829520183833433</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646252907241265</v>
+        <v>0.9646252907241269</v>
       </c>
       <c r="D3">
-        <v>0.9747682433885846</v>
+        <v>0.9747682433885848</v>
       </c>
       <c r="E3">
-        <v>0.9771345658278059</v>
+        <v>0.9771345658278061</v>
       </c>
       <c r="F3">
-        <v>0.9812553981079899</v>
+        <v>0.9812553981079907</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041553302335521</v>
       </c>
       <c r="J3">
-        <v>0.9861290678168345</v>
+        <v>0.9861290678168348</v>
       </c>
       <c r="K3">
-        <v>0.9857344842225737</v>
+        <v>0.9857344842225739</v>
       </c>
       <c r="L3">
-        <v>0.988068622820555</v>
+        <v>0.9880686228205552</v>
       </c>
       <c r="M3">
-        <v>0.9921338741777539</v>
+        <v>0.9921338741777546</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710162368401326</v>
+        <v>0.9710162368401333</v>
       </c>
       <c r="D4">
-        <v>0.9803258721186813</v>
+        <v>0.9803258721186822</v>
       </c>
       <c r="E4">
-        <v>0.982548808799324</v>
+        <v>0.9825488087993243</v>
       </c>
       <c r="F4">
-        <v>0.9875471915350122</v>
+        <v>0.9875471915350124</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043028092756585</v>
       </c>
       <c r="J4">
-        <v>0.9911915762535505</v>
+        <v>0.991191576253551</v>
       </c>
       <c r="K4">
-        <v>0.9906676930938628</v>
+        <v>0.9906676930938634</v>
       </c>
       <c r="L4">
-        <v>0.9928625196872901</v>
+        <v>0.9928625196872904</v>
       </c>
       <c r="M4">
-        <v>0.9977982714344948</v>
+        <v>0.997798271434495</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736382393832422</v>
+        <v>0.9736382393832429</v>
       </c>
       <c r="D5">
-        <v>0.9826076075950132</v>
+        <v>0.982607607595014</v>
       </c>
       <c r="E5">
-        <v>0.9847718372643801</v>
+        <v>0.9847718372643809</v>
       </c>
       <c r="F5">
-        <v>0.9901268004484068</v>
+        <v>0.9901268004484077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043625118791205</v>
+        <v>1.043625118791206</v>
       </c>
       <c r="J5">
-        <v>0.9932666809972801</v>
+        <v>0.9932666809972809</v>
       </c>
       <c r="K5">
-        <v>0.9926905775934334</v>
+        <v>0.9926905775934342</v>
       </c>
       <c r="L5">
-        <v>0.9948282819313278</v>
+        <v>0.9948282819313284</v>
       </c>
       <c r="M5">
-        <v>1.000118232202958</v>
+        <v>1.000118232202959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,31 +573,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740748371642282</v>
+        <v>0.9740748371642275</v>
       </c>
       <c r="D6">
-        <v>0.9829876370367426</v>
+        <v>0.982987637036742</v>
       </c>
       <c r="E6">
-        <v>0.9851420977795049</v>
+        <v>0.9851420977795047</v>
       </c>
       <c r="F6">
-        <v>0.990556233473335</v>
+        <v>0.9905562334733345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043724052117631</v>
+        <v>1.04372405211763</v>
       </c>
       <c r="J6">
-        <v>0.9936120990032622</v>
+        <v>0.9936120990032615</v>
       </c>
       <c r="K6">
-        <v>0.9930273487518221</v>
+        <v>0.9930273487518214</v>
       </c>
       <c r="L6">
-        <v>0.995155543202824</v>
+        <v>0.9951555432028233</v>
       </c>
       <c r="M6">
         <v>1.000504297808329</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710515197476935</v>
+        <v>0.9710515197476921</v>
       </c>
       <c r="D7">
-        <v>0.9803565700239378</v>
+        <v>0.9803565700239365</v>
       </c>
       <c r="E7">
-        <v>0.9825787162624793</v>
+        <v>0.9825787162624778</v>
       </c>
       <c r="F7">
-        <v>0.987581910998149</v>
+        <v>0.9875819109981473</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043036158810751</v>
       </c>
       <c r="J7">
-        <v>0.991219507470671</v>
+        <v>0.9912195074706696</v>
       </c>
       <c r="K7">
-        <v>0.9906949183351074</v>
+        <v>0.9906949183351058</v>
       </c>
       <c r="L7">
-        <v>0.9928889761437149</v>
+        <v>0.9928889761437132</v>
       </c>
       <c r="M7">
-        <v>0.9978295058857147</v>
+        <v>0.9978295058857131</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578502341916146</v>
+        <v>0.9578502341916134</v>
       </c>
       <c r="D8">
-        <v>0.9688827801151164</v>
+        <v>0.968882780115115</v>
       </c>
       <c r="E8">
-        <v>0.9714015792184417</v>
+        <v>0.9714015792184402</v>
       </c>
       <c r="F8">
-        <v>0.9745799021845102</v>
+        <v>0.9745799021845087</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039962186312989</v>
       </c>
       <c r="J8">
-        <v>0.9807560020844674</v>
+        <v>0.980756002084466</v>
       </c>
       <c r="K8">
-        <v>0.9805014298202166</v>
+        <v>0.980501429820215</v>
       </c>
       <c r="L8">
-        <v>0.9829833940696685</v>
+        <v>0.9829833940696672</v>
       </c>
       <c r="M8">
-        <v>0.9861155816794238</v>
+        <v>0.9861155816794224</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9320390130586683</v>
+        <v>0.932039013058667</v>
       </c>
       <c r="D9">
-        <v>0.9465213817514635</v>
+        <v>0.9465213817514624</v>
       </c>
       <c r="E9">
-        <v>0.9496260121906726</v>
+        <v>0.9496260121906714</v>
       </c>
       <c r="F9">
-        <v>0.9491141772996613</v>
+        <v>0.9491141772996609</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033691289467387</v>
       </c>
       <c r="J9">
-        <v>0.9602430751891705</v>
+        <v>0.9602430751891693</v>
       </c>
       <c r="K9">
-        <v>0.960546103393044</v>
+        <v>0.9605461033930428</v>
       </c>
       <c r="L9">
-        <v>0.9635929069453403</v>
+        <v>0.9635929069453392</v>
       </c>
       <c r="M9">
-        <v>0.9630905715294659</v>
+        <v>0.9630905715294653</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9126012442614034</v>
+        <v>0.912601244261405</v>
       </c>
       <c r="D10">
-        <v>0.929748750553788</v>
+        <v>0.9297487505537894</v>
       </c>
       <c r="E10">
-        <v>0.9333003418812585</v>
+        <v>0.9333003418812599</v>
       </c>
       <c r="F10">
-        <v>0.9299230516789605</v>
+        <v>0.9299230516789623</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028808609684722</v>
       </c>
       <c r="J10">
-        <v>0.9447695271696517</v>
+        <v>0.9447695271696531</v>
       </c>
       <c r="K10">
-        <v>0.9455138749564952</v>
+        <v>0.9455138749564965</v>
       </c>
       <c r="L10">
-        <v>0.9489882006965571</v>
+        <v>0.9489882006965585</v>
       </c>
       <c r="M10">
-        <v>0.945684365826821</v>
+        <v>0.9456843658268225</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9035000710382625</v>
+        <v>0.9035000710382617</v>
       </c>
       <c r="D11">
-        <v>0.9219165691958022</v>
+        <v>0.9219165691958014</v>
       </c>
       <c r="E11">
-        <v>0.9256793336117184</v>
+        <v>0.9256793336117177</v>
       </c>
       <c r="F11">
-        <v>0.9209391789669564</v>
+        <v>0.9209391789669555</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026489818730499</v>
       </c>
       <c r="J11">
-        <v>0.9375218967553757</v>
+        <v>0.9375218967553749</v>
       </c>
       <c r="K11">
-        <v>0.9384782478926884</v>
+        <v>0.9384782478926876</v>
       </c>
       <c r="L11">
-        <v>0.9421535043289543</v>
+        <v>0.9421535043289536</v>
       </c>
       <c r="M11">
-        <v>0.937523744843492</v>
+        <v>0.9375237448434912</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8999992184356344</v>
+        <v>0.8999992184356362</v>
       </c>
       <c r="D12">
-        <v>0.9189075761075337</v>
+        <v>0.9189075761075354</v>
       </c>
       <c r="E12">
-        <v>0.9227519110910338</v>
+        <v>0.9227519110910359</v>
       </c>
       <c r="F12">
-        <v>0.9174842783398048</v>
+        <v>0.9174842783398063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025593564889016</v>
+        <v>1.025593564889017</v>
       </c>
       <c r="J12">
-        <v>0.934734031014975</v>
+        <v>0.9347340310149768</v>
       </c>
       <c r="K12">
-        <v>0.9357727655673558</v>
+        <v>0.9357727655673576</v>
       </c>
       <c r="L12">
-        <v>0.9395254516319638</v>
+        <v>0.9395254516319655</v>
       </c>
       <c r="M12">
-        <v>0.93438366090557</v>
+        <v>0.9343836609055713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9007559350614786</v>
+        <v>0.9007559350614779</v>
       </c>
       <c r="D13">
-        <v>0.9195577980955019</v>
+        <v>0.9195577980955011</v>
       </c>
       <c r="E13">
-        <v>0.9233844850605673</v>
+        <v>0.9233844850605665</v>
       </c>
       <c r="F13">
-        <v>0.9182310145234561</v>
+        <v>0.9182310145234551</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02578747520616</v>
       </c>
       <c r="J13">
-        <v>0.9353366265410109</v>
+        <v>0.9353366265410101</v>
       </c>
       <c r="K13">
-        <v>0.9363575156913692</v>
+        <v>0.9363575156913686</v>
       </c>
       <c r="L13">
-        <v>0.9400934584079061</v>
+        <v>0.9400934584079053</v>
       </c>
       <c r="M13">
-        <v>0.9350624318935787</v>
+        <v>0.9350624318935779</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9032132598777096</v>
+        <v>0.9032132598777083</v>
       </c>
       <c r="D14">
-        <v>0.9216699753113707</v>
+        <v>0.9216699753113696</v>
       </c>
       <c r="E14">
-        <v>0.9254394152482787</v>
+        <v>0.9254394152482776</v>
       </c>
       <c r="F14">
-        <v>0.9206561120332984</v>
+        <v>0.9206561120332974</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026416475237557</v>
       </c>
       <c r="J14">
-        <v>0.937293495155081</v>
+        <v>0.93729349515508</v>
       </c>
       <c r="K14">
-        <v>0.938256578641561</v>
+        <v>0.9382565786415602</v>
       </c>
       <c r="L14">
-        <v>0.9419381755962178</v>
+        <v>0.9419381755962167</v>
       </c>
       <c r="M14">
-        <v>0.9372665068740035</v>
+        <v>0.9372665068740027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9047107642390403</v>
+        <v>0.9047107642390404</v>
       </c>
       <c r="D15">
-        <v>0.9229576505606216</v>
+        <v>0.9229576505606217</v>
       </c>
       <c r="E15">
-        <v>0.9266922502483179</v>
+        <v>0.9266922502483182</v>
       </c>
       <c r="F15">
-        <v>0.9221341041560702</v>
+        <v>0.9221341041560706</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02679924767998</v>
+        <v>1.026799247679981</v>
       </c>
       <c r="J15">
-        <v>0.9384860330387483</v>
+        <v>0.9384860330387486</v>
       </c>
       <c r="K15">
-        <v>0.939413999297947</v>
+        <v>0.9394139992979472</v>
       </c>
       <c r="L15">
-        <v>0.9430624968164598</v>
+        <v>0.94306249681646</v>
       </c>
       <c r="M15">
-        <v>0.9386095655438342</v>
+        <v>0.9386095655438347</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9131894466127904</v>
+        <v>0.9131894466127906</v>
       </c>
       <c r="D16">
-        <v>0.9302554128465259</v>
+        <v>0.9302554128465257</v>
       </c>
       <c r="E16">
-        <v>0.933793399241881</v>
+        <v>0.9337933992418811</v>
       </c>
       <c r="F16">
-        <v>0.9305037533470294</v>
+        <v>0.9305037533470295</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028957852815477</v>
+        <v>1.028957852815478</v>
       </c>
       <c r="J16">
-        <v>0.9452379141037416</v>
+        <v>0.9452379141037417</v>
       </c>
       <c r="K16">
         <v>0.9459686719096326</v>
       </c>
       <c r="L16">
-        <v>0.9494300290946813</v>
+        <v>0.9494300290946812</v>
       </c>
       <c r="M16">
         <v>0.9462116083523969</v>
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9183136269685729</v>
+        <v>0.918313626968573</v>
       </c>
       <c r="D17">
         <v>0.9346716398149596</v>
@@ -1000,13 +1000,13 @@
         <v>0.9380913208518985</v>
       </c>
       <c r="F17">
-        <v>0.9355628437353379</v>
+        <v>0.9355628437353376</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03025444484438</v>
+        <v>1.030254444844379</v>
       </c>
       <c r="J17">
         <v>0.9493180610977974</v>
@@ -1015,10 +1015,10 @@
         <v>0.9499310255571064</v>
       </c>
       <c r="L17">
-        <v>0.953279492110628</v>
+        <v>0.9532794921106281</v>
       </c>
       <c r="M17">
-        <v>0.9508036039538224</v>
+        <v>0.9508036039538221</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9212378064777265</v>
+        <v>0.9212378064777269</v>
       </c>
       <c r="D18">
-        <v>0.9371937187610762</v>
+        <v>0.9371937187610765</v>
       </c>
       <c r="E18">
-        <v>0.9405460577412643</v>
+        <v>0.9405460577412649</v>
       </c>
       <c r="F18">
-        <v>0.938450005215225</v>
+        <v>0.9384500052152255</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030991319292251</v>
       </c>
       <c r="J18">
-        <v>0.9516461827406026</v>
+        <v>0.9516461827406031</v>
       </c>
       <c r="K18">
-        <v>0.952192418718477</v>
+        <v>0.9521924187184777</v>
       </c>
       <c r="L18">
-        <v>0.9554765304086668</v>
+        <v>0.9554765304086673</v>
       </c>
       <c r="M18">
-        <v>0.9534230617712137</v>
+        <v>0.9534230617712143</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9222243690382106</v>
+        <v>0.9222243690382107</v>
       </c>
       <c r="D19">
-        <v>0.9380449287141637</v>
+        <v>0.9380449287141641</v>
       </c>
       <c r="E19">
-        <v>0.941374575242879</v>
+        <v>0.9413745752428792</v>
       </c>
       <c r="F19">
-        <v>0.9394240859024013</v>
+        <v>0.9394240859024015</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031239395268631</v>
       </c>
       <c r="J19">
-        <v>0.9524315914820946</v>
+        <v>0.9524315914820948</v>
       </c>
       <c r="K19">
-        <v>0.9529553972479028</v>
+        <v>0.952955397247903</v>
       </c>
       <c r="L19">
-        <v>0.9562178076336468</v>
+        <v>0.9562178076336471</v>
       </c>
       <c r="M19">
-        <v>0.9543066287211962</v>
+        <v>0.9543066287211963</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9177706521846954</v>
+        <v>0.9177706521846974</v>
       </c>
       <c r="D20">
-        <v>0.934203480188331</v>
+        <v>0.9342034801883332</v>
       </c>
       <c r="E20">
-        <v>0.9376356791190771</v>
+        <v>0.937635679119079</v>
       </c>
       <c r="F20">
-        <v>0.9350267494423243</v>
+        <v>0.9350267494423259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03011736733551</v>
+        <v>1.030117367335511</v>
       </c>
       <c r="J20">
-        <v>0.9488857408569755</v>
+        <v>0.9488857408569774</v>
       </c>
       <c r="K20">
-        <v>0.9495111356084471</v>
+        <v>0.9495111356084491</v>
       </c>
       <c r="L20">
-        <v>0.9528715572016762</v>
+        <v>0.9528715572016778</v>
       </c>
       <c r="M20">
-        <v>0.9503171243598013</v>
+        <v>0.9503171243598028</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9024931216059447</v>
+        <v>0.9024931216059453</v>
       </c>
       <c r="D21">
-        <v>0.921050878203675</v>
+        <v>0.9210508782036755</v>
       </c>
       <c r="E21">
-        <v>0.9248370850052853</v>
+        <v>0.9248370850052859</v>
       </c>
       <c r="F21">
-        <v>0.9199453903772233</v>
+        <v>0.9199453903772238</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026232254351467</v>
       </c>
       <c r="J21">
-        <v>0.9367200157812242</v>
+        <v>0.9367200157812248</v>
       </c>
       <c r="K21">
-        <v>0.9377000166121308</v>
+        <v>0.9377000166121313</v>
       </c>
       <c r="L21">
-        <v>0.9413975359598759</v>
+        <v>0.9413975359598764</v>
       </c>
       <c r="M21">
-        <v>0.9366206081180962</v>
+        <v>0.9366206081180966</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8921794113187579</v>
+        <v>0.8921794113187589</v>
       </c>
       <c r="D22">
-        <v>0.9121941084816042</v>
+        <v>0.912194108481605</v>
       </c>
       <c r="E22">
-        <v>0.9162213545383268</v>
+        <v>0.916221354538327</v>
       </c>
       <c r="F22">
-        <v>0.9097694150538053</v>
+        <v>0.9097694150538062</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02358438127944</v>
       </c>
       <c r="J22">
-        <v>0.9285073511976394</v>
+        <v>0.9285073511976402</v>
       </c>
       <c r="K22">
-        <v>0.9297316915783008</v>
+        <v>0.9297316915783016</v>
       </c>
       <c r="L22">
-        <v>0.933657625830005</v>
+        <v>0.9336576258300054</v>
       </c>
       <c r="M22">
-        <v>0.9273685800156157</v>
+        <v>0.9273685800156166</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.897721114376769</v>
+        <v>0.8977211143767712</v>
       </c>
       <c r="D23">
-        <v>0.9169506729539511</v>
+        <v>0.916950672953953</v>
       </c>
       <c r="E23">
-        <v>0.920848192532338</v>
+        <v>0.9208481925323397</v>
       </c>
       <c r="F23">
-        <v>0.9152363936468886</v>
+        <v>0.9152363936468902</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025009216500581</v>
       </c>
       <c r="J23">
-        <v>0.9329199468421133</v>
+        <v>0.9329199468421155</v>
       </c>
       <c r="K23">
-        <v>0.9340125299962901</v>
+        <v>0.9340125299962924</v>
       </c>
       <c r="L23">
-        <v>0.9378156449628173</v>
+        <v>0.9378156449628188</v>
       </c>
       <c r="M23">
-        <v>0.9323401161315158</v>
+        <v>0.9323401161315175</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9180161976896318</v>
+        <v>0.9180161976896323</v>
       </c>
       <c r="D24">
-        <v>0.9344151866904538</v>
+        <v>0.9344151866904544</v>
       </c>
       <c r="E24">
-        <v>0.9378417242183459</v>
+        <v>0.9378417242183467</v>
       </c>
       <c r="F24">
-        <v>0.9352691830782872</v>
+        <v>0.935269183078288</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030179366422329</v>
       </c>
       <c r="J24">
-        <v>0.9490812467288996</v>
+        <v>0.9490812467289004</v>
       </c>
       <c r="K24">
-        <v>0.9497010186887169</v>
+        <v>0.9497010186887176</v>
       </c>
       <c r="L24">
-        <v>0.9530560337329397</v>
+        <v>0.9530560337329401</v>
       </c>
       <c r="M24">
-        <v>0.9505371246921244</v>
+        <v>0.9505371246921253</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390609039629643</v>
+        <v>0.939060903962964</v>
       </c>
       <c r="D25">
-        <v>0.9525949765533577</v>
+        <v>0.9525949765533576</v>
       </c>
       <c r="E25">
         <v>0.9555394117124171</v>
       </c>
       <c r="F25">
-        <v>0.9560456586434669</v>
+        <v>0.9560456586434668</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03542537188635</v>
       </c>
       <c r="J25">
-        <v>0.9658287961449114</v>
+        <v>0.9658287961449111</v>
       </c>
       <c r="K25">
-        <v>0.9659766519751168</v>
+        <v>0.965976651975117</v>
       </c>
       <c r="L25">
-        <v>0.9688694993067385</v>
+        <v>0.9688694993067386</v>
       </c>
       <c r="M25">
-        <v>0.9693669180152563</v>
+        <v>0.969366918015256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542944253707583</v>
+        <v>0.9543265062817055</v>
       </c>
       <c r="D2">
-        <v>0.96579645482267</v>
+        <v>0.9658262319577763</v>
       </c>
       <c r="E2">
-        <v>0.9683954834627541</v>
+        <v>0.9684234429313882</v>
       </c>
       <c r="F2">
-        <v>0.9710744335425874</v>
+        <v>0.971100224934212</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039116764121431</v>
+        <v>1.039123208465816</v>
       </c>
       <c r="J2">
-        <v>0.9779337518107034</v>
+        <v>0.977964740490994</v>
       </c>
       <c r="K2">
-        <v>0.9777538012408067</v>
+        <v>0.9777831252625196</v>
       </c>
       <c r="L2">
-        <v>0.9803134145815524</v>
+        <v>0.9803409514988917</v>
       </c>
       <c r="M2">
-        <v>0.9829520183833433</v>
+        <v>0.9829774227211648</v>
+      </c>
+      <c r="N2">
+        <v>0.9873949613185753</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646252907241269</v>
+        <v>0.9646501962578559</v>
       </c>
       <c r="D3">
-        <v>0.9747682433885848</v>
+        <v>0.9747914349173228</v>
       </c>
       <c r="E3">
-        <v>0.9771345658278061</v>
+        <v>0.9771563510238003</v>
       </c>
       <c r="F3">
-        <v>0.9812553981079907</v>
+        <v>0.9812753774991866</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041553302335521</v>
+        <v>1.041558299017378</v>
       </c>
       <c r="J3">
-        <v>0.9861290678168348</v>
+        <v>0.986153224062543</v>
       </c>
       <c r="K3">
-        <v>0.9857344842225739</v>
+        <v>0.9857573593738557</v>
       </c>
       <c r="L3">
-        <v>0.9880686228205552</v>
+        <v>0.9880901126317979</v>
       </c>
       <c r="M3">
-        <v>0.9921338741777546</v>
+        <v>0.9921535855200161</v>
+      </c>
+      <c r="N3">
+        <v>0.9929570662675447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710162368401333</v>
+        <v>0.9710368411377346</v>
       </c>
       <c r="D4">
-        <v>0.9803258721186822</v>
+        <v>0.9803451031948618</v>
       </c>
       <c r="E4">
-        <v>0.9825488087993243</v>
+        <v>0.9825668839780254</v>
       </c>
       <c r="F4">
-        <v>0.9875471915350124</v>
+        <v>0.9875637013737947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043028092756585</v>
+        <v>1.0430322241463</v>
       </c>
       <c r="J4">
-        <v>0.991191576253551</v>
+        <v>0.9912116096703835</v>
       </c>
       <c r="K4">
-        <v>0.9906676930938634</v>
+        <v>0.9906866803015081</v>
       </c>
       <c r="L4">
-        <v>0.9928625196872904</v>
+        <v>0.9928803669472449</v>
       </c>
       <c r="M4">
-        <v>0.997798271434495</v>
+        <v>0.9978145757097527</v>
+      </c>
+      <c r="N4">
+        <v>0.9963920926809425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736382393832429</v>
+        <v>0.9736571073037519</v>
       </c>
       <c r="D5">
-        <v>0.982607607595014</v>
+        <v>0.9826252372221926</v>
       </c>
       <c r="E5">
-        <v>0.9847718372643809</v>
+        <v>0.9847884129236565</v>
       </c>
       <c r="F5">
-        <v>0.9901268004484077</v>
+        <v>0.9901419126964813</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043625118791206</v>
+        <v>1.043628901352223</v>
       </c>
       <c r="J5">
-        <v>0.9932666809972809</v>
+        <v>0.993285044260332</v>
       </c>
       <c r="K5">
-        <v>0.9926905775934342</v>
+        <v>0.992707990560361</v>
       </c>
       <c r="L5">
-        <v>0.9948282819313284</v>
+        <v>0.9948446549945917</v>
       </c>
       <c r="M5">
-        <v>1.000118232202959</v>
+        <v>1.000133162213366</v>
+      </c>
+      <c r="N5">
+        <v>0.9977998739262778</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740748371642275</v>
+        <v>0.9740934174967577</v>
       </c>
       <c r="D6">
-        <v>0.982987637036742</v>
+        <v>0.9830050012786721</v>
       </c>
       <c r="E6">
-        <v>0.9851420977795047</v>
+        <v>0.9851584249820088</v>
       </c>
       <c r="F6">
-        <v>0.9905562334733345</v>
+        <v>0.9905711144129684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04372405211763</v>
+        <v>1.043727776929005</v>
       </c>
       <c r="J6">
-        <v>0.9936120990032615</v>
+        <v>0.9936301853241893</v>
       </c>
       <c r="K6">
-        <v>0.9930273487518214</v>
+        <v>0.9930445007239167</v>
       </c>
       <c r="L6">
-        <v>0.9951555432028233</v>
+        <v>0.9951716718958553</v>
       </c>
       <c r="M6">
-        <v>1.000504297808329</v>
+        <v>1.000519000267743</v>
+      </c>
+      <c r="N6">
+        <v>0.9980341968658514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710515197476921</v>
+        <v>0.9710721005732041</v>
       </c>
       <c r="D7">
-        <v>0.9803565700239365</v>
+        <v>0.9803757794620112</v>
       </c>
       <c r="E7">
-        <v>0.9825787162624778</v>
+        <v>0.9825967711777454</v>
       </c>
       <c r="F7">
-        <v>0.9875819109981473</v>
+        <v>0.9875984019328803</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043036158810751</v>
+        <v>1.043040285483271</v>
       </c>
       <c r="J7">
-        <v>0.9912195074706696</v>
+        <v>0.9912395183328709</v>
       </c>
       <c r="K7">
-        <v>0.9906949183351058</v>
+        <v>0.9907138842804222</v>
       </c>
       <c r="L7">
-        <v>0.9928889761437132</v>
+        <v>0.9929068034899428</v>
       </c>
       <c r="M7">
-        <v>0.9978295058857131</v>
+        <v>0.9978457915795431</v>
+      </c>
+      <c r="N7">
+        <v>0.996411042536695</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578502341916134</v>
+        <v>0.9578798128083655</v>
       </c>
       <c r="D8">
-        <v>0.968882780115115</v>
+        <v>0.968910263691667</v>
       </c>
       <c r="E8">
-        <v>0.9714015792184402</v>
+        <v>0.9714273876674807</v>
       </c>
       <c r="F8">
-        <v>0.9745799021845087</v>
+        <v>0.97460366331602</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039962186312989</v>
+        <v>1.039968125187746</v>
       </c>
       <c r="J8">
-        <v>0.980756002084466</v>
+        <v>0.9807846144736629</v>
       </c>
       <c r="K8">
-        <v>0.980501429820215</v>
+        <v>0.9805285101657735</v>
       </c>
       <c r="L8">
-        <v>0.9829833940696672</v>
+        <v>0.9830088263507114</v>
       </c>
       <c r="M8">
-        <v>0.9861155816794224</v>
+        <v>0.9861389993392999</v>
+      </c>
+      <c r="N8">
+        <v>0.9893105762729935</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.932039013058667</v>
+        <v>0.9320876344283148</v>
       </c>
       <c r="D9">
-        <v>0.9465213817514624</v>
+        <v>0.9465662350878528</v>
       </c>
       <c r="E9">
-        <v>0.9496260121906714</v>
+        <v>0.9496681293866156</v>
       </c>
       <c r="F9">
-        <v>0.9491141772996609</v>
+        <v>0.9491534802445263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033691289467387</v>
+        <v>1.033701092798782</v>
       </c>
       <c r="J9">
-        <v>0.9602430751891693</v>
+        <v>0.960289601828567</v>
       </c>
       <c r="K9">
-        <v>0.9605461033930428</v>
+        <v>0.9605901177654386</v>
       </c>
       <c r="L9">
-        <v>0.9635929069453392</v>
+        <v>0.9636342430555787</v>
       </c>
       <c r="M9">
-        <v>0.9630905715294653</v>
+        <v>0.963129144551878</v>
+      </c>
+      <c r="N9">
+        <v>0.9753843445667978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.912601244261405</v>
+        <v>0.9126657855314809</v>
       </c>
       <c r="D10">
-        <v>0.9297487505537894</v>
+        <v>0.9298079738559336</v>
       </c>
       <c r="E10">
-        <v>0.9333003418812599</v>
+        <v>0.9333559819915521</v>
       </c>
       <c r="F10">
-        <v>0.9299230516789623</v>
+        <v>0.9299755038286643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028808609684722</v>
+        <v>1.028821675290613</v>
       </c>
       <c r="J10">
-        <v>0.9447695271696531</v>
+        <v>0.9448307404061033</v>
       </c>
       <c r="K10">
-        <v>0.9455138749564965</v>
+        <v>0.9455718034133954</v>
       </c>
       <c r="L10">
-        <v>0.9489882006965585</v>
+        <v>0.9490426365537157</v>
       </c>
       <c r="M10">
-        <v>0.9456843658268225</v>
+        <v>0.9457356717342859</v>
+      </c>
+      <c r="N10">
+        <v>0.9648766962766279</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9035000710382617</v>
+        <v>0.9035726386606417</v>
       </c>
       <c r="D11">
-        <v>0.9219165691958014</v>
+        <v>0.9219829853030083</v>
       </c>
       <c r="E11">
-        <v>0.9256793336117177</v>
+        <v>0.9257417522908475</v>
       </c>
       <c r="F11">
-        <v>0.9209391789669555</v>
+        <v>0.9209983111024819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026489818730499</v>
+        <v>1.026504539341185</v>
       </c>
       <c r="J11">
-        <v>0.9375218967553749</v>
+        <v>0.9375904198440745</v>
       </c>
       <c r="K11">
-        <v>0.9384782478926876</v>
+        <v>0.9385431111160994</v>
       </c>
       <c r="L11">
-        <v>0.9421535043289536</v>
+        <v>0.942214479400598</v>
       </c>
       <c r="M11">
-        <v>0.9375237448434912</v>
+        <v>0.9375814904551319</v>
+      </c>
+      <c r="N11">
+        <v>0.959954909102095</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8999992184356362</v>
+        <v>0.9000749835203601</v>
       </c>
       <c r="D12">
-        <v>0.9189075761075354</v>
+        <v>0.9189768480128144</v>
       </c>
       <c r="E12">
-        <v>0.9227519110910359</v>
+        <v>0.9228170228211487</v>
       </c>
       <c r="F12">
-        <v>0.9174842783398063</v>
+        <v>0.9175460805356517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025593564889017</v>
+        <v>1.025608946585898</v>
       </c>
       <c r="J12">
-        <v>0.9347340310149768</v>
+        <v>0.9348054491702273</v>
       </c>
       <c r="K12">
-        <v>0.9357727655673576</v>
+        <v>0.9358403769227317</v>
       </c>
       <c r="L12">
-        <v>0.9395254516319655</v>
+        <v>0.9395890199158737</v>
       </c>
       <c r="M12">
-        <v>0.9343836609055713</v>
+        <v>0.9344439754149602</v>
+      </c>
+      <c r="N12">
+        <v>0.9580617364399073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9007559350614779</v>
+        <v>0.9008310035790299</v>
       </c>
       <c r="D13">
-        <v>0.9195577980955011</v>
+        <v>0.9196264483280102</v>
       </c>
       <c r="E13">
-        <v>0.9233844850605665</v>
+        <v>0.923449010464379</v>
       </c>
       <c r="F13">
-        <v>0.9182310145234551</v>
+        <v>0.918292234621874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02578747520616</v>
+        <v>1.02580271280185</v>
       </c>
       <c r="J13">
-        <v>0.9353366265410101</v>
+        <v>0.9354074148153084</v>
       </c>
       <c r="K13">
-        <v>0.9363575156913686</v>
+        <v>0.9364245290582708</v>
       </c>
       <c r="L13">
-        <v>0.9400934584079053</v>
+        <v>0.9401564623264322</v>
       </c>
       <c r="M13">
-        <v>0.9350624318935779</v>
+        <v>0.9351221866034387</v>
+      </c>
+      <c r="N13">
+        <v>0.9584709418990123</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9032132598777083</v>
+        <v>0.9032860870693533</v>
       </c>
       <c r="D14">
-        <v>0.9216699753113696</v>
+        <v>0.9217366234545582</v>
       </c>
       <c r="E14">
-        <v>0.9254394152482776</v>
+        <v>0.9255020527041307</v>
       </c>
       <c r="F14">
-        <v>0.9206561120332974</v>
+        <v>0.9207154607368453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026416475237557</v>
+        <v>1.026431249478213</v>
       </c>
       <c r="J14">
-        <v>0.93729349515508</v>
+        <v>0.9373622536202247</v>
       </c>
       <c r="K14">
-        <v>0.9382565786415602</v>
+        <v>0.9383216652616587</v>
       </c>
       <c r="L14">
-        <v>0.9419381755962167</v>
+        <v>0.9419993614327125</v>
       </c>
       <c r="M14">
-        <v>0.9372665068740027</v>
+        <v>0.9373244609553888</v>
+      </c>
+      <c r="N14">
+        <v>0.9597998059549699</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9047107642390404</v>
+        <v>0.9047822407674008</v>
       </c>
       <c r="D15">
-        <v>0.9229576505606217</v>
+        <v>0.9230230909160023</v>
       </c>
       <c r="E15">
-        <v>0.9266922502483182</v>
+        <v>0.9267537490032125</v>
       </c>
       <c r="F15">
-        <v>0.9221341041560706</v>
+        <v>0.9221923263168977</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026799247679981</v>
+        <v>1.026813742930438</v>
       </c>
       <c r="J15">
-        <v>0.9384860330387486</v>
+        <v>0.9385535660353469</v>
       </c>
       <c r="K15">
-        <v>0.9394139992979472</v>
+        <v>0.9394779228869443</v>
       </c>
       <c r="L15">
-        <v>0.94306249681646</v>
+        <v>0.9431225854595444</v>
       </c>
       <c r="M15">
-        <v>0.9386095655438347</v>
+        <v>0.9386664349996988</v>
+      </c>
+      <c r="N15">
+        <v>0.9606096374097571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9131894466127906</v>
+        <v>0.9132534826340626</v>
       </c>
       <c r="D16">
-        <v>0.9302554128465257</v>
+        <v>0.9303141822088965</v>
       </c>
       <c r="E16">
-        <v>0.9337933992418811</v>
+        <v>0.9338486117673804</v>
       </c>
       <c r="F16">
-        <v>0.9305037533470295</v>
+        <v>0.9305557861013291</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028957852815478</v>
+        <v>1.028970814462471</v>
       </c>
       <c r="J16">
-        <v>0.9452379141037417</v>
+        <v>0.9452986651182581</v>
       </c>
       <c r="K16">
-        <v>0.9459686719096326</v>
+        <v>0.9460261620647294</v>
       </c>
       <c r="L16">
-        <v>0.9494300290946812</v>
+        <v>0.9494840518763018</v>
       </c>
       <c r="M16">
-        <v>0.9462116083523969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9462625093240137</v>
+      </c>
+      <c r="N16">
+        <v>0.9651947745106173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.918313626968573</v>
+        <v>0.9183733268110106</v>
       </c>
       <c r="D17">
-        <v>0.9346716398149596</v>
+        <v>0.9347265076528722</v>
       </c>
       <c r="E17">
-        <v>0.9380913208518985</v>
+        <v>0.9381428594325855</v>
       </c>
       <c r="F17">
-        <v>0.9355628437353376</v>
+        <v>0.9356112826262579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030254444844379</v>
+        <v>1.030266515405528</v>
       </c>
       <c r="J17">
-        <v>0.9493180610977974</v>
+        <v>0.9493748348913321</v>
       </c>
       <c r="K17">
-        <v>0.9499310255571064</v>
+        <v>0.9499847453399897</v>
       </c>
       <c r="L17">
-        <v>0.9532794921106281</v>
+        <v>0.9533299626506694</v>
       </c>
       <c r="M17">
-        <v>0.9508036039538221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.950851031850437</v>
+      </c>
+      <c r="N17">
+        <v>0.9679655644863698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9212378064777269</v>
+        <v>0.921295082630021</v>
       </c>
       <c r="D18">
-        <v>0.9371937187610765</v>
+        <v>0.9372464014022117</v>
       </c>
       <c r="E18">
-        <v>0.9405460577412649</v>
+        <v>0.940595539432777</v>
       </c>
       <c r="F18">
-        <v>0.9384500052152255</v>
+        <v>0.9384964396788303</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030991319292251</v>
+        <v>1.031002892671121</v>
       </c>
       <c r="J18">
-        <v>0.9516461827406031</v>
+        <v>0.9517007253501696</v>
       </c>
       <c r="K18">
-        <v>0.9521924187184777</v>
+        <v>0.9522440241770287</v>
       </c>
       <c r="L18">
-        <v>0.9554765304086673</v>
+        <v>0.9555250098392292</v>
       </c>
       <c r="M18">
-        <v>0.9534230617712143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.953468550145732</v>
+      </c>
+      <c r="N18">
+        <v>0.9695465545980709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9222243690382107</v>
+        <v>0.9222808355251051</v>
       </c>
       <c r="D19">
-        <v>0.9380449287141641</v>
+        <v>0.9380968806482876</v>
       </c>
       <c r="E19">
-        <v>0.9413745752428792</v>
+        <v>0.941423369268871</v>
       </c>
       <c r="F19">
-        <v>0.9394240859024015</v>
+        <v>0.9394698514649046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031239395268631</v>
+        <v>1.031250802701252</v>
       </c>
       <c r="J19">
-        <v>0.9524315914820948</v>
+        <v>0.9524853874221094</v>
       </c>
       <c r="K19">
-        <v>0.952955397247903</v>
+        <v>0.953006295278113</v>
       </c>
       <c r="L19">
-        <v>0.9562178076336471</v>
+        <v>0.9562656210067265</v>
       </c>
       <c r="M19">
-        <v>0.9543066287211963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9543514694555992</v>
+      </c>
+      <c r="N19">
+        <v>0.9700799090137959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9177706521846974</v>
+        <v>0.9178308060606609</v>
       </c>
       <c r="D20">
-        <v>0.9342034801883332</v>
+        <v>0.9342587570267206</v>
       </c>
       <c r="E20">
-        <v>0.937635679119079</v>
+        <v>0.9376876027527614</v>
       </c>
       <c r="F20">
-        <v>0.9350267494423259</v>
+        <v>0.9350755641748163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030117367335511</v>
+        <v>1.030129531105889</v>
       </c>
       <c r="J20">
-        <v>0.9488857408569774</v>
+        <v>0.9489429319694495</v>
       </c>
       <c r="K20">
-        <v>0.9495111356084491</v>
+        <v>0.9495652509189226</v>
       </c>
       <c r="L20">
-        <v>0.9528715572016778</v>
+        <v>0.9529224002910446</v>
       </c>
       <c r="M20">
-        <v>0.9503171243598028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9503649157299573</v>
+      </c>
+      <c r="N20">
+        <v>0.9676719811114682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9024931216059453</v>
+        <v>0.9025666023940226</v>
       </c>
       <c r="D21">
-        <v>0.9210508782036755</v>
+        <v>0.9211181104552854</v>
       </c>
       <c r="E21">
-        <v>0.9248370850052859</v>
+        <v>0.9249002732200329</v>
       </c>
       <c r="F21">
-        <v>0.9199453903772238</v>
+        <v>0.9200052845468847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026232254351467</v>
+        <v>1.026247163661665</v>
       </c>
       <c r="J21">
-        <v>0.9367200157812248</v>
+        <v>0.9367893666458188</v>
       </c>
       <c r="K21">
-        <v>0.9377000166121313</v>
+        <v>0.9377656655072806</v>
       </c>
       <c r="L21">
-        <v>0.9413975359598764</v>
+        <v>0.9414592523080475</v>
       </c>
       <c r="M21">
-        <v>0.9366206081180966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9366790871844842</v>
+      </c>
+      <c r="N21">
+        <v>0.959410367909192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8921794113187589</v>
+        <v>0.8922625582711807</v>
       </c>
       <c r="D22">
-        <v>0.912194108481605</v>
+        <v>0.9122699528505162</v>
       </c>
       <c r="E22">
-        <v>0.916221354538327</v>
+        <v>0.9162926677645491</v>
       </c>
       <c r="F22">
-        <v>0.9097694150538062</v>
+        <v>0.9098374002247022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02358438127944</v>
+        <v>1.023601292844388</v>
       </c>
       <c r="J22">
-        <v>0.9285073511976402</v>
+        <v>0.9285854173043859</v>
       </c>
       <c r="K22">
-        <v>0.9297316915783016</v>
+        <v>0.9298056167983643</v>
       </c>
       <c r="L22">
-        <v>0.9336576258300054</v>
+        <v>0.9337271558811423</v>
       </c>
       <c r="M22">
-        <v>0.9273685800156166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9274348324673698</v>
+      </c>
+      <c r="N22">
+        <v>0.9538334911742733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8977211143767712</v>
+        <v>0.8977989949876325</v>
       </c>
       <c r="D23">
-        <v>0.916950672953953</v>
+        <v>0.9170218313513494</v>
       </c>
       <c r="E23">
-        <v>0.9208481925323397</v>
+        <v>0.9209150837694783</v>
       </c>
       <c r="F23">
-        <v>0.9152363936468902</v>
+        <v>0.915299965149395</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025009216500581</v>
+        <v>1.025025036123659</v>
       </c>
       <c r="J23">
-        <v>0.9329199468421155</v>
+        <v>0.9329932752534577</v>
       </c>
       <c r="K23">
-        <v>0.9340125299962924</v>
+        <v>0.9340819551422125</v>
       </c>
       <c r="L23">
-        <v>0.9378156449628188</v>
+        <v>0.9378809253475058</v>
       </c>
       <c r="M23">
-        <v>0.9323401161315175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9324021313483918</v>
+      </c>
+      <c r="N23">
+        <v>0.9568298540248702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9180161976896323</v>
+        <v>0.9180761460845491</v>
       </c>
       <c r="D24">
-        <v>0.9344151866904544</v>
+        <v>0.9344702784422074</v>
       </c>
       <c r="E24">
-        <v>0.9378417242183467</v>
+        <v>0.9378934735998118</v>
       </c>
       <c r="F24">
-        <v>0.935269183078288</v>
+        <v>0.9353178277033229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030179366422329</v>
+        <v>1.03019148800642</v>
       </c>
       <c r="J24">
-        <v>0.9490812467289004</v>
+        <v>0.9491382490015681</v>
       </c>
       <c r="K24">
-        <v>0.9497010186887176</v>
+        <v>0.9497549550175677</v>
       </c>
       <c r="L24">
-        <v>0.9530560337329401</v>
+        <v>0.9531067082358754</v>
       </c>
       <c r="M24">
-        <v>0.9505371246921253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9505847515603464</v>
+      </c>
+      <c r="N24">
+        <v>0.9678047468048896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.939060903962964</v>
+        <v>0.9391041311606667</v>
       </c>
       <c r="D25">
-        <v>0.9525949765533576</v>
+        <v>0.952634929522598</v>
       </c>
       <c r="E25">
-        <v>0.9555394117124171</v>
+        <v>0.9555769236285496</v>
       </c>
       <c r="F25">
-        <v>0.9560456586434668</v>
+        <v>0.9560805379466083</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03542537188635</v>
+        <v>1.035434076337876</v>
       </c>
       <c r="J25">
-        <v>0.9658287961449111</v>
+        <v>0.9658702875319992</v>
       </c>
       <c r="K25">
-        <v>0.965976651975117</v>
+        <v>0.9660159021840752</v>
       </c>
       <c r="L25">
-        <v>0.9688694993067386</v>
+        <v>0.9689063566531619</v>
       </c>
       <c r="M25">
-        <v>0.969366918015256</v>
+        <v>0.9694011895189678</v>
+      </c>
+      <c r="N25">
+        <v>0.9791770656312174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9543265062817055</v>
+        <v>1.007262983783375</v>
       </c>
       <c r="D2">
-        <v>0.9658262319577763</v>
+        <v>1.022280534613211</v>
       </c>
       <c r="E2">
-        <v>0.9684234429313882</v>
+        <v>1.020956438406267</v>
       </c>
       <c r="F2">
-        <v>0.971100224934212</v>
+        <v>1.029238628513511</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039123208465816</v>
+        <v>1.051152886845937</v>
       </c>
       <c r="J2">
-        <v>0.977964740490994</v>
+        <v>1.029228609318267</v>
       </c>
       <c r="K2">
-        <v>0.9777831252625196</v>
+        <v>1.03343795338186</v>
       </c>
       <c r="L2">
-        <v>0.9803409514988917</v>
+        <v>1.032131337467</v>
       </c>
       <c r="M2">
-        <v>0.9829774227211648</v>
+        <v>1.040305114035919</v>
       </c>
       <c r="N2">
-        <v>0.9873949613185753</v>
+        <v>1.030690231997671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9646501962578559</v>
+        <v>1.019893289043817</v>
       </c>
       <c r="D3">
-        <v>0.9747914349173228</v>
+        <v>1.034190030527102</v>
       </c>
       <c r="E3">
-        <v>0.9771563510238003</v>
+        <v>1.031995785940759</v>
       </c>
       <c r="F3">
-        <v>0.9812753774991866</v>
+        <v>1.040996213450911</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041558299017378</v>
+        <v>1.054017563300312</v>
       </c>
       <c r="J3">
-        <v>0.986153224062543</v>
+        <v>1.03985595201083</v>
       </c>
       <c r="K3">
-        <v>0.9857573593738557</v>
+        <v>1.044403363197371</v>
       </c>
       <c r="L3">
-        <v>0.9880901126317979</v>
+        <v>1.042235009862119</v>
       </c>
       <c r="M3">
-        <v>0.9921535855200161</v>
+        <v>1.051130093966262</v>
       </c>
       <c r="N3">
-        <v>0.9929570662675447</v>
+        <v>1.04133266673583</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710368411377346</v>
+        <v>1.027675155600144</v>
       </c>
       <c r="D4">
-        <v>0.9803451031948618</v>
+        <v>1.041532830945525</v>
       </c>
       <c r="E4">
-        <v>0.9825668839780254</v>
+        <v>1.038804139206155</v>
       </c>
       <c r="F4">
-        <v>0.9875637013737947</v>
+        <v>1.048243509082578</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0430322241463</v>
+        <v>1.055752761088825</v>
       </c>
       <c r="J4">
-        <v>0.9912116096703835</v>
+        <v>1.04639647730158</v>
       </c>
       <c r="K4">
-        <v>0.9906866803015081</v>
+        <v>1.051154557671955</v>
       </c>
       <c r="L4">
-        <v>0.9928803669472449</v>
+        <v>1.048455746908365</v>
       </c>
       <c r="M4">
-        <v>0.9978145757097527</v>
+        <v>1.057792560554834</v>
       </c>
       <c r="N4">
-        <v>0.9963920926809425</v>
+        <v>1.047882480322701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736571073037519</v>
+        <v>1.030861512291653</v>
       </c>
       <c r="D5">
-        <v>0.9826252372221926</v>
+        <v>1.044540447845796</v>
       </c>
       <c r="E5">
-        <v>0.9847884129236565</v>
+        <v>1.041593290343562</v>
       </c>
       <c r="F5">
-        <v>0.9901419126964813</v>
+        <v>1.051211524414515</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043628901352223</v>
+        <v>1.056455861752642</v>
       </c>
       <c r="J5">
-        <v>0.993285044260332</v>
+        <v>1.049072681451795</v>
       </c>
       <c r="K5">
-        <v>0.992707990560361</v>
+        <v>1.053917574373523</v>
       </c>
       <c r="L5">
-        <v>0.9948446549945917</v>
+        <v>1.051001674985077</v>
       </c>
       <c r="M5">
-        <v>1.000133162213366</v>
+        <v>1.060518686930547</v>
       </c>
       <c r="N5">
-        <v>0.9977998739262778</v>
+        <v>1.050562484989775</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740934174967577</v>
+        <v>1.031391744706031</v>
       </c>
       <c r="D6">
-        <v>0.9830050012786721</v>
+        <v>1.04504099336033</v>
       </c>
       <c r="E6">
-        <v>0.9851584249820088</v>
+        <v>1.042057502414532</v>
       </c>
       <c r="F6">
-        <v>0.9905711144129684</v>
+        <v>1.05170544970451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043727776929005</v>
+        <v>1.056572420962778</v>
       </c>
       <c r="J6">
-        <v>0.9936301853241893</v>
+        <v>1.049517907030268</v>
       </c>
       <c r="K6">
-        <v>0.9930445007239167</v>
+        <v>1.054377278193964</v>
       </c>
       <c r="L6">
-        <v>0.9951716718958553</v>
+        <v>1.051425260219123</v>
       </c>
       <c r="M6">
-        <v>1.000519000267743</v>
+        <v>1.060972218152131</v>
       </c>
       <c r="N6">
-        <v>0.9980341968658514</v>
+        <v>1.051008342839637</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710721005732041</v>
+        <v>1.027718056196092</v>
       </c>
       <c r="D7">
-        <v>0.9803757794620112</v>
+        <v>1.041573321096055</v>
       </c>
       <c r="E7">
-        <v>0.9825967711777454</v>
+        <v>1.038841686545314</v>
       </c>
       <c r="F7">
-        <v>0.9875984019328803</v>
+        <v>1.048283468062805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043040285483271</v>
+        <v>1.055762257192255</v>
       </c>
       <c r="J7">
-        <v>0.9912395183328709</v>
+        <v>1.046432516891922</v>
       </c>
       <c r="K7">
-        <v>0.9907138842804222</v>
+        <v>1.051191763921613</v>
       </c>
       <c r="L7">
-        <v>0.9929068034899428</v>
+        <v>1.048490029870696</v>
       </c>
       <c r="M7">
-        <v>0.9978457915795431</v>
+        <v>1.057829272381385</v>
       </c>
       <c r="N7">
-        <v>0.996411042536695</v>
+        <v>1.047918571093396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578798128083655</v>
+        <v>1.011617855642302</v>
       </c>
       <c r="D8">
-        <v>0.968910263691667</v>
+        <v>1.026385682150875</v>
       </c>
       <c r="E8">
-        <v>0.9714273876674807</v>
+        <v>1.024761182406467</v>
       </c>
       <c r="F8">
-        <v>0.97460366331602</v>
+        <v>1.033291780215464</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039968125187746</v>
+        <v>1.052146828661765</v>
       </c>
       <c r="J8">
-        <v>0.9807846144736629</v>
+        <v>1.032894333572497</v>
       </c>
       <c r="K8">
-        <v>0.9805285101657735</v>
+        <v>1.037219721213119</v>
       </c>
       <c r="L8">
-        <v>0.9830088263507114</v>
+        <v>1.035615876637619</v>
       </c>
       <c r="M8">
-        <v>0.9861389993392999</v>
+        <v>1.044038913289635</v>
       </c>
       <c r="N8">
-        <v>0.9893105762729935</v>
+        <v>1.034361162000806</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9320876344283148</v>
+        <v>0.9797919443626393</v>
       </c>
       <c r="D9">
-        <v>0.9465662350878528</v>
+        <v>0.996416573855299</v>
       </c>
       <c r="E9">
-        <v>0.9496681293866156</v>
+        <v>0.9969967814182423</v>
       </c>
       <c r="F9">
-        <v>0.9491534802445263</v>
+        <v>1.003696091202515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033701092798782</v>
+        <v>1.0447607917198</v>
       </c>
       <c r="J9">
-        <v>0.960289601828567</v>
+        <v>1.006079052668273</v>
       </c>
       <c r="K9">
-        <v>0.9605901177654386</v>
+        <v>1.009568058434822</v>
       </c>
       <c r="L9">
-        <v>0.9636342430555787</v>
+        <v>1.010138772399205</v>
       </c>
       <c r="M9">
-        <v>0.963129144551878</v>
+        <v>1.016729485190697</v>
       </c>
       <c r="N9">
-        <v>0.9753843445667978</v>
+        <v>1.007507800321943</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9126657855314809</v>
+        <v>0.9554188011306198</v>
       </c>
       <c r="D10">
-        <v>0.9298079738559336</v>
+        <v>0.9735209815283903</v>
       </c>
       <c r="E10">
-        <v>0.9333559819915521</v>
+        <v>0.9758045674755234</v>
       </c>
       <c r="F10">
-        <v>0.9299755038286643</v>
+        <v>0.981080926841589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028821675290613</v>
+        <v>1.038961133496421</v>
       </c>
       <c r="J10">
-        <v>0.9448307404061033</v>
+        <v>0.9855200888018291</v>
       </c>
       <c r="K10">
-        <v>0.9455718034133954</v>
+        <v>0.9883853669397783</v>
       </c>
       <c r="L10">
-        <v>0.9490426365537157</v>
+        <v>0.9906248654422428</v>
       </c>
       <c r="M10">
-        <v>0.9457356717342859</v>
+        <v>0.9958003844793828</v>
       </c>
       <c r="N10">
-        <v>0.9648766962766279</v>
+        <v>0.9869196403686616</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9035726386606417</v>
+        <v>0.9438501802728507</v>
       </c>
       <c r="D11">
-        <v>0.9219829853030083</v>
+        <v>0.9626728617160965</v>
       </c>
       <c r="E11">
-        <v>0.9257417522908475</v>
+        <v>0.9657696758565606</v>
       </c>
       <c r="F11">
-        <v>0.9209983111024819</v>
+        <v>0.9703659064377117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026504539341185</v>
+        <v>1.036181115325883</v>
       </c>
       <c r="J11">
-        <v>0.9375904198440745</v>
+        <v>0.9757609380282045</v>
       </c>
       <c r="K11">
-        <v>0.9385431111160994</v>
+        <v>0.9783347995067903</v>
       </c>
       <c r="L11">
-        <v>0.942214479400598</v>
+        <v>0.9813673448701551</v>
       </c>
       <c r="M11">
-        <v>0.9375814904551319</v>
+        <v>0.9858691859199861</v>
       </c>
       <c r="N11">
-        <v>0.959954909102095</v>
+        <v>0.9771466304815484</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9000749835203601</v>
+        <v>0.9393688861658885</v>
       </c>
       <c r="D12">
-        <v>0.9189768480128144</v>
+        <v>0.9584742324449537</v>
       </c>
       <c r="E12">
-        <v>0.9228170228211487</v>
+        <v>0.9618869055488526</v>
       </c>
       <c r="F12">
-        <v>0.9175460805356517</v>
+        <v>0.9662189898090755</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025608946585898</v>
+        <v>1.035100925911979</v>
       </c>
       <c r="J12">
-        <v>0.9348054491702273</v>
+        <v>0.9719809769705452</v>
       </c>
       <c r="K12">
-        <v>0.9358403769227317</v>
+        <v>0.9744427195760026</v>
       </c>
       <c r="L12">
-        <v>0.9395890199158737</v>
+        <v>0.9777826252620361</v>
       </c>
       <c r="M12">
-        <v>0.9344439754149602</v>
+        <v>0.982023316858442</v>
       </c>
       <c r="N12">
-        <v>0.9580617364399073</v>
+        <v>0.9733613014456196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9008310035790299</v>
+        <v>0.9403390961823398</v>
       </c>
       <c r="D13">
-        <v>0.9196264483280102</v>
+        <v>0.9593830714603255</v>
       </c>
       <c r="E13">
-        <v>0.923449010464379</v>
+        <v>0.9627273200673857</v>
       </c>
       <c r="F13">
-        <v>0.918292234621874</v>
+        <v>0.9671166229915609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02580271280185</v>
+        <v>1.035334922973717</v>
       </c>
       <c r="J13">
-        <v>0.9354074148153084</v>
+        <v>0.9727993181373078</v>
       </c>
       <c r="K13">
-        <v>0.9364245290582708</v>
+        <v>0.9752852989622767</v>
       </c>
       <c r="L13">
-        <v>0.9401564623264322</v>
+        <v>0.9785586529464096</v>
       </c>
       <c r="M13">
-        <v>0.9351221866034387</v>
+        <v>0.9828558904428867</v>
       </c>
       <c r="N13">
-        <v>0.9584709418990123</v>
+        <v>0.9741808047507038</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9032860870693533</v>
+        <v>0.9434837326836193</v>
       </c>
       <c r="D14">
-        <v>0.9217366234545582</v>
+        <v>0.9623294520433497</v>
       </c>
       <c r="E14">
-        <v>0.9255020527041307</v>
+        <v>0.9654520770182762</v>
       </c>
       <c r="F14">
-        <v>0.9207154607368453</v>
+        <v>0.9700267212905714</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026431249478213</v>
+        <v>1.036092846531575</v>
       </c>
       <c r="J14">
-        <v>0.9373622536202247</v>
+        <v>0.9754518285084971</v>
       </c>
       <c r="K14">
-        <v>0.9383216652616587</v>
+        <v>0.9780165058464115</v>
       </c>
       <c r="L14">
-        <v>0.9419993614327125</v>
+        <v>0.981074181562486</v>
       </c>
       <c r="M14">
-        <v>0.9373244609553888</v>
+        <v>0.985554670802784</v>
       </c>
       <c r="N14">
-        <v>0.9597998059549699</v>
+        <v>0.9768370819908676</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9047822407674008</v>
+        <v>0.9453957185018307</v>
       </c>
       <c r="D15">
-        <v>0.9230230909160023</v>
+        <v>0.9641213827369427</v>
       </c>
       <c r="E15">
-        <v>0.9267537490032125</v>
+        <v>0.9671093712157263</v>
       </c>
       <c r="F15">
-        <v>0.9221923263168977</v>
+        <v>0.9717966172434193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026813742930438</v>
+        <v>1.036553272147761</v>
       </c>
       <c r="J15">
-        <v>0.9385535660353469</v>
+        <v>0.9770646657535781</v>
       </c>
       <c r="K15">
-        <v>0.9394779228869443</v>
+        <v>0.9796772937744764</v>
       </c>
       <c r="L15">
-        <v>0.9431225854595444</v>
+        <v>0.9826038553218268</v>
       </c>
       <c r="M15">
-        <v>0.9386664349996988</v>
+        <v>0.987195743367365</v>
       </c>
       <c r="N15">
-        <v>0.9606096374097571</v>
+        <v>0.9784522096498316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9132534826340626</v>
+        <v>0.9561627005848091</v>
       </c>
       <c r="D16">
-        <v>0.9303141822088965</v>
+        <v>0.974218991370712</v>
       </c>
       <c r="E16">
-        <v>0.9338486117673804</v>
+        <v>0.9764503899681113</v>
       </c>
       <c r="F16">
-        <v>0.9305557861013291</v>
+        <v>0.9817703896550354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028970814462471</v>
+        <v>1.039139406274234</v>
       </c>
       <c r="J16">
-        <v>0.9452986651182581</v>
+        <v>0.986147656176274</v>
       </c>
       <c r="K16">
-        <v>0.9460261620647294</v>
+        <v>0.9890317725845541</v>
       </c>
       <c r="L16">
-        <v>0.9494840518763018</v>
+        <v>0.9912202963856047</v>
       </c>
       <c r="M16">
-        <v>0.9462625093240137</v>
+        <v>0.9964391033342099</v>
       </c>
       <c r="N16">
-        <v>0.9651947745106173</v>
+        <v>0.9875480989607616</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9183733268110106</v>
+        <v>0.9626253178117058</v>
       </c>
       <c r="D17">
-        <v>0.9347265076528722</v>
+        <v>0.9802851106167875</v>
       </c>
       <c r="E17">
-        <v>0.9381428594325855</v>
+        <v>0.9820636630956294</v>
       </c>
       <c r="F17">
-        <v>0.9356112826262579</v>
+        <v>0.9877622695825841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030266515405528</v>
+        <v>1.040685229057904</v>
       </c>
       <c r="J17">
-        <v>0.9493748348913321</v>
+        <v>0.9915995860352124</v>
       </c>
       <c r="K17">
-        <v>0.9499847453399897</v>
+        <v>0.9946478748853487</v>
       </c>
       <c r="L17">
-        <v>0.9533299626506694</v>
+        <v>0.9963936639893858</v>
       </c>
       <c r="M17">
-        <v>0.950851031850437</v>
+        <v>1.001988327734696</v>
       </c>
       <c r="N17">
-        <v>0.9679655644863698</v>
+        <v>0.9930077711854444</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.921295082630021</v>
+        <v>0.9662994962161813</v>
       </c>
       <c r="D18">
-        <v>0.9372464014022117</v>
+        <v>0.9837355681009414</v>
       </c>
       <c r="E18">
-        <v>0.940595539432777</v>
+        <v>0.9852570862275427</v>
       </c>
       <c r="F18">
-        <v>0.9384964396788303</v>
+        <v>0.991170508050316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031002892671121</v>
+        <v>1.041561532297475</v>
       </c>
       <c r="J18">
-        <v>0.9517007253501696</v>
+        <v>0.9946990367425965</v>
       </c>
       <c r="K18">
-        <v>0.9522440241770287</v>
+        <v>0.9978410796012251</v>
       </c>
       <c r="L18">
-        <v>0.9555250098392292</v>
+        <v>0.9993352484724309</v>
       </c>
       <c r="M18">
-        <v>0.953468550145732</v>
+        <v>1.005143410637851</v>
       </c>
       <c r="N18">
-        <v>0.9695465545980709</v>
+        <v>0.9961116234683451</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9222808355251051</v>
+        <v>0.9675369342783754</v>
       </c>
       <c r="D19">
-        <v>0.9380968806482876</v>
+        <v>0.9848979300210954</v>
       </c>
       <c r="E19">
-        <v>0.941423369268871</v>
+        <v>0.9863329489703205</v>
       </c>
       <c r="F19">
-        <v>0.9394698514649046</v>
+        <v>0.9923186451051073</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031250802701252</v>
+        <v>1.041856214686138</v>
       </c>
       <c r="J19">
-        <v>0.9524853874221094</v>
+        <v>0.9957428762936544</v>
       </c>
       <c r="K19">
-        <v>0.953006295278113</v>
+        <v>0.9989165639365263</v>
       </c>
       <c r="L19">
-        <v>0.9562656210067265</v>
+        <v>1.000326003174127</v>
       </c>
       <c r="M19">
-        <v>0.9543514694555992</v>
+        <v>1.006206035914907</v>
       </c>
       <c r="N19">
-        <v>0.9700799090137959</v>
+        <v>0.9971569453912958</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9178308060606609</v>
+        <v>0.9619420019461762</v>
       </c>
       <c r="D20">
-        <v>0.9342587570267206</v>
+        <v>0.9796435362994348</v>
       </c>
       <c r="E20">
-        <v>0.9376876027527614</v>
+        <v>0.9814699250285478</v>
       </c>
       <c r="F20">
-        <v>0.9350755641748163</v>
+        <v>0.9871285451664431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030129531105889</v>
+        <v>1.040522044125858</v>
       </c>
       <c r="J20">
-        <v>0.9489429319694495</v>
+        <v>0.9910231434588788</v>
       </c>
       <c r="K20">
-        <v>0.9495652509189226</v>
+        <v>0.9940540297418389</v>
       </c>
       <c r="L20">
-        <v>0.9529224002910446</v>
+        <v>0.9958466216209548</v>
       </c>
       <c r="M20">
-        <v>0.9503649157299573</v>
+        <v>1.001401563534</v>
       </c>
       <c r="N20">
-        <v>0.9676719811114682</v>
+        <v>0.992430509994534</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9025666023940226</v>
+        <v>0.9425631062930601</v>
       </c>
       <c r="D21">
-        <v>0.9211181104552854</v>
+        <v>0.9614667634840094</v>
       </c>
       <c r="E21">
-        <v>0.9249002732200329</v>
+        <v>0.964654246986858</v>
       </c>
       <c r="F21">
-        <v>0.9200052845468847</v>
+        <v>0.9691746490842583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026247163661665</v>
+        <v>1.035871039052197</v>
       </c>
       <c r="J21">
-        <v>0.9367893666458188</v>
+        <v>0.9746752611767443</v>
       </c>
       <c r="K21">
-        <v>0.9377656655072806</v>
+        <v>0.9772168777075979</v>
       </c>
       <c r="L21">
-        <v>0.9414592523080475</v>
+        <v>0.9803376910442448</v>
       </c>
       <c r="M21">
-        <v>0.9366790871844842</v>
+        <v>0.9847645355169357</v>
       </c>
       <c r="N21">
-        <v>0.959410367909192</v>
+        <v>0.9760594118444305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8922625582711807</v>
+        <v>0.9292889394927432</v>
       </c>
       <c r="D22">
-        <v>0.9122699528505162</v>
+        <v>0.9490377130539578</v>
       </c>
       <c r="E22">
-        <v>0.9162926677645491</v>
+        <v>0.9531626135529461</v>
       </c>
       <c r="F22">
-        <v>0.9098374002247022</v>
+        <v>0.9568992982760818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023601292844388</v>
+        <v>1.032666137782842</v>
       </c>
       <c r="J22">
-        <v>0.9285854173043859</v>
+        <v>0.9634800952990366</v>
       </c>
       <c r="K22">
-        <v>0.9298056167983643</v>
+        <v>0.9656911709598768</v>
       </c>
       <c r="L22">
-        <v>0.9337271558811423</v>
+        <v>0.9697227552174336</v>
       </c>
       <c r="M22">
-        <v>0.9274348324673698</v>
+        <v>0.9733758307348226</v>
       </c>
       <c r="N22">
-        <v>0.9538334911742733</v>
+        <v>0.9648483475470727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8977989949876325</v>
+        <v>0.936442667952526</v>
       </c>
       <c r="D23">
-        <v>0.9170218313513494</v>
+        <v>0.9557337013150874</v>
       </c>
       <c r="E23">
-        <v>0.9209150837694783</v>
+        <v>0.959352883089846</v>
       </c>
       <c r="F23">
-        <v>0.915299965149395</v>
+        <v>0.9635122936906316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025025036123659</v>
+        <v>1.03439476377887</v>
       </c>
       <c r="J23">
-        <v>0.9329932752534577</v>
+        <v>0.9695129167740845</v>
       </c>
       <c r="K23">
-        <v>0.9340819551422125</v>
+        <v>0.9719016742056139</v>
       </c>
       <c r="L23">
-        <v>0.9378809253475058</v>
+        <v>0.975442329287069</v>
       </c>
       <c r="M23">
-        <v>0.9324021313483918</v>
+        <v>0.9795124570176253</v>
       </c>
       <c r="N23">
-        <v>0.9568298540248702</v>
+        <v>0.9708897363205893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9180761460845491</v>
+        <v>0.9622510553729886</v>
       </c>
       <c r="D24">
-        <v>0.9344702784422074</v>
+        <v>0.9799337053952343</v>
       </c>
       <c r="E24">
-        <v>0.9378934735998118</v>
+        <v>0.9817384572053198</v>
       </c>
       <c r="F24">
-        <v>0.9353178277033229</v>
+        <v>0.9874151639184721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03019148800642</v>
+        <v>1.040595858189924</v>
       </c>
       <c r="J24">
-        <v>0.9491382490015681</v>
+        <v>0.9912838601376219</v>
       </c>
       <c r="K24">
-        <v>0.9497549550175677</v>
+        <v>0.9943226160395737</v>
       </c>
       <c r="L24">
-        <v>0.9531067082358754</v>
+        <v>0.9960940394616483</v>
       </c>
       <c r="M24">
-        <v>0.9505847515603464</v>
+        <v>1.001666947548649</v>
       </c>
       <c r="N24">
-        <v>0.9678047468048896</v>
+        <v>0.9926915969208651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9391041311606667</v>
+        <v>0.9885031932370321</v>
       </c>
       <c r="D25">
-        <v>0.952634929522598</v>
+        <v>1.004611959987765</v>
       </c>
       <c r="E25">
-        <v>0.9555769236285496</v>
+        <v>1.004586542819623</v>
       </c>
       <c r="F25">
-        <v>0.9560805379466083</v>
+        <v>1.011790510412869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035434076337876</v>
+        <v>1.046807809848636</v>
       </c>
       <c r="J25">
-        <v>0.9658702875319992</v>
+        <v>1.013423763585351</v>
       </c>
       <c r="K25">
-        <v>0.9660159021840752</v>
+        <v>1.01713910062528</v>
       </c>
       <c r="L25">
-        <v>0.9689063566531619</v>
+        <v>1.017114073429294</v>
       </c>
       <c r="M25">
-        <v>0.9694011895189678</v>
+        <v>1.024208510152099</v>
       </c>
       <c r="N25">
-        <v>0.9791770656312174</v>
+        <v>1.014862941570973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007262983783375</v>
+        <v>0.9794217794523251</v>
       </c>
       <c r="D2">
-        <v>1.022280534613211</v>
+        <v>0.9950013159922536</v>
       </c>
       <c r="E2">
-        <v>1.020956438406267</v>
+        <v>0.988589943539953</v>
       </c>
       <c r="F2">
-        <v>1.029238628513511</v>
+        <v>1.001709926417071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051152886845937</v>
+        <v>1.045373492823629</v>
       </c>
       <c r="J2">
-        <v>1.029228609318267</v>
+        <v>1.002235898972711</v>
       </c>
       <c r="K2">
-        <v>1.03343795338186</v>
+        <v>1.006530732521455</v>
       </c>
       <c r="L2">
-        <v>1.032131337467</v>
+        <v>1.00021056109363</v>
       </c>
       <c r="M2">
-        <v>1.040305114035919</v>
+        <v>1.013145490541575</v>
       </c>
       <c r="N2">
-        <v>1.030690231997671</v>
+        <v>1.004460526958373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019893289043817</v>
+        <v>0.984301515965111</v>
       </c>
       <c r="D3">
-        <v>1.034190030527102</v>
+        <v>0.9991402142007244</v>
       </c>
       <c r="E3">
-        <v>1.031995785940759</v>
+        <v>0.992499662329634</v>
       </c>
       <c r="F3">
-        <v>1.040996213450911</v>
+        <v>1.006299589611126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054017563300312</v>
+        <v>1.045675693335195</v>
       </c>
       <c r="J3">
-        <v>1.03985595201083</v>
+        <v>1.005229482440474</v>
       </c>
       <c r="K3">
-        <v>1.044403363197371</v>
+        <v>1.009784107980322</v>
       </c>
       <c r="L3">
-        <v>1.042235009862119</v>
+        <v>1.003229419531569</v>
       </c>
       <c r="M3">
-        <v>1.051130093966262</v>
+        <v>1.016852495603478</v>
       </c>
       <c r="N3">
-        <v>1.04133266673583</v>
+        <v>1.005499665364883</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027675155600144</v>
+        <v>0.9873937921806758</v>
       </c>
       <c r="D4">
-        <v>1.041532830945525</v>
+        <v>1.001768154556952</v>
       </c>
       <c r="E4">
-        <v>1.038804139206155</v>
+        <v>0.9949838976715589</v>
       </c>
       <c r="F4">
-        <v>1.048243509082578</v>
+        <v>1.009209986732715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055752761088825</v>
+        <v>1.045849009553502</v>
       </c>
       <c r="J4">
-        <v>1.04639647730158</v>
+        <v>1.007125557100018</v>
       </c>
       <c r="K4">
-        <v>1.051154557671955</v>
+        <v>1.011845286252673</v>
       </c>
       <c r="L4">
-        <v>1.048455746908365</v>
+        <v>1.005143242027968</v>
       </c>
       <c r="M4">
-        <v>1.057792560554834</v>
+        <v>1.0191985117984</v>
       </c>
       <c r="N4">
-        <v>1.047882480322701</v>
+        <v>1.006157039692864</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030861512291653</v>
+        <v>0.9886787758441995</v>
       </c>
       <c r="D5">
-        <v>1.044540447845796</v>
+        <v>1.00286135711297</v>
       </c>
       <c r="E5">
-        <v>1.041593290343562</v>
+        <v>0.9960177523838235</v>
       </c>
       <c r="F5">
-        <v>1.051211524414515</v>
+        <v>1.010419778656248</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056455861752642</v>
+        <v>1.045916581960175</v>
       </c>
       <c r="J5">
-        <v>1.049072681451795</v>
+        <v>1.007913193765981</v>
       </c>
       <c r="K5">
-        <v>1.053917574373523</v>
+        <v>1.012701633680706</v>
       </c>
       <c r="L5">
-        <v>1.051001674985077</v>
+        <v>1.005938664971435</v>
       </c>
       <c r="M5">
-        <v>1.060518686930547</v>
+        <v>1.020172564140551</v>
       </c>
       <c r="N5">
-        <v>1.050562484989775</v>
+        <v>1.006429917148537</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031391744706031</v>
+        <v>0.9888936672154058</v>
       </c>
       <c r="D6">
-        <v>1.04504099336033</v>
+        <v>1.003044243609074</v>
       </c>
       <c r="E6">
-        <v>1.042057502414532</v>
+        <v>0.9961907356880281</v>
       </c>
       <c r="F6">
-        <v>1.05170544970451</v>
+        <v>1.010622116064776</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056572420962778</v>
+        <v>1.045927618339512</v>
       </c>
       <c r="J6">
-        <v>1.049517907030268</v>
+        <v>1.008044895367254</v>
       </c>
       <c r="K6">
-        <v>1.054377278193964</v>
+        <v>1.012844831685163</v>
       </c>
       <c r="L6">
-        <v>1.051425260219123</v>
+        <v>1.006071692752021</v>
       </c>
       <c r="M6">
-        <v>1.060972218152131</v>
+        <v>1.020335406747967</v>
       </c>
       <c r="N6">
-        <v>1.051008342839637</v>
+        <v>1.006475533409144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027718056196092</v>
+        <v>0.9874110203884882</v>
       </c>
       <c r="D7">
-        <v>1.041573321096055</v>
+        <v>1.001782806938019</v>
       </c>
       <c r="E7">
-        <v>1.038841686545314</v>
+        <v>0.9949977528984997</v>
       </c>
       <c r="F7">
-        <v>1.048283468062805</v>
+        <v>1.009226205389909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055762257192255</v>
+        <v>1.04584993320357</v>
       </c>
       <c r="J7">
-        <v>1.046432516891922</v>
+        <v>1.007136118329976</v>
       </c>
       <c r="K7">
-        <v>1.051191763921613</v>
+        <v>1.011856768320132</v>
       </c>
       <c r="L7">
-        <v>1.048490029870696</v>
+        <v>1.005153906031903</v>
       </c>
       <c r="M7">
-        <v>1.057829272381385</v>
+        <v>1.019211574613048</v>
       </c>
       <c r="N7">
-        <v>1.047918571093396</v>
+        <v>1.006160699434544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011617855642302</v>
+        <v>0.9810847949073214</v>
       </c>
       <c r="D8">
-        <v>1.026385682150875</v>
+        <v>0.996410740269613</v>
       </c>
       <c r="E8">
-        <v>1.024761182406467</v>
+        <v>0.9899209448377112</v>
       </c>
       <c r="F8">
-        <v>1.033291780215464</v>
+        <v>1.00327362944547</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052146828661765</v>
+        <v>1.045480245243417</v>
       </c>
       <c r="J8">
-        <v>1.032894333572497</v>
+        <v>1.003256286540172</v>
       </c>
       <c r="K8">
-        <v>1.037219721213119</v>
+        <v>1.007639550871305</v>
       </c>
       <c r="L8">
-        <v>1.035615876637619</v>
+        <v>1.001239196679587</v>
       </c>
       <c r="M8">
-        <v>1.044038913289635</v>
+        <v>1.0144094391878</v>
       </c>
       <c r="N8">
-        <v>1.034361162000806</v>
+        <v>1.004814887848016</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9797919443626393</v>
+        <v>0.9694083825121701</v>
       </c>
       <c r="D9">
-        <v>0.996416573855299</v>
+        <v>0.9865392205030731</v>
       </c>
       <c r="E9">
-        <v>0.9969967814182423</v>
+        <v>0.9806064412612217</v>
       </c>
       <c r="F9">
-        <v>1.003696091202515</v>
+        <v>0.9923061099320101</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0447607917198</v>
+        <v>1.044656994483815</v>
       </c>
       <c r="J9">
-        <v>1.006079052668273</v>
+        <v>0.9960896651315881</v>
       </c>
       <c r="K9">
-        <v>1.009568058434822</v>
+        <v>0.9998545312622484</v>
       </c>
       <c r="L9">
-        <v>1.010138772399205</v>
+        <v>0.994022202485524</v>
       </c>
       <c r="M9">
-        <v>1.016729485190697</v>
+        <v>1.005525260845864</v>
       </c>
       <c r="N9">
-        <v>1.007507800321943</v>
+        <v>1.002323002175482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9554188011306198</v>
+        <v>0.9612249060062429</v>
       </c>
       <c r="D10">
-        <v>0.9735209815283903</v>
+        <v>0.9796547492746761</v>
       </c>
       <c r="E10">
-        <v>0.9758045674755234</v>
+        <v>0.9741203944901544</v>
       </c>
       <c r="F10">
-        <v>0.981080926841589</v>
+        <v>0.9846381401619949</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038961133496421</v>
+        <v>1.043990193316779</v>
       </c>
       <c r="J10">
-        <v>0.9855200888018291</v>
+        <v>0.9910661317359699</v>
       </c>
       <c r="K10">
-        <v>0.9883853669397783</v>
+        <v>0.9944013235015892</v>
       </c>
       <c r="L10">
-        <v>0.9906248654422428</v>
+        <v>0.9889731812783668</v>
       </c>
       <c r="M10">
-        <v>0.9958003844793828</v>
+        <v>0.9992904098999751</v>
       </c>
       <c r="N10">
-        <v>0.9869196403686616</v>
+        <v>1.000572756566893</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9438501802728507</v>
+        <v>0.9575760007655781</v>
       </c>
       <c r="D11">
-        <v>0.9626728617160965</v>
+        <v>0.9765941778420797</v>
       </c>
       <c r="E11">
-        <v>0.9657696758565606</v>
+        <v>0.9712393541147575</v>
       </c>
       <c r="F11">
-        <v>0.9703659064377117</v>
+        <v>0.9812248666753818</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036181115325883</v>
+        <v>1.043672859075445</v>
       </c>
       <c r="J11">
-        <v>0.9757609380282045</v>
+        <v>0.9888267341417645</v>
       </c>
       <c r="K11">
-        <v>0.9783347995067903</v>
+        <v>0.9919714170482848</v>
       </c>
       <c r="L11">
-        <v>0.9813673448701551</v>
+        <v>0.9867248293604136</v>
       </c>
       <c r="M11">
-        <v>0.9858691859199861</v>
+        <v>0.9965097581678994</v>
       </c>
       <c r="N11">
-        <v>0.9771466304815484</v>
+        <v>0.9997918120675298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9393688861658885</v>
+        <v>0.9562038064659897</v>
       </c>
       <c r="D12">
-        <v>0.9584742324449537</v>
+        <v>0.9754446962145393</v>
       </c>
       <c r="E12">
-        <v>0.9618869055488526</v>
+        <v>0.970157666164567</v>
       </c>
       <c r="F12">
-        <v>0.9662189898090755</v>
+        <v>0.979942271993561</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035100925911979</v>
+        <v>1.043550630217395</v>
       </c>
       <c r="J12">
-        <v>0.9719809769705452</v>
+        <v>0.9879847382621034</v>
       </c>
       <c r="K12">
-        <v>0.9744427195760026</v>
+        <v>0.9910579581876856</v>
       </c>
       <c r="L12">
-        <v>0.9777826252620361</v>
+        <v>0.9858798357555825</v>
       </c>
       <c r="M12">
-        <v>0.982023316858442</v>
+        <v>0.9954641064319018</v>
       </c>
       <c r="N12">
-        <v>0.9733613014456196</v>
+        <v>0.9994980857388129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9403390961823398</v>
+        <v>0.9564989251138352</v>
       </c>
       <c r="D13">
-        <v>0.9593830714603255</v>
+        <v>0.975691848100484</v>
       </c>
       <c r="E13">
-        <v>0.9627273200673857</v>
+        <v>0.9703902250195888</v>
       </c>
       <c r="F13">
-        <v>0.9671166229915609</v>
+        <v>0.9802180737078622</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035334922973717</v>
+        <v>1.043577046883823</v>
       </c>
       <c r="J13">
-        <v>0.9727993181373078</v>
+        <v>0.9881658192422499</v>
       </c>
       <c r="K13">
-        <v>0.9752852989622767</v>
+        <v>0.9912544003758607</v>
       </c>
       <c r="L13">
-        <v>0.9785586529464096</v>
+        <v>0.9860615446353596</v>
       </c>
       <c r="M13">
-        <v>0.9828558904428867</v>
+        <v>0.9956889919761783</v>
       </c>
       <c r="N13">
-        <v>0.9741808047507038</v>
+        <v>0.9995612592181188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9434837326836193</v>
+        <v>0.9574629240655383</v>
       </c>
       <c r="D14">
-        <v>0.9623294520433497</v>
+        <v>0.9764994235887872</v>
       </c>
       <c r="E14">
-        <v>0.9654520770182762</v>
+        <v>0.9711501807770959</v>
       </c>
       <c r="F14">
-        <v>0.9700267212905714</v>
+        <v>0.9811191526828217</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036092846531575</v>
+        <v>1.04366284483774</v>
       </c>
       <c r="J14">
-        <v>0.9754518285084971</v>
+        <v>0.9887573455304094</v>
       </c>
       <c r="K14">
-        <v>0.9780165058464115</v>
+        <v>0.9918961357342178</v>
       </c>
       <c r="L14">
-        <v>0.981074181562486</v>
+        <v>0.9866551861636023</v>
       </c>
       <c r="M14">
-        <v>0.985554670802784</v>
+        <v>0.9964235891103861</v>
       </c>
       <c r="N14">
-        <v>0.9768370819908676</v>
+        <v>0.9997676080911517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9453957185018307</v>
+        <v>0.9580546147077134</v>
       </c>
       <c r="D15">
-        <v>0.9641213827369427</v>
+        <v>0.9769952996221504</v>
       </c>
       <c r="E15">
-        <v>0.9671093712157263</v>
+        <v>0.9716168652298851</v>
       </c>
       <c r="F15">
-        <v>0.9717966172434193</v>
+        <v>0.9816723578949693</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036553272147761</v>
+        <v>1.043715128613451</v>
       </c>
       <c r="J15">
-        <v>0.9770646657535781</v>
+        <v>0.9891204380138396</v>
       </c>
       <c r="K15">
-        <v>0.9796772937744764</v>
+        <v>0.9922900700638209</v>
       </c>
       <c r="L15">
-        <v>0.9826038553218268</v>
+        <v>0.9870196259103536</v>
       </c>
       <c r="M15">
-        <v>0.987195743367365</v>
+        <v>0.9968744834895976</v>
       </c>
       <c r="N15">
-        <v>0.9784522096498316</v>
+        <v>0.9998942572753674</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9561627005848091</v>
+        <v>0.9614647680891391</v>
       </c>
       <c r="D16">
-        <v>0.974218991370712</v>
+        <v>0.9798561349154884</v>
       </c>
       <c r="E16">
-        <v>0.9764503899681113</v>
+        <v>0.9743100175125692</v>
       </c>
       <c r="F16">
-        <v>0.9817703896550354</v>
+        <v>0.9848626432186675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039139406274234</v>
+        <v>1.044010646133031</v>
       </c>
       <c r="J16">
-        <v>0.986147656176274</v>
+        <v>0.9912133557222771</v>
       </c>
       <c r="K16">
-        <v>0.9890317725845541</v>
+        <v>0.9945610945222717</v>
       </c>
       <c r="L16">
-        <v>0.9912202963856047</v>
+        <v>0.9891210446889076</v>
       </c>
       <c r="M16">
-        <v>0.9964391033342099</v>
+        <v>0.9994731944452525</v>
       </c>
       <c r="N16">
-        <v>0.9875480989607616</v>
+        <v>1.000624083877528</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9626253178117058</v>
+        <v>0.963574970329779</v>
       </c>
       <c r="D17">
-        <v>0.9802851106167875</v>
+        <v>0.9816288869949831</v>
       </c>
       <c r="E17">
-        <v>0.9820636630956294</v>
+        <v>0.975979500605626</v>
       </c>
       <c r="F17">
-        <v>0.9877622695825841</v>
+        <v>0.9868383942640471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040685229057904</v>
+        <v>1.044188317891769</v>
       </c>
       <c r="J17">
-        <v>0.9915995860352124</v>
+        <v>0.9925086360807133</v>
       </c>
       <c r="K17">
-        <v>0.9946478748853487</v>
+        <v>0.9959668827757264</v>
       </c>
       <c r="L17">
-        <v>0.9963936639893858</v>
+        <v>0.9904222254427681</v>
       </c>
       <c r="M17">
-        <v>1.001988327734696</v>
+        <v>1.001081197865347</v>
       </c>
       <c r="N17">
-        <v>0.9930077711854444</v>
+        <v>1.001075582460586</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9662994962161813</v>
+        <v>0.9647957164443505</v>
       </c>
       <c r="D18">
-        <v>0.9837355681009414</v>
+        <v>0.982655277646844</v>
       </c>
       <c r="E18">
-        <v>0.9852570862275427</v>
+        <v>0.9769463287193914</v>
       </c>
       <c r="F18">
-        <v>0.991170508050316</v>
+        <v>0.9879818998442657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041561532297475</v>
+        <v>1.044289195135595</v>
       </c>
       <c r="J18">
-        <v>0.9946990367425965</v>
+        <v>0.9932579980274213</v>
       </c>
       <c r="K18">
-        <v>0.9978410796012251</v>
+        <v>0.9967802741902435</v>
       </c>
       <c r="L18">
-        <v>0.9993352484724309</v>
+        <v>0.9911752287531644</v>
       </c>
       <c r="M18">
-        <v>1.005143410637851</v>
+        <v>1.002011356872317</v>
       </c>
       <c r="N18">
-        <v>0.9961116234683451</v>
+        <v>1.0013367203677</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675369342783754</v>
+        <v>0.965210275218267</v>
       </c>
       <c r="D19">
-        <v>0.9848979300210954</v>
+        <v>0.9830039772419488</v>
       </c>
       <c r="E19">
-        <v>0.9863329489703205</v>
+        <v>0.9772748315111951</v>
       </c>
       <c r="F19">
-        <v>0.9923186451051073</v>
+        <v>0.9883703160944088</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041856214686138</v>
+        <v>1.044323125971094</v>
       </c>
       <c r="J19">
-        <v>0.9957428762936544</v>
+        <v>0.9935124832113328</v>
       </c>
       <c r="K19">
-        <v>0.9989165639365263</v>
+        <v>0.9970565200614107</v>
       </c>
       <c r="L19">
-        <v>1.000326003174127</v>
+        <v>0.9914309889852226</v>
       </c>
       <c r="M19">
-        <v>1.006206035914907</v>
+        <v>1.002327219015861</v>
       </c>
       <c r="N19">
-        <v>0.9971569453912958</v>
+        <v>1.001425391483089</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9619420019461762</v>
+        <v>0.9633496171286758</v>
       </c>
       <c r="D20">
-        <v>0.9796435362994348</v>
+        <v>0.9814394811076415</v>
       </c>
       <c r="E20">
-        <v>0.9814699250285478</v>
+        <v>0.9758011045612313</v>
       </c>
       <c r="F20">
-        <v>0.9871285451664431</v>
+        <v>0.9866273426250592</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040522044125858</v>
+        <v>1.044169540839317</v>
       </c>
       <c r="J20">
-        <v>0.9910231434588788</v>
+        <v>0.9923703049982115</v>
       </c>
       <c r="K20">
-        <v>0.9940540297418389</v>
+        <v>0.9958167397132595</v>
       </c>
       <c r="L20">
-        <v>0.9958466216209548</v>
+        <v>0.9902832405341317</v>
       </c>
       <c r="M20">
-        <v>1.001401563534</v>
+        <v>1.000909481644741</v>
       </c>
       <c r="N20">
-        <v>0.992430509994534</v>
+        <v>1.001027371166552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9425631062930601</v>
+        <v>0.9571795233096164</v>
       </c>
       <c r="D21">
-        <v>0.9614667634840094</v>
+        <v>0.9762619677783441</v>
       </c>
       <c r="E21">
-        <v>0.964654246986858</v>
+        <v>0.9709267167480858</v>
       </c>
       <c r="F21">
-        <v>0.9691746490842583</v>
+        <v>0.9808542212109408</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035871039052197</v>
+        <v>1.043637700249018</v>
       </c>
       <c r="J21">
-        <v>0.9746752611767443</v>
+        <v>0.988583441470825</v>
       </c>
       <c r="K21">
-        <v>0.9772168777075979</v>
+        <v>0.9917074659147683</v>
       </c>
       <c r="L21">
-        <v>0.9803376910442448</v>
+        <v>0.9864806500233055</v>
       </c>
       <c r="M21">
-        <v>0.9847645355169357</v>
+        <v>0.9962076270900814</v>
       </c>
       <c r="N21">
-        <v>0.9760594118444305</v>
+        <v>0.9997069457441272</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9292889394927432</v>
+        <v>0.9532022265941238</v>
       </c>
       <c r="D22">
-        <v>0.9490377130539578</v>
+        <v>0.9729330912871355</v>
       </c>
       <c r="E22">
-        <v>0.9531626135529461</v>
+        <v>0.9677948672762906</v>
       </c>
       <c r="F22">
-        <v>0.9568992982760818</v>
+        <v>0.9771386437290106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032666137782842</v>
+        <v>1.0432780707733</v>
       </c>
       <c r="J22">
-        <v>0.9634800952990366</v>
+        <v>0.9861432697292861</v>
       </c>
       <c r="K22">
-        <v>0.9656911709598768</v>
+        <v>0.9890605186248569</v>
       </c>
       <c r="L22">
-        <v>0.9697227552174336</v>
+        <v>0.984032498442541</v>
       </c>
       <c r="M22">
-        <v>0.9733758307348226</v>
+        <v>0.9931770121070674</v>
       </c>
       <c r="N22">
-        <v>0.9648483475470727</v>
+        <v>0.998855530905652</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.936442667952526</v>
+        <v>0.9553203001068178</v>
       </c>
       <c r="D23">
-        <v>0.9557337013150874</v>
+        <v>0.9747050119794635</v>
       </c>
       <c r="E23">
-        <v>0.959352883089846</v>
+        <v>0.9694617103890724</v>
       </c>
       <c r="F23">
-        <v>0.9635122936906316</v>
+        <v>0.9791167499799373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03439476377887</v>
+        <v>1.043471130778621</v>
       </c>
       <c r="J23">
-        <v>0.9695129167740845</v>
+        <v>0.9874426564528139</v>
       </c>
       <c r="K23">
-        <v>0.9719016742056139</v>
+        <v>0.9904699166509728</v>
       </c>
       <c r="L23">
-        <v>0.975442329287069</v>
+        <v>0.9853359289494507</v>
       </c>
       <c r="M23">
-        <v>0.9795124570176253</v>
+        <v>0.9947908734113486</v>
       </c>
       <c r="N23">
-        <v>0.9708897363205893</v>
+        <v>0.9993089569444835</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9622510553729886</v>
+        <v>0.9634514756766518</v>
       </c>
       <c r="D24">
-        <v>0.9799337053952343</v>
+        <v>0.9815250889899724</v>
       </c>
       <c r="E24">
-        <v>0.9817384572053198</v>
+        <v>0.9758817354951999</v>
       </c>
       <c r="F24">
-        <v>0.9874151639184721</v>
+        <v>0.9867227352740408</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040595858189924</v>
+        <v>1.04417803389266</v>
       </c>
       <c r="J24">
-        <v>0.9912838601376219</v>
+        <v>0.992432829835534</v>
       </c>
       <c r="K24">
-        <v>0.9943226160395737</v>
+        <v>0.9958846031961491</v>
       </c>
       <c r="L24">
-        <v>0.9960940394616483</v>
+        <v>0.9903460601912035</v>
       </c>
       <c r="M24">
-        <v>1.001666947548649</v>
+        <v>1.000987096754486</v>
       </c>
       <c r="N24">
-        <v>0.9926915969208651</v>
+        <v>1.00104916260246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9885031932370321</v>
+        <v>0.9724939856679159</v>
       </c>
       <c r="D25">
-        <v>1.004611959987765</v>
+        <v>0.9891423310800331</v>
       </c>
       <c r="E25">
-        <v>1.004586542819623</v>
+        <v>0.9830609622433357</v>
       </c>
       <c r="F25">
-        <v>1.011790510412869</v>
+        <v>0.9952015867903822</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046807809848636</v>
+        <v>1.04489042320468</v>
       </c>
       <c r="J25">
-        <v>1.013423763585351</v>
+        <v>0.997983868620851</v>
       </c>
       <c r="K25">
-        <v>1.01713910062528</v>
+        <v>1.001911569704155</v>
       </c>
       <c r="L25">
-        <v>1.017114073429294</v>
+        <v>0.9959280525694182</v>
       </c>
       <c r="M25">
-        <v>1.024208510152099</v>
+        <v>1.007874851463543</v>
       </c>
       <c r="N25">
-        <v>1.014862941570973</v>
+        <v>1.002982275523798</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9794217794523251</v>
+        <v>1.021506968033493</v>
       </c>
       <c r="D2">
-        <v>0.9950013159922536</v>
+        <v>1.029927289697108</v>
       </c>
       <c r="E2">
-        <v>0.988589943539953</v>
+        <v>1.022360159033294</v>
       </c>
       <c r="F2">
-        <v>1.001709926417071</v>
+        <v>1.038399514175351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045373492823629</v>
+        <v>1.026523612493456</v>
       </c>
       <c r="J2">
-        <v>1.002235898972711</v>
+        <v>1.026698047430847</v>
       </c>
       <c r="K2">
-        <v>1.006530732521455</v>
+        <v>1.032739781674504</v>
       </c>
       <c r="L2">
-        <v>1.00021056109363</v>
+        <v>1.025194769800136</v>
       </c>
       <c r="M2">
-        <v>1.013145490541575</v>
+        <v>1.041187657277945</v>
       </c>
       <c r="N2">
-        <v>1.004460526958373</v>
+        <v>1.012906584744852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.984301515965111</v>
+        <v>1.022549443408616</v>
       </c>
       <c r="D3">
-        <v>0.9991402142007244</v>
+        <v>1.03086100952761</v>
       </c>
       <c r="E3">
-        <v>0.992499662329634</v>
+        <v>1.023248168031278</v>
       </c>
       <c r="F3">
-        <v>1.006299589611126</v>
+        <v>1.039420861456714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045675693335195</v>
+        <v>1.026487278619574</v>
       </c>
       <c r="J3">
-        <v>1.005229482440474</v>
+        <v>1.027377687354206</v>
       </c>
       <c r="K3">
-        <v>1.009784107980322</v>
+        <v>1.033481411957718</v>
       </c>
       <c r="L3">
-        <v>1.003229419531569</v>
+        <v>1.02588920599141</v>
       </c>
       <c r="M3">
-        <v>1.016852495603478</v>
+        <v>1.042018451621703</v>
       </c>
       <c r="N3">
-        <v>1.005499665364883</v>
+        <v>1.013137385300332</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9873937921806758</v>
+        <v>1.023224573598764</v>
       </c>
       <c r="D4">
-        <v>1.001768154556952</v>
+        <v>1.031465864900698</v>
       </c>
       <c r="E4">
-        <v>0.9949838976715589</v>
+        <v>1.023823619344901</v>
       </c>
       <c r="F4">
-        <v>1.009209986732715</v>
+        <v>1.04008196648891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045849009553502</v>
+        <v>1.026461399693601</v>
       </c>
       <c r="J4">
-        <v>1.007125557100018</v>
+        <v>1.027817494128044</v>
       </c>
       <c r="K4">
-        <v>1.011845286252673</v>
+        <v>1.033961350299651</v>
       </c>
       <c r="L4">
-        <v>1.005143242027968</v>
+        <v>1.026338771949655</v>
       </c>
       <c r="M4">
-        <v>1.0191985117984</v>
+        <v>1.042555651953117</v>
       </c>
       <c r="N4">
-        <v>1.006157039692864</v>
+        <v>1.013286587367788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9886787758441995</v>
+        <v>1.023508536633653</v>
       </c>
       <c r="D5">
-        <v>1.00286135711297</v>
+        <v>1.031720307056358</v>
       </c>
       <c r="E5">
-        <v>0.9960177523838235</v>
+        <v>1.024065741701133</v>
       </c>
       <c r="F5">
-        <v>1.010419778656248</v>
+        <v>1.040359947728098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045916581960175</v>
+        <v>1.026449952123637</v>
       </c>
       <c r="J5">
-        <v>1.007913193765981</v>
+        <v>1.028002396493076</v>
       </c>
       <c r="K5">
-        <v>1.012701633680706</v>
+        <v>1.034163128515313</v>
       </c>
       <c r="L5">
-        <v>1.005938664971435</v>
+        <v>1.026527821297644</v>
       </c>
       <c r="M5">
-        <v>1.020172564140551</v>
+        <v>1.04278139901955</v>
       </c>
       <c r="N5">
-        <v>1.006429917148537</v>
+        <v>1.013349277772948</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9888936672154058</v>
+        <v>1.023556223378539</v>
       </c>
       <c r="D6">
-        <v>1.003044243609074</v>
+        <v>1.031763038425489</v>
       </c>
       <c r="E6">
-        <v>0.9961907356880281</v>
+        <v>1.02410640696611</v>
       </c>
       <c r="F6">
-        <v>1.010622116064776</v>
+        <v>1.040406625056001</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045927618339512</v>
+        <v>1.026447996683618</v>
       </c>
       <c r="J6">
-        <v>1.008044895367254</v>
+        <v>1.028033442841466</v>
       </c>
       <c r="K6">
-        <v>1.012844831685163</v>
+        <v>1.034197008654589</v>
       </c>
       <c r="L6">
-        <v>1.006071692752021</v>
+        <v>1.026559566533876</v>
       </c>
       <c r="M6">
-        <v>1.020335406747967</v>
+        <v>1.042819297518781</v>
       </c>
       <c r="N6">
-        <v>1.006475533409144</v>
+        <v>1.013359801756575</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9874110203884882</v>
+        <v>1.023228367383658</v>
       </c>
       <c r="D7">
-        <v>1.001782806938019</v>
+        <v>1.031469264137963</v>
       </c>
       <c r="E7">
-        <v>0.9949977528984997</v>
+        <v>1.02382685380063</v>
       </c>
       <c r="F7">
-        <v>1.009226205389909</v>
+        <v>1.040085680682352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04584993320357</v>
+        <v>1.026461248964081</v>
       </c>
       <c r="J7">
-        <v>1.007136118329976</v>
+        <v>1.02781996477342</v>
       </c>
       <c r="K7">
-        <v>1.011856768320132</v>
+        <v>1.033964046423349</v>
       </c>
       <c r="L7">
-        <v>1.005153906031903</v>
+        <v>1.026341297833546</v>
       </c>
       <c r="M7">
-        <v>1.019211574613048</v>
+        <v>1.042558668759297</v>
       </c>
       <c r="N7">
-        <v>1.006160699434544</v>
+        <v>1.013287425174604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9810847949073214</v>
+        <v>1.021859157423555</v>
       </c>
       <c r="D8">
-        <v>0.996410740269613</v>
+        <v>1.03024270411428</v>
       </c>
       <c r="E8">
-        <v>0.9899209448377112</v>
+        <v>1.022660089272415</v>
       </c>
       <c r="F8">
-        <v>1.00327362944547</v>
+        <v>1.038744635957469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045480245243417</v>
+        <v>1.026511823072012</v>
       </c>
       <c r="J8">
-        <v>1.003256286540172</v>
+        <v>1.026927727454551</v>
       </c>
       <c r="K8">
-        <v>1.007639550871305</v>
+        <v>1.032990407459508</v>
       </c>
       <c r="L8">
-        <v>1.001239196679587</v>
+        <v>1.025429411942423</v>
       </c>
       <c r="M8">
-        <v>1.0144094391878</v>
+        <v>1.041468505915464</v>
       </c>
       <c r="N8">
-        <v>1.004814887848016</v>
+        <v>1.012984613948929</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9694083825121701</v>
+        <v>1.019450880926046</v>
       </c>
       <c r="D9">
-        <v>0.9865392205030731</v>
+        <v>1.028086568338479</v>
       </c>
       <c r="E9">
-        <v>0.9806064412612217</v>
+        <v>1.020610651281975</v>
       </c>
       <c r="F9">
-        <v>0.9923061099320101</v>
+        <v>1.036383319683319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044656994483815</v>
+        <v>1.02658284726232</v>
       </c>
       <c r="J9">
-        <v>0.9960896651315881</v>
+        <v>1.025355780877988</v>
       </c>
       <c r="K9">
-        <v>0.9998545312622484</v>
+        <v>1.031275178701595</v>
       </c>
       <c r="L9">
-        <v>0.994022202485524</v>
+        <v>1.023824262127868</v>
       </c>
       <c r="M9">
-        <v>1.005525260845864</v>
+        <v>1.039544647529762</v>
       </c>
       <c r="N9">
-        <v>1.002323002175482</v>
+        <v>1.012449953130937</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9612249060062429</v>
+        <v>1.017848367401393</v>
       </c>
       <c r="D10">
-        <v>0.9796547492746761</v>
+        <v>1.02665270728313</v>
       </c>
       <c r="E10">
-        <v>0.9741203944901544</v>
+        <v>1.019248814922371</v>
       </c>
       <c r="F10">
-        <v>0.9846381401619949</v>
+        <v>1.034810371398216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043990193316779</v>
+        <v>1.026618092753561</v>
       </c>
       <c r="J10">
-        <v>0.9910661317359699</v>
+        <v>1.024308046089744</v>
       </c>
       <c r="K10">
-        <v>0.9944013235015892</v>
+        <v>1.03013203846829</v>
       </c>
       <c r="L10">
-        <v>0.9889731812783668</v>
+        <v>1.022755350899078</v>
       </c>
       <c r="M10">
-        <v>0.9992904098999751</v>
+        <v>1.038260225766884</v>
       </c>
       <c r="N10">
-        <v>1.000572756566893</v>
+        <v>1.012092811949419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9575760007655781</v>
+        <v>1.01715517620961</v>
       </c>
       <c r="D11">
-        <v>0.9765941778420797</v>
+        <v>1.026032685405129</v>
       </c>
       <c r="E11">
-        <v>0.9712393541147575</v>
+        <v>1.0186601920162</v>
       </c>
       <c r="F11">
-        <v>0.9812248666753818</v>
+        <v>1.034129580727667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043672859075445</v>
+        <v>1.026630496300024</v>
       </c>
       <c r="J11">
-        <v>0.9888267341417645</v>
+        <v>1.023854426729052</v>
       </c>
       <c r="K11">
-        <v>0.9919714170482848</v>
+        <v>1.029637137066868</v>
       </c>
       <c r="L11">
-        <v>0.9867248293604136</v>
+        <v>1.022292790319068</v>
       </c>
       <c r="M11">
-        <v>0.9965097581678994</v>
+        <v>1.037703632116647</v>
       </c>
       <c r="N11">
-        <v>0.9997918120675298</v>
+        <v>1.011938003327347</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9562038064659897</v>
+        <v>1.016897800559698</v>
       </c>
       <c r="D12">
-        <v>0.9754446962145393</v>
+        <v>1.025802510098095</v>
       </c>
       <c r="E12">
-        <v>0.970157666164567</v>
+        <v>1.018441711493375</v>
       </c>
       <c r="F12">
-        <v>0.979942271993561</v>
+        <v>1.033876751823956</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043550630217395</v>
+        <v>1.02663467514352</v>
       </c>
       <c r="J12">
-        <v>0.9879847382621034</v>
+        <v>1.023685941323487</v>
       </c>
       <c r="K12">
-        <v>0.9910579581876856</v>
+        <v>1.029453322216421</v>
       </c>
       <c r="L12">
-        <v>0.9858798357555825</v>
+        <v>1.022121018130806</v>
       </c>
       <c r="M12">
-        <v>0.9954641064319018</v>
+        <v>1.037496824814314</v>
       </c>
       <c r="N12">
-        <v>0.9994980857388129</v>
+        <v>1.011880476126287</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9564989251138352</v>
+        <v>1.016953003692869</v>
       </c>
       <c r="D13">
-        <v>0.975691848100484</v>
+        <v>1.025851877658316</v>
       </c>
       <c r="E13">
-        <v>0.9703902250195888</v>
+        <v>1.018488569043507</v>
       </c>
       <c r="F13">
-        <v>0.9802180737078622</v>
+        <v>1.033930982335604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043577046883823</v>
+        <v>1.026633798136936</v>
       </c>
       <c r="J13">
-        <v>0.9881658192422499</v>
+        <v>1.023722081598577</v>
       </c>
       <c r="K13">
-        <v>0.9912544003758607</v>
+        <v>1.029492750501263</v>
       </c>
       <c r="L13">
-        <v>0.9860615446353596</v>
+        <v>1.022157861874669</v>
       </c>
       <c r="M13">
-        <v>0.9956889919761783</v>
+        <v>1.037541188545674</v>
       </c>
       <c r="N13">
-        <v>0.9995612592181188</v>
+        <v>1.011892817005328</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9574629240655383</v>
+        <v>1.017133899286544</v>
       </c>
       <c r="D14">
-        <v>0.9764994235887872</v>
+        <v>1.026013656417939</v>
       </c>
       <c r="E14">
-        <v>0.9711501807770959</v>
+        <v>1.018642129074719</v>
       </c>
       <c r="F14">
-        <v>0.9811191526828217</v>
+        <v>1.034108680845515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04366284483774</v>
+        <v>1.026630850457769</v>
       </c>
       <c r="J14">
-        <v>0.9887573455304094</v>
+        <v>1.023840499485912</v>
       </c>
       <c r="K14">
-        <v>0.9918961357342178</v>
+        <v>1.029621942593409</v>
       </c>
       <c r="L14">
-        <v>0.9866551861636023</v>
+        <v>1.022278590687544</v>
       </c>
       <c r="M14">
-        <v>0.9964235891103861</v>
+        <v>1.037686538652683</v>
       </c>
       <c r="N14">
-        <v>0.9997676080911517</v>
+        <v>1.01193324860685</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9580546147077134</v>
+        <v>1.017245369137085</v>
       </c>
       <c r="D15">
-        <v>0.9769952996221504</v>
+        <v>1.026113350692862</v>
       </c>
       <c r="E15">
-        <v>0.9716168652298851</v>
+        <v>1.018736763734309</v>
       </c>
       <c r="F15">
-        <v>0.9816723578949693</v>
+        <v>1.034218173029785</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043715128613451</v>
+        <v>1.026628977559578</v>
       </c>
       <c r="J15">
-        <v>0.9891204380138396</v>
+        <v>1.02391346186515</v>
       </c>
       <c r="K15">
-        <v>0.9922900700638209</v>
+        <v>1.029701543922724</v>
       </c>
       <c r="L15">
-        <v>0.9870196259103536</v>
+        <v>1.022352981462971</v>
       </c>
       <c r="M15">
-        <v>0.9968744834895976</v>
+        <v>1.037776085249338</v>
       </c>
       <c r="N15">
-        <v>0.9998942572753674</v>
+        <v>1.01195815662775</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9614647680891391</v>
+        <v>1.017894387136913</v>
       </c>
       <c r="D16">
-        <v>0.9798561349154884</v>
+        <v>1.026693874058568</v>
       </c>
       <c r="E16">
-        <v>0.9743100175125692</v>
+        <v>1.019287902312787</v>
       </c>
       <c r="F16">
-        <v>0.9848626432186675</v>
+        <v>1.034855559775713</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044010646133031</v>
+        <v>1.0266172094417</v>
       </c>
       <c r="J16">
-        <v>0.9912133557222771</v>
+        <v>1.024338152550487</v>
       </c>
       <c r="K16">
-        <v>0.9945610945222717</v>
+        <v>1.030164885310241</v>
       </c>
       <c r="L16">
-        <v>0.9891210446889076</v>
+        <v>1.022786055576518</v>
       </c>
       <c r="M16">
-        <v>0.9994731944452525</v>
+        <v>1.038297156072597</v>
       </c>
       <c r="N16">
-        <v>1.000624083877528</v>
+        <v>1.012103082653041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.963574970329779</v>
+        <v>1.018301688527675</v>
       </c>
       <c r="D17">
-        <v>0.9816288869949831</v>
+        <v>1.027058249014123</v>
       </c>
       <c r="E17">
-        <v>0.975979500605626</v>
+        <v>1.019633901664018</v>
       </c>
       <c r="F17">
-        <v>0.9868383942640471</v>
+        <v>1.035255458388853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044188317891769</v>
+        <v>1.026609063154189</v>
       </c>
       <c r="J17">
-        <v>0.9925086360807133</v>
+        <v>1.024604565335694</v>
       </c>
       <c r="K17">
-        <v>0.9959668827757264</v>
+        <v>1.030455550579408</v>
       </c>
       <c r="L17">
-        <v>0.9904222254427681</v>
+        <v>1.023057788250155</v>
       </c>
       <c r="M17">
-        <v>1.001081197865347</v>
+        <v>1.038623895503254</v>
       </c>
       <c r="N17">
-        <v>1.001075582460586</v>
+        <v>1.012193947169606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9647957164443505</v>
+        <v>1.018539328817957</v>
       </c>
       <c r="D18">
-        <v>0.982655277646844</v>
+        <v>1.027270864663507</v>
       </c>
       <c r="E18">
-        <v>0.9769463287193914</v>
+        <v>1.019835819571095</v>
       </c>
       <c r="F18">
-        <v>0.9879818998442657</v>
+        <v>1.035488741969415</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044289195135595</v>
+        <v>1.026604035742517</v>
       </c>
       <c r="J18">
-        <v>0.9932579980274213</v>
+        <v>1.024759964844608</v>
       </c>
       <c r="K18">
-        <v>0.9967802741902435</v>
+        <v>1.030625098953152</v>
       </c>
       <c r="L18">
-        <v>0.9911752287531644</v>
+        <v>1.023216312784</v>
       </c>
       <c r="M18">
-        <v>1.002011356872317</v>
+        <v>1.038814435473126</v>
       </c>
       <c r="N18">
-        <v>1.0013367203677</v>
+        <v>1.012246931049981</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.965210275218267</v>
+        <v>1.018620369594491</v>
       </c>
       <c r="D19">
-        <v>0.9830039772419488</v>
+        <v>1.027343374972949</v>
       </c>
       <c r="E19">
-        <v>0.9772748315111951</v>
+        <v>1.019904685693701</v>
       </c>
       <c r="F19">
-        <v>0.9883703160944088</v>
+        <v>1.035568290611265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044323125971094</v>
+        <v>1.02660227471079</v>
       </c>
       <c r="J19">
-        <v>0.9935124832113328</v>
+        <v>1.024812952968517</v>
       </c>
       <c r="K19">
-        <v>0.9970565200614107</v>
+        <v>1.030682911944464</v>
       </c>
       <c r="L19">
-        <v>0.9914309889852226</v>
+        <v>1.023270370193812</v>
       </c>
       <c r="M19">
-        <v>1.002327219015861</v>
+        <v>1.03887939758885</v>
       </c>
       <c r="N19">
-        <v>1.001425391483089</v>
+        <v>1.01226499448639</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9633496171286758</v>
+        <v>1.01825798187981</v>
       </c>
       <c r="D20">
-        <v>0.9814394811076415</v>
+        <v>1.02701914655232</v>
       </c>
       <c r="E20">
-        <v>0.9758011045612313</v>
+        <v>1.019596768616889</v>
       </c>
       <c r="F20">
-        <v>0.9866273426250592</v>
+        <v>1.03521254999483</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044169540839317</v>
+        <v>1.026609965695885</v>
       </c>
       <c r="J20">
-        <v>0.9923703049982115</v>
+        <v>1.024575981198918</v>
       </c>
       <c r="K20">
-        <v>0.9958167397132595</v>
+        <v>1.030424364089686</v>
       </c>
       <c r="L20">
-        <v>0.9902832405341317</v>
+        <v>1.023028631061064</v>
       </c>
       <c r="M20">
-        <v>1.000909481644741</v>
+        <v>1.038588843751046</v>
       </c>
       <c r="N20">
-        <v>1.001027371166552</v>
+        <v>1.012184199904858</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9571795233096164</v>
+        <v>1.017080627104338</v>
       </c>
       <c r="D21">
-        <v>0.9762619677783441</v>
+        <v>1.025966013053807</v>
       </c>
       <c r="E21">
-        <v>0.9709267167480858</v>
+        <v>1.018596905043303</v>
       </c>
       <c r="F21">
-        <v>0.9808542212109408</v>
+        <v>1.034056351755817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043637700249018</v>
+        <v>1.02663173029344</v>
       </c>
       <c r="J21">
-        <v>0.988583441470825</v>
+        <v>1.023805628116488</v>
       </c>
       <c r="K21">
-        <v>0.9917074659147683</v>
+        <v>1.029583898362481</v>
       </c>
       <c r="L21">
-        <v>0.9864806500233055</v>
+        <v>1.022243037858316</v>
       </c>
       <c r="M21">
-        <v>0.9962076270900814</v>
+        <v>1.037643738417261</v>
       </c>
       <c r="N21">
-        <v>0.9997069457441272</v>
+        <v>1.011921343178912</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9532022265941238</v>
+        <v>1.016340993208924</v>
       </c>
       <c r="D22">
-        <v>0.9729330912871355</v>
+        <v>1.025304609651946</v>
       </c>
       <c r="E22">
-        <v>0.9677948672762906</v>
+        <v>1.017969178582918</v>
       </c>
       <c r="F22">
-        <v>0.9771386437290106</v>
+        <v>1.033329676843075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0432780707733</v>
+        <v>1.026642936534324</v>
       </c>
       <c r="J22">
-        <v>0.9861432697292861</v>
+        <v>1.023321329007943</v>
       </c>
       <c r="K22">
-        <v>0.9890605186248569</v>
+        <v>1.029055543017028</v>
       </c>
       <c r="L22">
-        <v>0.984032498442541</v>
+        <v>1.021749355658358</v>
       </c>
       <c r="M22">
-        <v>0.9931770121070674</v>
+        <v>1.037049145507087</v>
       </c>
       <c r="N22">
-        <v>0.998855530905652</v>
+        <v>1.011755933767917</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9553203001068178</v>
+        <v>1.016733028729847</v>
       </c>
       <c r="D23">
-        <v>0.9747050119794635</v>
+        <v>1.025655161371073</v>
       </c>
       <c r="E23">
-        <v>0.9694617103890724</v>
+        <v>1.018301860078893</v>
       </c>
       <c r="F23">
-        <v>0.9791167499799373</v>
+        <v>1.033714874756802</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043471130778621</v>
+        <v>1.026637230453435</v>
       </c>
       <c r="J23">
-        <v>0.9874426564528139</v>
+        <v>1.023578059989432</v>
       </c>
       <c r="K23">
-        <v>0.9904699166509728</v>
+        <v>1.029335626489585</v>
       </c>
       <c r="L23">
-        <v>0.9853359289494507</v>
+        <v>1.022011041906123</v>
       </c>
       <c r="M23">
-        <v>0.9947908734113486</v>
+        <v>1.037364384961577</v>
       </c>
       <c r="N23">
-        <v>0.9993089569444835</v>
+        <v>1.011843633696053</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9634514756766518</v>
+        <v>1.018277730821552</v>
       </c>
       <c r="D24">
-        <v>0.9815250889899724</v>
+        <v>1.027036815018599</v>
       </c>
       <c r="E24">
-        <v>0.9758817354951999</v>
+        <v>1.019613547126323</v>
       </c>
       <c r="F24">
-        <v>0.9867227352740408</v>
+        <v>1.035231938360003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04417803389266</v>
+        <v>1.02660955872848</v>
       </c>
       <c r="J24">
-        <v>0.992432829835534</v>
+        <v>1.02458889712311</v>
       </c>
       <c r="K24">
-        <v>0.9958846031961491</v>
+        <v>1.030438455896512</v>
       </c>
       <c r="L24">
-        <v>0.9903460601912035</v>
+        <v>1.023041805854899</v>
       </c>
       <c r="M24">
-        <v>1.000987096754486</v>
+        <v>1.038604682257658</v>
       </c>
       <c r="N24">
-        <v>1.00104916260246</v>
+        <v>1.012188604323229</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9724939856679159</v>
+        <v>1.020072949714488</v>
       </c>
       <c r="D25">
-        <v>0.9891423310800331</v>
+        <v>1.028643357056416</v>
       </c>
       <c r="E25">
-        <v>0.9830609622433357</v>
+        <v>1.021139698573623</v>
       </c>
       <c r="F25">
-        <v>0.9952015867903822</v>
+        <v>1.03699355901353</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04489042320468</v>
+        <v>1.026566623658166</v>
       </c>
       <c r="J25">
-        <v>0.997983868620851</v>
+        <v>1.025762128835807</v>
       </c>
       <c r="K25">
-        <v>1.001911569704155</v>
+        <v>1.031718548806392</v>
       </c>
       <c r="L25">
-        <v>0.9959280525694182</v>
+        <v>1.024239025192359</v>
       </c>
       <c r="M25">
-        <v>1.007874851463543</v>
+        <v>1.040042341998809</v>
       </c>
       <c r="N25">
-        <v>1.002982275523798</v>
+        <v>1.012588300571156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -417,984 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.02</v>
-      </c>
       <c r="C2">
-        <v>1.021506968033493</v>
+        <v>0.9389342324745262</v>
       </c>
       <c r="D2">
-        <v>1.029927289697108</v>
+        <v>0.9480155195999976</v>
       </c>
       <c r="E2">
-        <v>1.022360159033294</v>
+        <v>0.9531202694994395</v>
       </c>
       <c r="F2">
-        <v>1.038399514175351</v>
+        <v>0.912230942123115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.026523612493456</v>
-      </c>
       <c r="J2">
-        <v>1.026698047430847</v>
+        <v>0.9631085372907705</v>
       </c>
       <c r="K2">
-        <v>1.032739781674504</v>
+        <v>0.9602499497323483</v>
       </c>
       <c r="L2">
-        <v>1.025194769800136</v>
+        <v>0.9652737974708852</v>
       </c>
       <c r="M2">
-        <v>1.041187657277945</v>
+        <v>0.9250654521581737</v>
       </c>
       <c r="N2">
-        <v>1.012906584744852</v>
+        <v>0.9644762618838166</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.02</v>
-      </c>
       <c r="C3">
-        <v>1.022549443408616</v>
+        <v>0.9476929422031901</v>
       </c>
       <c r="D3">
-        <v>1.03086100952761</v>
+        <v>0.9559928693674872</v>
       </c>
       <c r="E3">
-        <v>1.023248168031278</v>
+        <v>0.9604064114283888</v>
       </c>
       <c r="F3">
-        <v>1.039420861456714</v>
+        <v>0.9242803732894938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.026487278619574</v>
-      </c>
       <c r="J3">
-        <v>1.027377687354206</v>
+        <v>0.9697187557839646</v>
       </c>
       <c r="K3">
-        <v>1.033481411957718</v>
+        <v>0.9672216169707138</v>
       </c>
       <c r="L3">
-        <v>1.02588920599141</v>
+        <v>0.9715722847747306</v>
       </c>
       <c r="M3">
-        <v>1.042018451621703</v>
+        <v>0.9359834553518009</v>
       </c>
       <c r="N3">
-        <v>1.013137385300332</v>
+        <v>0.9710958676454736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.02</v>
-      </c>
       <c r="C4">
-        <v>1.023224573598764</v>
+        <v>0.9531447050055085</v>
       </c>
       <c r="D4">
-        <v>1.031465864900698</v>
+        <v>0.960965172019679</v>
       </c>
       <c r="E4">
-        <v>1.023823619344901</v>
+        <v>0.9649496411425124</v>
       </c>
       <c r="F4">
-        <v>1.04008196648891</v>
+        <v>0.9317543894858961</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.026461399693601</v>
-      </c>
       <c r="J4">
-        <v>1.027817494128044</v>
+        <v>0.9738279700764699</v>
       </c>
       <c r="K4">
-        <v>1.033961350299651</v>
+        <v>0.9715587194354646</v>
       </c>
       <c r="L4">
-        <v>1.026338771949655</v>
+        <v>0.9754903476159548</v>
       </c>
       <c r="M4">
-        <v>1.042555651953117</v>
+        <v>0.9427527959560462</v>
       </c>
       <c r="N4">
-        <v>1.013286587367788</v>
+        <v>0.975210917493608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.02</v>
-      </c>
       <c r="C5">
-        <v>1.023508536633653</v>
+        <v>0.9553888646998888</v>
       </c>
       <c r="D5">
-        <v>1.031720307056358</v>
+        <v>0.9630135183467082</v>
       </c>
       <c r="E5">
-        <v>1.024065741701133</v>
+        <v>0.9668215828915875</v>
       </c>
       <c r="F5">
-        <v>1.040359947728098</v>
+        <v>0.9348257451469641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.026449952123637</v>
-      </c>
       <c r="J5">
-        <v>1.028002396493076</v>
+        <v>0.9755181850391279</v>
       </c>
       <c r="K5">
-        <v>1.034163128515313</v>
+        <v>0.9733434236975382</v>
       </c>
       <c r="L5">
-        <v>1.026527821297644</v>
+        <v>0.9771025177810988</v>
       </c>
       <c r="M5">
-        <v>1.04278139901955</v>
+        <v>0.9455337817677354</v>
       </c>
       <c r="N5">
-        <v>1.013349277772948</v>
+        <v>0.9769035327553831</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.02</v>
-      </c>
       <c r="C6">
-        <v>1.023556223378539</v>
+        <v>0.9557629724339837</v>
       </c>
       <c r="D6">
-        <v>1.031763038425489</v>
+        <v>0.9633550719200786</v>
       </c>
       <c r="E6">
-        <v>1.02410640696611</v>
+        <v>0.967133740560146</v>
       </c>
       <c r="F6">
-        <v>1.040406625056001</v>
+        <v>0.9353374667839204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.026447996683618</v>
-      </c>
       <c r="J6">
-        <v>1.028033442841466</v>
+        <v>0.97579987102392</v>
       </c>
       <c r="K6">
-        <v>1.034197008654589</v>
+        <v>0.973640900982639</v>
       </c>
       <c r="L6">
-        <v>1.026559566533876</v>
+        <v>0.9773712297985192</v>
       </c>
       <c r="M6">
-        <v>1.042819297518781</v>
+        <v>0.9459970752798106</v>
       </c>
       <c r="N6">
-        <v>1.013359801756575</v>
+        <v>0.9771856187665835</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.02</v>
-      </c>
       <c r="C7">
-        <v>1.023228367383658</v>
+        <v>0.9531748744645611</v>
       </c>
       <c r="D7">
-        <v>1.031469264137963</v>
+        <v>0.9609927030310771</v>
       </c>
       <c r="E7">
-        <v>1.02382685380063</v>
+        <v>0.9649747998592092</v>
       </c>
       <c r="F7">
-        <v>1.040085680682352</v>
+        <v>0.9317956989549172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.026461248964081</v>
-      </c>
       <c r="J7">
-        <v>1.02781996477342</v>
+        <v>0.9738506977589442</v>
       </c>
       <c r="K7">
-        <v>1.033964046423349</v>
+        <v>0.9715827147067422</v>
       </c>
       <c r="L7">
-        <v>1.026341297833546</v>
+        <v>0.9755120236230251</v>
       </c>
       <c r="M7">
-        <v>1.042558668759297</v>
+        <v>0.9427902032426024</v>
       </c>
       <c r="N7">
-        <v>1.013287425174604</v>
+        <v>0.9752336774519982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.02</v>
-      </c>
       <c r="C8">
-        <v>1.021859157423555</v>
+        <v>0.941941434480601</v>
       </c>
       <c r="D8">
-        <v>1.03024270411428</v>
+        <v>0.9507529221221458</v>
       </c>
       <c r="E8">
-        <v>1.022660089272415</v>
+        <v>0.955620067769829</v>
       </c>
       <c r="F8">
-        <v>1.038744635957469</v>
+        <v>0.9163741687000915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.026511823072012</v>
-      </c>
       <c r="J8">
-        <v>1.026927727454551</v>
+        <v>0.9653791673487212</v>
       </c>
       <c r="K8">
-        <v>1.032990407459508</v>
+        <v>0.9626440507619101</v>
       </c>
       <c r="L8">
-        <v>1.025429411942423</v>
+        <v>0.9674367527486186</v>
       </c>
       <c r="M8">
-        <v>1.041468505915464</v>
+        <v>0.9288201772761773</v>
       </c>
       <c r="N8">
-        <v>1.012984613948929</v>
+        <v>0.9667501164968944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.02</v>
-      </c>
       <c r="C9">
-        <v>1.019450880926046</v>
+        <v>0.9202902770185608</v>
       </c>
       <c r="D9">
-        <v>1.028086568338479</v>
+        <v>0.9310795308178508</v>
       </c>
       <c r="E9">
-        <v>1.020610651281975</v>
+        <v>0.9376654744980787</v>
       </c>
       <c r="F9">
-        <v>1.036383319683319</v>
+        <v>0.8863765293055376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.02658284726232</v>
-      </c>
       <c r="J9">
-        <v>1.025355780877988</v>
+        <v>0.9490098087994958</v>
       </c>
       <c r="K9">
-        <v>1.031275178701595</v>
+        <v>0.9453993890311413</v>
       </c>
       <c r="L9">
-        <v>1.023824262127868</v>
+        <v>0.9518579008215672</v>
       </c>
       <c r="M9">
-        <v>1.039544647529762</v>
+        <v>0.9016280361326755</v>
       </c>
       <c r="N9">
-        <v>1.012449953130937</v>
+        <v>0.950357511580938</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.02</v>
-      </c>
       <c r="C10">
-        <v>1.017848367401393</v>
+        <v>0.9042606863427928</v>
       </c>
       <c r="D10">
-        <v>1.02665270728313</v>
+        <v>0.9165664532210808</v>
       </c>
       <c r="E10">
-        <v>1.019248814922371</v>
+        <v>0.9244395873371025</v>
       </c>
       <c r="F10">
-        <v>1.034810371398216</v>
+        <v>0.8638704801617543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.026618092753561</v>
-      </c>
       <c r="J10">
-        <v>1.024308046089744</v>
+        <v>0.9368648651048523</v>
       </c>
       <c r="K10">
-        <v>1.03013203846829</v>
+        <v>0.9326253506160274</v>
       </c>
       <c r="L10">
-        <v>1.022755350899078</v>
+        <v>0.9403216874570441</v>
       </c>
       <c r="M10">
-        <v>1.038260225766884</v>
+        <v>0.8812256432073106</v>
       </c>
       <c r="N10">
-        <v>1.012092811949419</v>
+        <v>0.9381953206732034</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.02</v>
-      </c>
       <c r="C11">
-        <v>1.01715517620961</v>
+        <v>0.8968391547456754</v>
       </c>
       <c r="D11">
-        <v>1.026032685405129</v>
+        <v>0.9098619717277729</v>
       </c>
       <c r="E11">
-        <v>1.0186601920162</v>
+        <v>0.9183362043108878</v>
       </c>
       <c r="F11">
-        <v>1.034129580727667</v>
+        <v>0.8533456012816591</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.026630496300024</v>
-      </c>
       <c r="J11">
-        <v>1.023854426729052</v>
+        <v>0.9312363066368049</v>
       </c>
       <c r="K11">
-        <v>1.029637137066868</v>
+        <v>0.9267105492723883</v>
       </c>
       <c r="L11">
-        <v>1.022292790319068</v>
+        <v>0.934982041624403</v>
       </c>
       <c r="M11">
-        <v>1.037703632116647</v>
+        <v>0.871687785538357</v>
       </c>
       <c r="N11">
-        <v>1.011938003327347</v>
+        <v>0.9325587690065267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.02</v>
-      </c>
       <c r="C12">
-        <v>1.016897800559698</v>
+        <v>0.893999023847652</v>
       </c>
       <c r="D12">
-        <v>1.025802510098095</v>
+        <v>0.9072987357751927</v>
       </c>
       <c r="E12">
-        <v>1.018441711493375</v>
+        <v>0.9160039501380063</v>
       </c>
       <c r="F12">
-        <v>1.033876751823956</v>
+        <v>0.8492981842505074</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.02663467514352</v>
-      </c>
       <c r="J12">
-        <v>1.023685941323487</v>
+        <v>0.9290815241021302</v>
       </c>
       <c r="K12">
-        <v>1.029453322216421</v>
+        <v>0.9244470353669129</v>
       </c>
       <c r="L12">
-        <v>1.022121018130806</v>
+        <v>0.9329390474032936</v>
       </c>
       <c r="M12">
-        <v>1.037496824814314</v>
+        <v>0.8680208306644001</v>
       </c>
       <c r="N12">
-        <v>1.011880476126287</v>
+        <v>0.9304009264334955</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.02</v>
-      </c>
       <c r="C13">
-        <v>1.016953003692869</v>
+        <v>0.8946122276009566</v>
       </c>
       <c r="D13">
-        <v>1.025851877658316</v>
+        <v>0.9078520395790963</v>
       </c>
       <c r="E13">
-        <v>1.018488569043507</v>
+        <v>0.9165073374413386</v>
       </c>
       <c r="F13">
-        <v>1.033930982335604</v>
+        <v>0.850173010417943</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.026633798136936</v>
-      </c>
       <c r="J13">
-        <v>1.023722081598577</v>
+        <v>0.9295467920875092</v>
       </c>
       <c r="K13">
-        <v>1.029492750501263</v>
+        <v>0.9249357416583133</v>
       </c>
       <c r="L13">
-        <v>1.022157861874669</v>
+        <v>0.9333801213546122</v>
       </c>
       <c r="M13">
-        <v>1.037541188545674</v>
+        <v>0.8688133740275101</v>
       </c>
       <c r="N13">
-        <v>1.011892817005328</v>
+        <v>0.9308668551527808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.02</v>
-      </c>
       <c r="C14">
-        <v>1.017133899286544</v>
+        <v>0.8966061654862264</v>
       </c>
       <c r="D14">
-        <v>1.026013656417939</v>
+        <v>0.9096516456527161</v>
       </c>
       <c r="E14">
-        <v>1.018642129074719</v>
+        <v>0.9181448064535784</v>
       </c>
       <c r="F14">
-        <v>1.034108680845515</v>
+        <v>0.8530139964773215</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.026630850457769</v>
-      </c>
       <c r="J14">
-        <v>1.023840499485912</v>
+        <v>0.931059555736708</v>
       </c>
       <c r="K14">
-        <v>1.029621942593409</v>
+        <v>0.9265248618913359</v>
       </c>
       <c r="L14">
-        <v>1.022278590687544</v>
+        <v>0.9348144354425729</v>
       </c>
       <c r="M14">
-        <v>1.037686538652683</v>
+        <v>0.8713873311916561</v>
       </c>
       <c r="N14">
-        <v>1.01193324860685</v>
+        <v>0.9323817670998779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.02</v>
-      </c>
       <c r="C15">
-        <v>1.017245369137085</v>
+        <v>0.8978232576883177</v>
       </c>
       <c r="D15">
-        <v>1.026113350692862</v>
+        <v>0.9107504518407851</v>
       </c>
       <c r="E15">
-        <v>1.018736763734309</v>
+        <v>0.9191447746890486</v>
       </c>
       <c r="F15">
-        <v>1.034218173029785</v>
+        <v>0.8547454159927587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.026628977559578</v>
-      </c>
       <c r="J15">
-        <v>1.02391346186515</v>
+        <v>0.9319828370813373</v>
       </c>
       <c r="K15">
-        <v>1.029701543922724</v>
+        <v>0.9274948588799939</v>
       </c>
       <c r="L15">
-        <v>1.022352981462971</v>
+        <v>0.935689997093632</v>
       </c>
       <c r="M15">
-        <v>1.037776085249338</v>
+        <v>0.872956142622851</v>
       </c>
       <c r="N15">
-        <v>1.01195815662775</v>
+        <v>0.9333063596099184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.02</v>
-      </c>
       <c r="C16">
-        <v>1.017894387136913</v>
+        <v>0.9047422021792947</v>
       </c>
       <c r="D16">
-        <v>1.026693874058568</v>
+        <v>0.9170017716257323</v>
       </c>
       <c r="E16">
-        <v>1.019287902312787</v>
+        <v>0.9248360251264223</v>
       </c>
       <c r="F16">
-        <v>1.034855559775713</v>
+        <v>0.8645508935875462</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.0266172094417</v>
-      </c>
       <c r="J16">
-        <v>1.024338152550487</v>
+        <v>0.9372299402866794</v>
       </c>
       <c r="K16">
-        <v>1.030164885310241</v>
+        <v>0.9330091047446676</v>
       </c>
       <c r="L16">
-        <v>1.022786055576518</v>
+        <v>0.9406681753657429</v>
       </c>
       <c r="M16">
-        <v>1.038297156072597</v>
+        <v>0.8818423452971463</v>
       </c>
       <c r="N16">
-        <v>1.012103082653041</v>
+        <v>0.9385609143036632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.02</v>
-      </c>
       <c r="C17">
-        <v>1.018301688527675</v>
+        <v>0.9089464448279219</v>
       </c>
       <c r="D17">
-        <v>1.027058249014123</v>
+        <v>0.9208043400306068</v>
       </c>
       <c r="E17">
-        <v>1.019633901664018</v>
+        <v>0.9282997065077914</v>
       </c>
       <c r="F17">
-        <v>1.035255458388853</v>
+        <v>0.8704797380520606</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.026609063154189</v>
-      </c>
       <c r="J17">
-        <v>1.024604565335694</v>
+        <v>0.9404168933425406</v>
       </c>
       <c r="K17">
-        <v>1.030455550579408</v>
+        <v>0.9363597132599302</v>
       </c>
       <c r="L17">
-        <v>1.023057788250155</v>
+        <v>0.9436936416800399</v>
       </c>
       <c r="M17">
-        <v>1.038623895503254</v>
+        <v>0.8872164319301314</v>
       </c>
       <c r="N17">
-        <v>1.012193947169606</v>
+        <v>0.9417523931984121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.02</v>
-      </c>
       <c r="C18">
-        <v>1.018539328817957</v>
+        <v>0.9113532149450041</v>
       </c>
       <c r="D18">
-        <v>1.027270864663507</v>
+        <v>0.922982531515307</v>
       </c>
       <c r="E18">
-        <v>1.019835819571095</v>
+        <v>0.9302843615698447</v>
       </c>
       <c r="F18">
-        <v>1.035488741969415</v>
+        <v>0.8738643640880792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.026604035742517</v>
-      </c>
       <c r="J18">
-        <v>1.024759964844608</v>
+        <v>0.9422407851200973</v>
       </c>
       <c r="K18">
-        <v>1.030625098953152</v>
+        <v>0.9382777525882505</v>
       </c>
       <c r="L18">
-        <v>1.023216312784</v>
+        <v>0.945425732051591</v>
       </c>
       <c r="M18">
-        <v>1.038814435473126</v>
+        <v>0.8902846300395729</v>
       </c>
       <c r="N18">
-        <v>1.012246931049981</v>
+        <v>0.943578875111497</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.02</v>
-      </c>
       <c r="C19">
-        <v>1.018620369594491</v>
+        <v>0.9121664453743117</v>
       </c>
       <c r="D19">
-        <v>1.027343374972949</v>
+        <v>0.9237187517251551</v>
       </c>
       <c r="E19">
-        <v>1.019904685693701</v>
+        <v>0.9309552612754854</v>
       </c>
       <c r="F19">
-        <v>1.035568290611265</v>
+        <v>0.8750065063022389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.02660227471079</v>
-      </c>
       <c r="J19">
-        <v>1.024812952968517</v>
+        <v>0.9428569758991088</v>
       </c>
       <c r="K19">
-        <v>1.030682911944464</v>
+        <v>0.938925831921176</v>
       </c>
       <c r="L19">
-        <v>1.023270370193812</v>
+        <v>0.9460110088212029</v>
       </c>
       <c r="M19">
-        <v>1.03887939758885</v>
+        <v>0.8913200291554909</v>
       </c>
       <c r="N19">
-        <v>1.01226499448639</v>
+        <v>0.9441959409520925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.02</v>
-      </c>
       <c r="C20">
-        <v>1.01825798187981</v>
+        <v>0.9085001479813546</v>
       </c>
       <c r="D20">
-        <v>1.02701914655232</v>
+        <v>0.9204005386959282</v>
       </c>
       <c r="E20">
-        <v>1.019596768616889</v>
+        <v>0.9279318299457312</v>
       </c>
       <c r="F20">
-        <v>1.03521254999483</v>
+        <v>0.8698513727606203</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.026609965695885</v>
-      </c>
       <c r="J20">
-        <v>1.024575981198918</v>
+        <v>0.9400786394902089</v>
       </c>
       <c r="K20">
-        <v>1.030424364089686</v>
+        <v>0.9360040383643278</v>
       </c>
       <c r="L20">
-        <v>1.023028631061064</v>
+        <v>0.9433724622066834</v>
       </c>
       <c r="M20">
-        <v>1.038588843751046</v>
+        <v>0.886646831773403</v>
       </c>
       <c r="N20">
-        <v>1.012184199904858</v>
+        <v>0.9414136589868122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.02</v>
-      </c>
       <c r="C21">
-        <v>1.017080627104338</v>
+        <v>0.8960214076880058</v>
       </c>
       <c r="D21">
-        <v>1.025966013053807</v>
+        <v>0.9091238088420948</v>
       </c>
       <c r="E21">
-        <v>1.018596905043303</v>
+        <v>0.9176644916649164</v>
       </c>
       <c r="F21">
-        <v>1.034056351755817</v>
+        <v>0.8521814021328123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.02663173029344</v>
-      </c>
       <c r="J21">
-        <v>1.023805628116488</v>
+        <v>0.9306159325593357</v>
       </c>
       <c r="K21">
-        <v>1.029583898362481</v>
+        <v>0.9260588230868761</v>
       </c>
       <c r="L21">
-        <v>1.022243037858316</v>
+        <v>0.9343937839848596</v>
       </c>
       <c r="M21">
-        <v>1.037643738417261</v>
+        <v>0.8706329654394305</v>
       </c>
       <c r="N21">
-        <v>1.011921343178912</v>
+        <v>0.9319375139267094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.019999999999999</v>
-      </c>
       <c r="C22">
-        <v>1.016340993208924</v>
+        <v>0.8876850155052856</v>
       </c>
       <c r="D22">
-        <v>1.025304609651946</v>
+        <v>0.9016052263172868</v>
       </c>
       <c r="E22">
-        <v>1.017969178582918</v>
+        <v>0.9108259361467875</v>
       </c>
       <c r="F22">
-        <v>1.033329676843075</v>
+        <v>0.8402582730940593</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.026642936534324</v>
-      </c>
       <c r="J22">
-        <v>1.023321329007943</v>
+        <v>0.9242896813650326</v>
       </c>
       <c r="K22">
-        <v>1.029055543017028</v>
+        <v>0.9194150455811625</v>
       </c>
       <c r="L22">
-        <v>1.021749355658358</v>
+        <v>0.9283982133377952</v>
       </c>
       <c r="M22">
-        <v>1.037049145507087</v>
+        <v>0.8598329127492766</v>
       </c>
       <c r="N22">
-        <v>1.011755933767917</v>
+        <v>0.9256022787300791</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.02</v>
-      </c>
       <c r="C23">
-        <v>1.016733028729847</v>
+        <v>0.8921552993377558</v>
       </c>
       <c r="D23">
-        <v>1.025655161371073</v>
+        <v>0.9056354988579027</v>
       </c>
       <c r="E23">
-        <v>1.018301860078893</v>
+        <v>0.914490952399256</v>
       </c>
       <c r="F23">
-        <v>1.033714874756802</v>
+        <v>0.8466645838235063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.026637230453435</v>
-      </c>
       <c r="J23">
-        <v>1.023578059989432</v>
+        <v>0.9276824836866396</v>
       </c>
       <c r="K23">
-        <v>1.029335626489585</v>
+        <v>0.9229776467409638</v>
       </c>
       <c r="L23">
-        <v>1.022011041906123</v>
+        <v>0.9316129456646838</v>
       </c>
       <c r="M23">
-        <v>1.037364384961577</v>
+        <v>0.8656351062132007</v>
       </c>
       <c r="N23">
-        <v>1.011843633696053</v>
+        <v>0.9289998992201429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.02</v>
-      </c>
       <c r="C24">
-        <v>1.018277730821552</v>
+        <v>0.9087019500822716</v>
       </c>
       <c r="D24">
-        <v>1.027036815018599</v>
+        <v>0.9205831213633646</v>
       </c>
       <c r="E24">
-        <v>1.019613547126323</v>
+        <v>0.9280981670728787</v>
       </c>
       <c r="F24">
-        <v>1.035231938360003</v>
+        <v>0.8701355298167049</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.02660955872848</v>
-      </c>
       <c r="J24">
-        <v>1.02458889712311</v>
+        <v>0.9402315893947055</v>
       </c>
       <c r="K24">
-        <v>1.030438455896512</v>
+        <v>0.9361648641123557</v>
       </c>
       <c r="L24">
-        <v>1.023041805854899</v>
+        <v>0.9435176895938859</v>
       </c>
       <c r="M24">
-        <v>1.038604682257658</v>
+        <v>0.886904413464097</v>
       </c>
       <c r="N24">
-        <v>1.012188604323229</v>
+        <v>0.9415668260977167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.02</v>
-      </c>
       <c r="C25">
-        <v>1.020072949714488</v>
+        <v>0.9261395362398845</v>
       </c>
       <c r="D25">
-        <v>1.028643357056416</v>
+        <v>0.9363864368603602</v>
       </c>
       <c r="E25">
-        <v>1.021139698573623</v>
+        <v>0.9425060288739801</v>
       </c>
       <c r="F25">
-        <v>1.03699355901353</v>
+        <v>0.8945215118526706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.026566623658166</v>
-      </c>
       <c r="J25">
-        <v>1.025762128835807</v>
+        <v>0.9534366421186966</v>
       </c>
       <c r="K25">
-        <v>1.031718548806392</v>
+        <v>0.9500596610210162</v>
       </c>
       <c r="L25">
-        <v>1.024239025192359</v>
+        <v>0.9560676456271794</v>
       </c>
       <c r="M25">
-        <v>1.040042341998809</v>
+        <v>0.9090123784410714</v>
       </c>
       <c r="N25">
-        <v>1.012588300571156</v>
+        <v>0.9547906315112165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9389342324745262</v>
+        <v>0.9757912194461562</v>
       </c>
       <c r="D2">
-        <v>0.9480155195999976</v>
+        <v>0.9922224595535115</v>
       </c>
       <c r="E2">
-        <v>0.9531202694994395</v>
+        <v>0.984816020905311</v>
       </c>
       <c r="F2">
-        <v>0.912230942123115</v>
+        <v>1.006134995325486</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9631085372907705</v>
+        <v>0.9987209335505408</v>
       </c>
       <c r="K2">
-        <v>0.9602499497323483</v>
+        <v>1.003791221954186</v>
       </c>
       <c r="L2">
-        <v>0.9652737974708852</v>
+        <v>0.996491025752445</v>
       </c>
       <c r="M2">
-        <v>0.9250654521581737</v>
+        <v>1.017509516514386</v>
       </c>
       <c r="N2">
-        <v>0.9644762618838166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.000139231831075</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.022429766074075</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.013749956584989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9476929422031901</v>
+        <v>0.9814297231365481</v>
       </c>
       <c r="D3">
-        <v>0.9559928693674872</v>
+        <v>0.99669417453442</v>
       </c>
       <c r="E3">
-        <v>0.9604064114283888</v>
+        <v>0.9894632452663267</v>
       </c>
       <c r="F3">
-        <v>0.9242803732894938</v>
+        <v>1.009996205932356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9697187557839646</v>
+        <v>1.002439760874224</v>
       </c>
       <c r="K3">
-        <v>0.9672216169707138</v>
+        <v>1.007369529501424</v>
       </c>
       <c r="L3">
-        <v>0.9715722847747306</v>
+        <v>1.000232745097915</v>
       </c>
       <c r="M3">
-        <v>0.9359834553518009</v>
+        <v>1.020502761411919</v>
       </c>
       <c r="N3">
-        <v>0.9710958676454736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.003863340316113</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.024798775974685</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.016277560685795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9531447050055085</v>
+        <v>0.9849885662449807</v>
       </c>
       <c r="D4">
-        <v>0.960965172019679</v>
+        <v>0.9995245838167132</v>
       </c>
       <c r="E4">
-        <v>0.9649496411425124</v>
+        <v>0.9924016469438219</v>
       </c>
       <c r="F4">
-        <v>0.9317543894858961</v>
+        <v>1.012445018330174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9738279700764699</v>
+        <v>1.004784220074494</v>
       </c>
       <c r="K4">
-        <v>0.9715587194354646</v>
+        <v>1.009628750081494</v>
       </c>
       <c r="L4">
-        <v>0.9754903476159548</v>
+        <v>1.00259265080767</v>
       </c>
       <c r="M4">
-        <v>0.9427527959560462</v>
+        <v>1.022395527942025</v>
       </c>
       <c r="N4">
-        <v>0.975210917493608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006211128917361</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.026296805720141</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.017876057535624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9553888646998888</v>
+        <v>0.9864746756898043</v>
       </c>
       <c r="D5">
-        <v>0.9630135183467082</v>
+        <v>1.000712010084062</v>
       </c>
       <c r="E5">
-        <v>0.9668215828915875</v>
+        <v>0.9936309959675872</v>
       </c>
       <c r="F5">
-        <v>0.9348257451469641</v>
+        <v>1.013467634651531</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9755181850391279</v>
+        <v>1.005765818570545</v>
       </c>
       <c r="K5">
-        <v>0.9733434236975382</v>
+        <v>1.010577464683898</v>
       </c>
       <c r="L5">
-        <v>0.9771025177810988</v>
+        <v>1.003580354879982</v>
       </c>
       <c r="M5">
-        <v>0.9455337817677354</v>
+        <v>1.02318559571344</v>
       </c>
       <c r="N5">
-        <v>0.9769035327553831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.007194121395867</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.026922103750828</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.018554307017395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9557629724339837</v>
+        <v>0.9867358008300425</v>
       </c>
       <c r="D6">
-        <v>0.9633550719200786</v>
+        <v>1.000925148204227</v>
       </c>
       <c r="E6">
-        <v>0.967133740560146</v>
+        <v>0.99384845545709</v>
       </c>
       <c r="F6">
-        <v>0.9353374667839204</v>
+        <v>1.013644202620654</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.97579987102392</v>
+        <v>1.005942266313369</v>
       </c>
       <c r="K6">
-        <v>0.973640900982639</v>
+        <v>1.010750440856492</v>
       </c>
       <c r="L6">
-        <v>0.9773712297985192</v>
+        <v>1.003757194681868</v>
       </c>
       <c r="M6">
-        <v>0.9459970752798106</v>
+        <v>1.023323127614805</v>
       </c>
       <c r="N6">
-        <v>0.9771856187665835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.007370819714725</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027030953123156</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.018685625848377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9531748744645611</v>
+        <v>0.9850433076107852</v>
       </c>
       <c r="D7">
-        <v>0.9609927030310771</v>
+        <v>0.999580093196536</v>
       </c>
       <c r="E7">
-        <v>0.9649747998592092</v>
+        <v>0.9924507039316736</v>
       </c>
       <c r="F7">
-        <v>0.9317956989549172</v>
+        <v>1.012473771604334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9738506977589442</v>
+        <v>1.004831268658017</v>
       </c>
       <c r="K7">
-        <v>0.9715827147067422</v>
+        <v>1.009680585596736</v>
       </c>
       <c r="L7">
-        <v>0.9755120236230251</v>
+        <v>1.002638072006532</v>
       </c>
       <c r="M7">
-        <v>0.9427902032426024</v>
+        <v>1.022420992967798</v>
       </c>
       <c r="N7">
-        <v>0.9752336774519982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006258244315269</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.026316959988015</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.017933432494279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.941941434480601</v>
+        <v>0.9777614235536652</v>
       </c>
       <c r="D8">
-        <v>0.9507529221221458</v>
+        <v>0.9937981652923021</v>
       </c>
       <c r="E8">
-        <v>0.955620067769829</v>
+        <v>0.9864438288642144</v>
       </c>
       <c r="F8">
-        <v>0.9163741687000915</v>
+        <v>1.007470193152084</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9653791673487212</v>
+        <v>1.000034992884344</v>
       </c>
       <c r="K8">
-        <v>0.9626440507619101</v>
+        <v>1.005062804929504</v>
       </c>
       <c r="L8">
-        <v>0.9674367527486186</v>
+        <v>0.9978106131049758</v>
       </c>
       <c r="M8">
-        <v>0.9288201772761773</v>
+        <v>1.018549917849699</v>
       </c>
       <c r="N8">
-        <v>0.9667501164968944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.001455157279857</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.023253194815008</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.014672815016791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9202902770185608</v>
+        <v>0.9641378175745335</v>
       </c>
       <c r="D9">
-        <v>0.9310795308178508</v>
+        <v>0.9830289268601586</v>
       </c>
       <c r="E9">
-        <v>0.9376654744980787</v>
+        <v>0.9752446627380035</v>
       </c>
       <c r="F9">
-        <v>0.8863765293055376</v>
+        <v>0.9982236003668195</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9490098087994958</v>
+        <v>0.9910237758352776</v>
       </c>
       <c r="K9">
-        <v>0.9453993890311413</v>
+        <v>0.9964034828820564</v>
       </c>
       <c r="L9">
-        <v>0.9518579008215672</v>
+        <v>0.9887525667798778</v>
       </c>
       <c r="M9">
-        <v>0.9016280361326755</v>
+        <v>1.011345564314449</v>
       </c>
       <c r="N9">
-        <v>0.950357511580938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9924311432689797</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.017551266985763</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.008546329012566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9042606863427928</v>
+        <v>0.9547338837654737</v>
       </c>
       <c r="D10">
-        <v>0.9165664532210808</v>
+        <v>0.9756686979685593</v>
       </c>
       <c r="E10">
-        <v>0.9244395873371025</v>
+        <v>0.9675744871855023</v>
       </c>
       <c r="F10">
-        <v>0.8638704801617543</v>
+        <v>0.9921518589239281</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9368648651048523</v>
+        <v>0.9848661488311659</v>
       </c>
       <c r="K10">
-        <v>0.9326253506160274</v>
+        <v>0.9904916115014367</v>
       </c>
       <c r="L10">
-        <v>0.9403216874570441</v>
+        <v>0.9825549591993673</v>
       </c>
       <c r="M10">
-        <v>0.8812256432073106</v>
+        <v>1.006664274671401</v>
       </c>
       <c r="N10">
-        <v>0.9381953206732034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9862647717282322</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.013899226323373</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.004383405427173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8968391547456754</v>
+        <v>0.952446224320892</v>
       </c>
       <c r="D11">
-        <v>0.9098619717277729</v>
+        <v>0.9740679487631512</v>
       </c>
       <c r="E11">
-        <v>0.9183362043108878</v>
+        <v>0.9659175484210935</v>
       </c>
       <c r="F11">
-        <v>0.8533456012816591</v>
+        <v>0.9925915544225207</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9312363066368049</v>
+        <v>0.9839404224674757</v>
       </c>
       <c r="K11">
-        <v>0.9267105492723883</v>
+        <v>0.9894960548918584</v>
       </c>
       <c r="L11">
-        <v>0.934982041624403</v>
+        <v>0.9815121622164987</v>
       </c>
       <c r="M11">
-        <v>0.871687785538357</v>
+        <v>1.007654548736682</v>
       </c>
       <c r="N11">
-        <v>0.9325587690065267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9853377307269234</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.015131232065853</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.003713722727792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.893999023847652</v>
+        <v>0.9522792982520352</v>
       </c>
       <c r="D12">
-        <v>0.9072987357751927</v>
+        <v>0.9740629988524837</v>
       </c>
       <c r="E12">
-        <v>0.9160039501380063</v>
+        <v>0.9659402357060954</v>
       </c>
       <c r="F12">
-        <v>0.8492981842505074</v>
+        <v>0.9938201211769855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9290815241021302</v>
+        <v>0.9842501982858041</v>
       </c>
       <c r="K12">
-        <v>0.9244470353669129</v>
+        <v>0.9897045718889284</v>
       </c>
       <c r="L12">
-        <v>0.9329390474032936</v>
+        <v>0.9817504109087186</v>
       </c>
       <c r="M12">
-        <v>0.8680208306644001</v>
+        <v>1.009066683416902</v>
       </c>
       <c r="N12">
-        <v>0.9304009264334955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9856479464624454</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.016582300555794</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.003861163314693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8946122276009566</v>
+        <v>0.9537687197682919</v>
       </c>
       <c r="D13">
-        <v>0.9078520395790963</v>
+        <v>0.9753250694712859</v>
       </c>
       <c r="E13">
-        <v>0.9165073374413386</v>
+        <v>0.9672873365664054</v>
       </c>
       <c r="F13">
-        <v>0.850173010417943</v>
+        <v>0.9957716836583173</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9295467920875092</v>
+        <v>0.9855669267003072</v>
       </c>
       <c r="K13">
-        <v>0.9249357416583133</v>
+        <v>0.9908950963357671</v>
       </c>
       <c r="L13">
-        <v>0.9333801213546122</v>
+        <v>0.9830230456154849</v>
       </c>
       <c r="M13">
-        <v>0.8688133740275101</v>
+        <v>1.010936034483155</v>
       </c>
       <c r="N13">
-        <v>0.9308668551527808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.986966544782328</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.018342454533675</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.004700373343416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8966061654862264</v>
+        <v>0.9555435518920895</v>
       </c>
       <c r="D14">
-        <v>0.9096516456527161</v>
+        <v>0.9767696705317933</v>
       </c>
       <c r="E14">
-        <v>0.9181448064535784</v>
+        <v>0.9688151694334041</v>
       </c>
       <c r="F14">
-        <v>0.8530139964773215</v>
+        <v>0.9974323470562936</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.931059555736708</v>
+        <v>0.9869287903063689</v>
       </c>
       <c r="K14">
-        <v>0.9265248618913359</v>
+        <v>0.9921609530585503</v>
       </c>
       <c r="L14">
-        <v>0.9348144354425729</v>
+        <v>0.9843679408340407</v>
       </c>
       <c r="M14">
-        <v>0.8713873311916561</v>
+        <v>1.012419881212663</v>
       </c>
       <c r="N14">
-        <v>0.9323817670998779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9883303423909185</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.019691506124469</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.005596932715596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8978232576883177</v>
+        <v>0.9563597168715369</v>
       </c>
       <c r="D15">
-        <v>0.9107504518407851</v>
+        <v>0.9774218300715102</v>
       </c>
       <c r="E15">
-        <v>0.9191447746890486</v>
+        <v>0.9694972345405242</v>
       </c>
       <c r="F15">
-        <v>0.8547454159927587</v>
+        <v>0.9980501976495356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9319828370813373</v>
+        <v>0.9875049612557674</v>
       </c>
       <c r="K15">
-        <v>0.9274948588799939</v>
+        <v>0.9927081033402293</v>
       </c>
       <c r="L15">
-        <v>0.935689997093632</v>
+        <v>0.984942987780007</v>
       </c>
       <c r="M15">
-        <v>0.872956142622851</v>
+        <v>1.012936845617879</v>
       </c>
       <c r="N15">
-        <v>0.9333063596099184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9889073315691528</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.020138176642225</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.005989928358271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9047422021792947</v>
+        <v>0.9600188989369079</v>
       </c>
       <c r="D16">
-        <v>0.9170017716257323</v>
+        <v>0.9802620736049464</v>
       </c>
       <c r="E16">
-        <v>0.9248360251264223</v>
+        <v>0.9724451967274248</v>
       </c>
       <c r="F16">
-        <v>0.8645508935875462</v>
+        <v>1.00026548601147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9372299402866794</v>
+        <v>0.9898315733863539</v>
       </c>
       <c r="K16">
-        <v>0.9330091047446676</v>
+        <v>0.9949593314032175</v>
       </c>
       <c r="L16">
-        <v>0.9406681753657429</v>
+        <v>0.9872922441595399</v>
       </c>
       <c r="M16">
-        <v>0.8818423452971463</v>
+        <v>1.014593285024821</v>
       </c>
       <c r="N16">
-        <v>0.9385609143036632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9912372477558307</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.021408133816827</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.00758502969435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9089464448279219</v>
+        <v>0.9619121008633208</v>
       </c>
       <c r="D17">
-        <v>0.9208043400306068</v>
+        <v>0.9817000069053774</v>
       </c>
       <c r="E17">
-        <v>0.9282997065077914</v>
+        <v>0.9739220434100542</v>
       </c>
       <c r="F17">
-        <v>0.8704797380520606</v>
+        <v>1.001105873655119</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9404168933425406</v>
+        <v>0.9909169379490559</v>
       </c>
       <c r="K17">
-        <v>0.9363597132599302</v>
+        <v>0.9960366942653861</v>
       </c>
       <c r="L17">
-        <v>0.9436936416800399</v>
+        <v>0.9884033038295529</v>
       </c>
       <c r="M17">
-        <v>0.8872164319301314</v>
+        <v>1.015094540644594</v>
       </c>
       <c r="N17">
-        <v>0.9417523931984121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.992324153660705</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.021673354570823</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.008349503088715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9113532149450041</v>
+        <v>0.9623893814523701</v>
       </c>
       <c r="D18">
-        <v>0.922982531515307</v>
+        <v>0.9819881689334566</v>
       </c>
       <c r="E18">
-        <v>0.9302843615698447</v>
+        <v>0.974199706209364</v>
       </c>
       <c r="F18">
-        <v>0.8738643640880792</v>
+        <v>1.000650866252811</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9422407851200973</v>
+        <v>0.9909526417936466</v>
       </c>
       <c r="K18">
-        <v>0.9382777525882505</v>
+        <v>0.9961252258638061</v>
       </c>
       <c r="L18">
-        <v>0.945425732051591</v>
+        <v>0.9884791606372235</v>
       </c>
       <c r="M18">
-        <v>0.8902846300395729</v>
+        <v>1.014458374347251</v>
       </c>
       <c r="N18">
-        <v>0.943578875111497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9923599082088503</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.020928583063129</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.008400014863114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9121664453743117</v>
+        <v>0.961629778943735</v>
       </c>
       <c r="D19">
-        <v>0.9237187517251551</v>
+        <v>0.9812877660989225</v>
       </c>
       <c r="E19">
-        <v>0.9309552612754854</v>
+        <v>0.9734398681605169</v>
       </c>
       <c r="F19">
-        <v>0.8750065063022389</v>
+        <v>0.9989407006760663</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9428569758991088</v>
+        <v>0.9900814267926646</v>
       </c>
       <c r="K19">
-        <v>0.938925831921176</v>
+        <v>0.9953711825184699</v>
       </c>
       <c r="L19">
-        <v>0.9460110088212029</v>
+        <v>0.9876662709130759</v>
       </c>
       <c r="M19">
-        <v>0.8913200291554909</v>
+        <v>1.01271310233374</v>
       </c>
       <c r="N19">
-        <v>0.9441959409520925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9914874559826372</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.019216161818933</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.007873490834596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9085001479813546</v>
+        <v>0.9572972036045575</v>
       </c>
       <c r="D20">
-        <v>0.9204005386959282</v>
+        <v>0.9777035371704045</v>
       </c>
       <c r="E20">
-        <v>0.9279318299457312</v>
+        <v>0.9696759450235942</v>
       </c>
       <c r="F20">
-        <v>0.8698513727606203</v>
+        <v>0.9937900422457694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9400786394902089</v>
+        <v>0.9865796310594164</v>
       </c>
       <c r="K20">
-        <v>0.9360040383643278</v>
+        <v>0.9921501102523956</v>
       </c>
       <c r="L20">
-        <v>0.9433724622066834</v>
+        <v>0.9842738209157321</v>
       </c>
       <c r="M20">
-        <v>0.886646831773403</v>
+        <v>1.00794297230751</v>
       </c>
       <c r="N20">
-        <v>0.9414136589868122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9879806872977864</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.01490034202984</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.005600006215707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8960214076880058</v>
+        <v>0.9497961724835761</v>
       </c>
       <c r="D21">
-        <v>0.9091238088420948</v>
+        <v>0.9718130466165443</v>
       </c>
       <c r="E21">
-        <v>0.9176644916649164</v>
+        <v>0.9635346449167341</v>
       </c>
       <c r="F21">
-        <v>0.8521814021328123</v>
+        <v>0.9885990175945839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9306159325593357</v>
+        <v>0.9815539193612018</v>
       </c>
       <c r="K21">
-        <v>0.9260588230868761</v>
+        <v>0.9873488571386253</v>
       </c>
       <c r="L21">
-        <v>0.9343937839848596</v>
+        <v>0.9792414404030453</v>
       </c>
       <c r="M21">
-        <v>0.8706329654394305</v>
+        <v>1.003799652871076</v>
       </c>
       <c r="N21">
-        <v>0.9319375139267094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9829478385125028</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.011578958481463</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.002208472676833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8876850155052856</v>
+        <v>0.9450034313382373</v>
       </c>
       <c r="D22">
-        <v>0.9016052263172868</v>
+        <v>0.968059260688935</v>
       </c>
       <c r="E22">
-        <v>0.9108259361467875</v>
+        <v>0.9596265215613439</v>
       </c>
       <c r="F22">
-        <v>0.8402582730940593</v>
+        <v>0.9854326461399658</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9242896813650326</v>
+        <v>0.9783627469566714</v>
       </c>
       <c r="K22">
-        <v>0.9194150455811625</v>
+        <v>0.9842911833049575</v>
       </c>
       <c r="L22">
-        <v>0.9283982133377952</v>
+        <v>0.9760425784986414</v>
       </c>
       <c r="M22">
-        <v>0.8598329127492766</v>
+        <v>1.001298316161827</v>
       </c>
       <c r="N22">
-        <v>0.9256022787300791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9797521342771254</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.009599231327924</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.00003226142745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8921552993377558</v>
+        <v>0.9475182077190107</v>
       </c>
       <c r="D23">
-        <v>0.9056354988579027</v>
+        <v>0.9700162544259453</v>
       </c>
       <c r="E23">
-        <v>0.914490952399256</v>
+        <v>0.9616713065753764</v>
       </c>
       <c r="F23">
-        <v>0.8466645838235063</v>
+        <v>0.9871013065819618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9276824836866396</v>
+        <v>0.9800257034156642</v>
       </c>
       <c r="K23">
-        <v>0.9229776467409638</v>
+        <v>0.9858788377842046</v>
       </c>
       <c r="L23">
-        <v>0.9316129456646838</v>
+        <v>0.9777108608721682</v>
       </c>
       <c r="M23">
-        <v>0.8656351062132007</v>
+        <v>1.002613844206402</v>
       </c>
       <c r="N23">
-        <v>0.9289998992201429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9814174523250339</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.010640430010225</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.001144808659432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9087019500822716</v>
+        <v>0.957179784503172</v>
       </c>
       <c r="D24">
-        <v>0.9205831213633646</v>
+        <v>0.9775779952999191</v>
       </c>
       <c r="E24">
-        <v>0.9280981670728787</v>
+        <v>0.9695551538939118</v>
       </c>
       <c r="F24">
-        <v>0.8701355298167049</v>
+        <v>0.9935359504313823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9402315893947055</v>
+        <v>0.9864319824709556</v>
       </c>
       <c r="K24">
-        <v>0.9361648641123557</v>
+        <v>0.9920106504564182</v>
       </c>
       <c r="L24">
-        <v>0.9435176895938859</v>
+        <v>0.9841388756934234</v>
       </c>
       <c r="M24">
-        <v>0.886904413464097</v>
+        <v>1.007677540985907</v>
       </c>
       <c r="N24">
-        <v>0.9415668260977167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9878328290313944</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.014648169626839</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.005472827883858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9261395362398845</v>
+        <v>0.9678156013805187</v>
       </c>
       <c r="D25">
-        <v>0.9363864368603602</v>
+        <v>0.9859469047554485</v>
       </c>
       <c r="E25">
-        <v>0.9425060288739801</v>
+        <v>0.9782691794483059</v>
       </c>
       <c r="F25">
-        <v>0.8945215118526706</v>
+        <v>1.000692388085539</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9534366421186966</v>
+        <v>0.9934768591130086</v>
       </c>
       <c r="K25">
-        <v>0.9500596610210162</v>
+        <v>0.9987673659962418</v>
       </c>
       <c r="L25">
-        <v>0.9560676456271794</v>
+        <v>0.9912144735079932</v>
       </c>
       <c r="M25">
-        <v>0.9090123784410714</v>
+        <v>1.013279965121156</v>
       </c>
       <c r="N25">
-        <v>0.9547906315112165</v>
+        <v>0.9948877102063375</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.01908226462</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.010247556796491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -429,1128 +429,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9757912194461562</v>
+        <v>1.014658409632204</v>
       </c>
       <c r="D2">
-        <v>0.9922224595535115</v>
+        <v>1.030931933582496</v>
       </c>
       <c r="E2">
-        <v>0.984816020905311</v>
+        <v>1.02905469411615</v>
       </c>
       <c r="F2">
-        <v>1.006134995325486</v>
+        <v>1.039714602007931</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.055215899212971</v>
+      </c>
       <c r="J2">
-        <v>0.9987209335505408</v>
+        <v>1.036409358241443</v>
       </c>
       <c r="K2">
-        <v>1.003791221954186</v>
+        <v>1.041976522145129</v>
       </c>
       <c r="L2">
-        <v>0.996491025752445</v>
+        <v>1.040123563615306</v>
       </c>
       <c r="M2">
-        <v>1.017509516514386</v>
+        <v>1.050647045965895</v>
       </c>
       <c r="N2">
-        <v>1.000139231831075</v>
+        <v>1.016014955544471</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.022429766074075</v>
+        <v>1.048656084726474</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.013749956584989</v>
+        <v>1.040751319498572</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9814297231365481</v>
+        <v>1.018105071974435</v>
       </c>
       <c r="D3">
-        <v>0.99669417453442</v>
+        <v>1.033444435607519</v>
       </c>
       <c r="E3">
-        <v>0.9894632452663267</v>
+        <v>1.031713200812907</v>
       </c>
       <c r="F3">
-        <v>1.009996205932356</v>
+        <v>1.04229673072248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.05593978196733</v>
+      </c>
       <c r="J3">
-        <v>1.002439760874224</v>
+        <v>1.038114054435302</v>
       </c>
       <c r="K3">
-        <v>1.007369529501424</v>
+        <v>1.043666550743733</v>
       </c>
       <c r="L3">
-        <v>1.000232745097915</v>
+        <v>1.041955769047346</v>
       </c>
       <c r="M3">
-        <v>1.020502761411919</v>
+        <v>1.052415575494496</v>
       </c>
       <c r="N3">
-        <v>1.003863340316113</v>
+        <v>1.016584176448577</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.024798775974685</v>
+        <v>1.050055740349484</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.016277560685795</v>
+        <v>1.041943652967571</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9849885662449807</v>
+        <v>1.020297631578719</v>
       </c>
       <c r="D4">
-        <v>0.9995245838167132</v>
+        <v>1.035048979246945</v>
       </c>
       <c r="E4">
-        <v>0.9924016469438219</v>
+        <v>1.033410083793428</v>
       </c>
       <c r="F4">
-        <v>1.012445018330174</v>
+        <v>1.043945417119688</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.056385457400191</v>
+      </c>
       <c r="J4">
-        <v>1.004784220074494</v>
+        <v>1.039195997025554</v>
       </c>
       <c r="K4">
-        <v>1.009628750081494</v>
+        <v>1.044742025141983</v>
       </c>
       <c r="L4">
-        <v>1.00259265080767</v>
+        <v>1.043121331019258</v>
       </c>
       <c r="M4">
-        <v>1.022395527942025</v>
+        <v>1.053540884072577</v>
       </c>
       <c r="N4">
-        <v>1.006211128917361</v>
+        <v>1.016945523487928</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.026296805720141</v>
+        <v>1.050946334504061</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.017876057535624</v>
+        <v>1.042704993404833</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9864746756898043</v>
+        <v>1.021213759972662</v>
       </c>
       <c r="D5">
-        <v>1.000712010084062</v>
+        <v>1.035723227463921</v>
       </c>
       <c r="E5">
-        <v>0.9936309959675872</v>
+        <v>1.034120957195012</v>
       </c>
       <c r="F5">
-        <v>1.013467634651531</v>
+        <v>1.044636480131593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.056568833262211</v>
+      </c>
       <c r="J5">
-        <v>1.005765818570545</v>
+        <v>1.039648974505442</v>
       </c>
       <c r="K5">
-        <v>1.010577464683898</v>
+        <v>1.045194520767568</v>
       </c>
       <c r="L5">
-        <v>1.003580354879982</v>
+        <v>1.043609573971449</v>
       </c>
       <c r="M5">
-        <v>1.02318559571344</v>
+        <v>1.054012591752046</v>
       </c>
       <c r="N5">
-        <v>1.007194121395867</v>
+        <v>1.017097083555793</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.026922103750828</v>
+        <v>1.051319654103078</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.018554307017395</v>
+        <v>1.043032085042315</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9867358008300425</v>
+        <v>1.021370918228101</v>
       </c>
       <c r="D6">
-        <v>1.000925148204227</v>
+        <v>1.035841815123279</v>
       </c>
       <c r="E6">
-        <v>0.99384845545709</v>
+        <v>1.034243606228257</v>
       </c>
       <c r="F6">
-        <v>1.013644202620654</v>
+        <v>1.044756021625278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.056601015306618</v>
+      </c>
       <c r="J6">
-        <v>1.005942266313369</v>
+        <v>1.039728498720419</v>
       </c>
       <c r="K6">
-        <v>1.010750440856492</v>
+        <v>1.045275855861625</v>
       </c>
       <c r="L6">
-        <v>1.003757194681868</v>
+        <v>1.043694847796575</v>
       </c>
       <c r="M6">
-        <v>1.023323127614805</v>
+        <v>1.0540953031448</v>
       </c>
       <c r="N6">
-        <v>1.007370819714725</v>
+        <v>1.017124005601875</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027030953123156</v>
+        <v>1.051385113658393</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.018685625848377</v>
+        <v>1.043098303928091</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9850433076107852</v>
+        <v>1.020320261580797</v>
       </c>
       <c r="D7">
-        <v>0.999580093196536</v>
+        <v>1.035073221493888</v>
       </c>
       <c r="E7">
-        <v>0.9924507039316736</v>
+        <v>1.033429316678585</v>
       </c>
       <c r="F7">
-        <v>1.012473771604334</v>
+        <v>1.043964915784215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.056392521381853</v>
+      </c>
       <c r="J7">
-        <v>1.004831268658017</v>
+        <v>1.039212172696967</v>
       </c>
       <c r="K7">
-        <v>1.009680585596736</v>
+        <v>1.044763132950645</v>
       </c>
       <c r="L7">
-        <v>1.002638072006532</v>
+        <v>1.043137478075324</v>
       </c>
       <c r="M7">
-        <v>1.022420992967798</v>
+        <v>1.053557337806264</v>
       </c>
       <c r="N7">
-        <v>1.006258244315269</v>
+        <v>1.016951785879501</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.026316959988015</v>
+        <v>1.05095935634578</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.017933432494279</v>
+        <v>1.04273995014603</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9777614235536652</v>
+        <v>1.015844173504627</v>
       </c>
       <c r="D8">
-        <v>0.9937981652923021</v>
+        <v>1.031804423764823</v>
       </c>
       <c r="E8">
-        <v>0.9864438288642144</v>
+        <v>1.029970258916801</v>
       </c>
       <c r="F8">
-        <v>1.007470193152084</v>
+        <v>1.040604707057714</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.055471024510888</v>
+      </c>
       <c r="J8">
-        <v>1.000034992884344</v>
+        <v>1.037002544626467</v>
       </c>
       <c r="K8">
-        <v>1.005062804929504</v>
+        <v>1.04257015110523</v>
       </c>
       <c r="L8">
-        <v>0.9978106131049758</v>
+        <v>1.040759008397639</v>
       </c>
       <c r="M8">
-        <v>1.018549917849699</v>
+        <v>1.051261378967243</v>
       </c>
       <c r="N8">
-        <v>1.001455157279857</v>
+        <v>1.016214117400447</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.023253194815008</v>
+        <v>1.049142282527298</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.014672815016791</v>
+        <v>1.041193894497447</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9641378175745335</v>
+        <v>1.007640530642797</v>
       </c>
       <c r="D9">
-        <v>0.9830289268601586</v>
+        <v>1.025851920440801</v>
       </c>
       <c r="E9">
-        <v>0.9752446627380035</v>
+        <v>1.023674291272116</v>
       </c>
       <c r="F9">
-        <v>0.9982236003668195</v>
+        <v>1.034491932476328</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.053663294526754</v>
+      </c>
       <c r="J9">
-        <v>0.9910237758352776</v>
+        <v>1.032926337365103</v>
       </c>
       <c r="K9">
-        <v>0.9964034828820564</v>
+        <v>1.038539044143375</v>
       </c>
       <c r="L9">
-        <v>0.9887525667798778</v>
+        <v>1.036394601614975</v>
       </c>
       <c r="M9">
-        <v>1.011345564314449</v>
+        <v>1.047049135002984</v>
       </c>
       <c r="N9">
-        <v>0.9924311432689797</v>
+        <v>1.014852479953188</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.017551266985763</v>
+        <v>1.045808605700619</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.008546329012566</v>
+        <v>1.038340481475329</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9547338837654737</v>
+        <v>1.002001949698148</v>
       </c>
       <c r="D10">
-        <v>0.9756686979685593</v>
+        <v>1.021816587943166</v>
       </c>
       <c r="E10">
-        <v>0.9675744871855023</v>
+        <v>1.019401974544112</v>
       </c>
       <c r="F10">
-        <v>0.9921518589239281</v>
+        <v>1.030378251440559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.052359655214726</v>
+      </c>
       <c r="J10">
-        <v>0.9848661488311659</v>
+        <v>1.030136363738542</v>
       </c>
       <c r="K10">
-        <v>0.9904916115014367</v>
+        <v>1.035802801438619</v>
       </c>
       <c r="L10">
-        <v>0.9825549591993673</v>
+        <v>1.033429539161367</v>
       </c>
       <c r="M10">
-        <v>1.006664274671401</v>
+        <v>1.044219856076496</v>
       </c>
       <c r="N10">
-        <v>0.9862647717282322</v>
+        <v>1.01392508928319</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.013899226323373</v>
+        <v>1.043620553458462</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.004383405427173</v>
+        <v>1.036422574376926</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.952446224320892</v>
+        <v>0.9998751640717801</v>
       </c>
       <c r="D11">
-        <v>0.9740679487631512</v>
+        <v>1.020453031933874</v>
       </c>
       <c r="E11">
-        <v>0.9659175484210935</v>
+        <v>1.017970564617274</v>
       </c>
       <c r="F11">
-        <v>0.9925915544225207</v>
+        <v>1.029248632377201</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.051950016209287</v>
+      </c>
       <c r="J11">
-        <v>0.9839404224674757</v>
+        <v>1.029253137286957</v>
       </c>
       <c r="K11">
-        <v>0.9894960548918584</v>
+        <v>1.034999273729588</v>
       </c>
       <c r="L11">
-        <v>0.9815121622164987</v>
+        <v>1.032561357431064</v>
       </c>
       <c r="M11">
-        <v>1.007654548736682</v>
+        <v>1.043639266546949</v>
       </c>
       <c r="N11">
-        <v>0.9853377307269234</v>
+        <v>1.013664705543011</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.015131232065853</v>
+        <v>1.043594732676455</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.003713722727792</v>
+        <v>1.035887248069377</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9522792982520352</v>
+        <v>0.9992030803882196</v>
       </c>
       <c r="D12">
-        <v>0.9740629988524837</v>
+        <v>1.020078684458692</v>
       </c>
       <c r="E12">
-        <v>0.9659402357060954</v>
+        <v>1.017590496256036</v>
       </c>
       <c r="F12">
-        <v>0.9938201211769855</v>
+        <v>1.029065196914634</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.051856840295437</v>
+      </c>
       <c r="J12">
-        <v>0.9842501982858041</v>
+        <v>1.029041205618786</v>
       </c>
       <c r="K12">
-        <v>0.9897045718889284</v>
+        <v>1.034831060096007</v>
       </c>
       <c r="L12">
-        <v>0.9817504109087186</v>
+        <v>1.032388275332584</v>
       </c>
       <c r="M12">
-        <v>1.009066683416902</v>
+        <v>1.043655963332843</v>
       </c>
       <c r="N12">
-        <v>0.9856479464624454</v>
+        <v>1.013619822041839</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.016582300555794</v>
+        <v>1.043932593121661</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.003861163314693</v>
+        <v>1.035768315861304</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9537687197682919</v>
+        <v>0.9996219167121322</v>
       </c>
       <c r="D13">
-        <v>0.9753250694712859</v>
+        <v>1.020461847493517</v>
       </c>
       <c r="E13">
-        <v>0.9672873365664054</v>
+        <v>1.018009526527067</v>
       </c>
       <c r="F13">
-        <v>0.9957716836583173</v>
+        <v>1.029620466657012</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.052014549455814</v>
+      </c>
       <c r="J13">
-        <v>0.9855669267003072</v>
+        <v>1.029349606719543</v>
       </c>
       <c r="K13">
-        <v>0.9908950963357671</v>
+        <v>1.035164502442367</v>
       </c>
       <c r="L13">
-        <v>0.9830230456154849</v>
+        <v>1.032756735189066</v>
       </c>
       <c r="M13">
-        <v>1.010936034483155</v>
+        <v>1.044159161850431</v>
       </c>
       <c r="N13">
-        <v>0.986966544782328</v>
+        <v>1.013744956402991</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.018342454533675</v>
+        <v>1.044605819105589</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.004700373343416</v>
+        <v>1.036001580431976</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9555435518920895</v>
+        <v>1.000411121472944</v>
       </c>
       <c r="D14">
-        <v>0.9767696705317933</v>
+        <v>1.021075848067487</v>
       </c>
       <c r="E14">
-        <v>0.9688151694334041</v>
+        <v>1.018666093732144</v>
       </c>
       <c r="F14">
-        <v>0.9974323470562936</v>
+        <v>1.030345415475327</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.052238942376407</v>
+      </c>
       <c r="J14">
-        <v>0.9869287903063689</v>
+        <v>1.029802436935352</v>
       </c>
       <c r="K14">
-        <v>0.9921609530585503</v>
+        <v>1.035627419404977</v>
       </c>
       <c r="L14">
-        <v>0.9843679408340407</v>
+        <v>1.033260894918724</v>
       </c>
       <c r="M14">
-        <v>1.012419881212663</v>
+        <v>1.044733136550237</v>
       </c>
       <c r="N14">
-        <v>0.9883303423909185</v>
+        <v>1.013910036230508</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.019691506124469</v>
+        <v>1.045232129379444</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.005596932715596</v>
+        <v>1.03633029979874</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9563597168715369</v>
+        <v>1.000845786726884</v>
       </c>
       <c r="D15">
-        <v>0.9774218300715102</v>
+        <v>1.021398892588949</v>
       </c>
       <c r="E15">
-        <v>0.9694972345405242</v>
+        <v>1.019007391659756</v>
       </c>
       <c r="F15">
-        <v>0.9980501976495356</v>
+        <v>1.030694909902587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.052351192873153</v>
+      </c>
       <c r="J15">
-        <v>0.9875049612557674</v>
+        <v>1.030032546076212</v>
       </c>
       <c r="K15">
-        <v>0.9927081033402293</v>
+        <v>1.035858482525065</v>
       </c>
       <c r="L15">
-        <v>0.984942987780007</v>
+        <v>1.033509555164453</v>
       </c>
       <c r="M15">
-        <v>1.012936845617879</v>
+        <v>1.04499144019536</v>
       </c>
       <c r="N15">
-        <v>0.9889073315691528</v>
+        <v>1.013989838982802</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.020138176642225</v>
+        <v>1.04547368418483</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.005989928358271</v>
+        <v>1.036499530714417</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9600188989369079</v>
+        <v>1.003157011354745</v>
       </c>
       <c r="D16">
-        <v>0.9802620736049464</v>
+        <v>1.023041645765654</v>
       </c>
       <c r="E16">
-        <v>0.9724451967274248</v>
+        <v>1.020741920133725</v>
       </c>
       <c r="F16">
-        <v>1.00026548601147</v>
+        <v>1.032355814983191</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.052895495471061</v>
+      </c>
       <c r="J16">
-        <v>0.9898315733863539</v>
+        <v>1.031169544499674</v>
       </c>
       <c r="K16">
-        <v>0.9949593314032175</v>
+        <v>1.036971482080079</v>
       </c>
       <c r="L16">
-        <v>0.9872922441595399</v>
+        <v>1.034710897785365</v>
       </c>
       <c r="M16">
-        <v>1.014593285024821</v>
+        <v>1.046129420191325</v>
       </c>
       <c r="N16">
-        <v>0.9912372477558307</v>
+        <v>1.014363971747139</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.021408133816827</v>
+        <v>1.046334583148796</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.00758502969435</v>
+        <v>1.037289619189634</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9619121008633208</v>
+        <v>1.00451775541392</v>
       </c>
       <c r="D17">
-        <v>0.9817000069053774</v>
+        <v>1.023981563473298</v>
       </c>
       <c r="E17">
-        <v>0.9739220434100542</v>
+        <v>1.021729544848483</v>
       </c>
       <c r="F17">
-        <v>1.001105873655119</v>
+        <v>1.033247174684499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.053191508238421</v>
+      </c>
       <c r="J17">
-        <v>0.9909169379490559</v>
+        <v>1.031803423172836</v>
       </c>
       <c r="K17">
-        <v>0.9960366942653861</v>
+        <v>1.037581780650252</v>
       </c>
       <c r="L17">
-        <v>0.9884033038295529</v>
+        <v>1.035367009485845</v>
       </c>
       <c r="M17">
-        <v>1.015094540644594</v>
+        <v>1.046696334706148</v>
       </c>
       <c r="N17">
-        <v>0.992324153660705</v>
+        <v>1.014564053480093</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.021673354570823</v>
+        <v>1.04665421316037</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.008349503088715</v>
+        <v>1.037723703946468</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9623893814523701</v>
+        <v>1.005177892156546</v>
       </c>
       <c r="D18">
-        <v>0.9819881689334566</v>
+        <v>1.024381505086648</v>
       </c>
       <c r="E18">
-        <v>0.974199706209364</v>
+        <v>1.022145803536213</v>
       </c>
       <c r="F18">
-        <v>1.000650866252811</v>
+        <v>1.03352405380373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.053296919771653</v>
+      </c>
       <c r="J18">
-        <v>0.9909526417936466</v>
+        <v>1.032046702110448</v>
       </c>
       <c r="K18">
-        <v>0.9961252258638061</v>
+        <v>1.037792247269518</v>
       </c>
       <c r="L18">
-        <v>0.9884791606372235</v>
+        <v>1.035592915500841</v>
       </c>
       <c r="M18">
-        <v>1.014458374347251</v>
+        <v>1.046788164876839</v>
       </c>
       <c r="N18">
-        <v>0.9923599082088503</v>
+        <v>1.014625952688017</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.020928583063129</v>
+        <v>1.046490300772107</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.008400014863114</v>
+        <v>1.03786089695352</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.961629778943735</v>
+        <v>1.005214726364027</v>
       </c>
       <c r="D19">
-        <v>0.9812877660989225</v>
+        <v>1.024310286360562</v>
       </c>
       <c r="E19">
-        <v>0.9734398681605169</v>
+        <v>1.022053277117217</v>
       </c>
       <c r="F19">
-        <v>0.9989407006760663</v>
+        <v>1.03325365260064</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.053237317548986</v>
+      </c>
       <c r="J19">
-        <v>0.9900814267926646</v>
+        <v>1.031948680592399</v>
       </c>
       <c r="K19">
-        <v>0.9953711825184699</v>
+        <v>1.037659817311586</v>
       </c>
       <c r="L19">
-        <v>0.9876662709130759</v>
+        <v>1.035439336172453</v>
       </c>
       <c r="M19">
-        <v>1.01271310233374</v>
+        <v>1.046460450172794</v>
       </c>
       <c r="N19">
-        <v>0.9914874559826372</v>
+        <v>1.014569285291282</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.019216161818933</v>
+        <v>1.045907527535014</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.007873490834596</v>
+        <v>1.037773647282512</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9572972036045575</v>
+        <v>1.003490090733136</v>
       </c>
       <c r="D20">
-        <v>0.9777035371704045</v>
+        <v>1.022898871972449</v>
       </c>
       <c r="E20">
-        <v>0.9696759450235942</v>
+        <v>1.020532867363705</v>
       </c>
       <c r="F20">
-        <v>0.9937900422457694</v>
+        <v>1.03147048002657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.052715205972484</v>
+      </c>
       <c r="J20">
-        <v>0.9865796310594164</v>
+        <v>1.030887135022985</v>
       </c>
       <c r="K20">
-        <v>0.9921501102523956</v>
+        <v>1.036550678209478</v>
       </c>
       <c r="L20">
-        <v>0.9842738209157321</v>
+        <v>1.034224030415305</v>
       </c>
       <c r="M20">
-        <v>1.00794297230751</v>
+        <v>1.044981645491668</v>
       </c>
       <c r="N20">
-        <v>0.9879806872977864</v>
+        <v>1.014177250375804</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.01490034202984</v>
+        <v>1.044212941667473</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.005600006215707</v>
+        <v>1.036993360859551</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9497961724835761</v>
+        <v>0.9991888955780177</v>
       </c>
       <c r="D21">
-        <v>0.9718130466165443</v>
+        <v>1.019801224042631</v>
       </c>
       <c r="E21">
-        <v>0.9635346449167341</v>
+        <v>1.017251991347092</v>
       </c>
       <c r="F21">
-        <v>0.9885990175945839</v>
+        <v>1.02826381757532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.05167596188138</v>
+      </c>
       <c r="J21">
-        <v>0.9815539193612018</v>
+        <v>1.028720567920843</v>
       </c>
       <c r="K21">
-        <v>0.9873488571386253</v>
+        <v>1.034416922178506</v>
       </c>
       <c r="L21">
-        <v>0.9792414404030453</v>
+        <v>1.031913728428882</v>
       </c>
       <c r="M21">
-        <v>1.003799652871076</v>
+        <v>1.042728803821736</v>
       </c>
       <c r="N21">
-        <v>0.9829478385125028</v>
+        <v>1.013450862561758</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.011578958481463</v>
+        <v>1.042389370193304</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.002208472676833</v>
+        <v>1.035487945455092</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9450034313382373</v>
+        <v>0.996445189475359</v>
       </c>
       <c r="D22">
-        <v>0.968059260688935</v>
+        <v>1.01783490521068</v>
       </c>
       <c r="E22">
-        <v>0.9596265215613439</v>
+        <v>1.015175601855436</v>
       </c>
       <c r="F22">
-        <v>0.9854326461399658</v>
+        <v>1.026250023984044</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.05100231078842</v>
+      </c>
       <c r="J22">
-        <v>0.9783627469566714</v>
+        <v>1.027342203471655</v>
       </c>
       <c r="K22">
-        <v>0.9842911833049575</v>
+        <v>1.033061139711066</v>
       </c>
       <c r="L22">
-        <v>0.9760425784986414</v>
+        <v>1.030452304848906</v>
       </c>
       <c r="M22">
-        <v>1.001298316161827</v>
+        <v>1.041318802461408</v>
       </c>
       <c r="N22">
-        <v>0.9797521342771254</v>
+        <v>1.012989717519629</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.009599231327924</v>
+        <v>1.041273450710422</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.00003226142745</v>
+        <v>1.034515856756982</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9475182077190107</v>
+        <v>0.9978946581282999</v>
       </c>
       <c r="D23">
-        <v>0.9700162544259453</v>
+        <v>1.018866116529296</v>
       </c>
       <c r="E23">
-        <v>0.9616713065753764</v>
+        <v>1.016270031705942</v>
       </c>
       <c r="F23">
-        <v>0.9871013065819618</v>
+        <v>1.027310785969251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.0513576487624</v>
+      </c>
       <c r="J23">
-        <v>0.9800257034156642</v>
+        <v>1.028065995988883</v>
       </c>
       <c r="K23">
-        <v>0.9858788377842046</v>
+        <v>1.033768494540001</v>
       </c>
       <c r="L23">
-        <v>0.9777108608721682</v>
+        <v>1.031220410614432</v>
       </c>
       <c r="M23">
-        <v>1.002613844206402</v>
+        <v>1.042059205670485</v>
       </c>
       <c r="N23">
-        <v>0.9814174523250339</v>
+        <v>1.013230954041304</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.010640430010225</v>
+        <v>1.041859429342565</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.001144808659432</v>
+        <v>1.035006357295287</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.957179784503172</v>
+        <v>1.003509971033653</v>
       </c>
       <c r="D24">
-        <v>0.9775779952999191</v>
+        <v>1.022888252336789</v>
       </c>
       <c r="E24">
-        <v>0.9695551538939118</v>
+        <v>1.020528471933067</v>
       </c>
       <c r="F24">
-        <v>0.9935359504313823</v>
+        <v>1.031440672448267</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.052707319212232</v>
+      </c>
       <c r="J24">
-        <v>0.9864319824709556</v>
+        <v>1.03087357377524</v>
       </c>
       <c r="K24">
-        <v>0.9920106504564182</v>
+        <v>1.036525003263005</v>
       </c>
       <c r="L24">
-        <v>0.9841388756934234</v>
+        <v>1.034204426585599</v>
       </c>
       <c r="M24">
-        <v>1.007677540985907</v>
+        <v>1.044937269873832</v>
       </c>
       <c r="N24">
-        <v>0.9878328290313944</v>
+        <v>1.014168382195683</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.014648169626839</v>
+        <v>1.044137216334249</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.005472827883858</v>
+        <v>1.036947843564699</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9678156013805187</v>
+        <v>1.00981525048102</v>
       </c>
       <c r="D25">
-        <v>0.9859469047554485</v>
+        <v>1.027435605862941</v>
       </c>
       <c r="E25">
-        <v>0.9782691794483059</v>
+        <v>1.02534048849285</v>
       </c>
       <c r="F25">
-        <v>1.000692388085539</v>
+        <v>1.03611024621266</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.054159304771952</v>
+      </c>
       <c r="J25">
-        <v>0.9934768591130086</v>
+        <v>1.034016747946927</v>
       </c>
       <c r="K25">
-        <v>0.9987673659962418</v>
+        <v>1.039622441416241</v>
       </c>
       <c r="L25">
-        <v>0.9912144735079932</v>
+        <v>1.037557761529796</v>
       </c>
       <c r="M25">
-        <v>1.013279965121156</v>
+        <v>1.048172714915157</v>
       </c>
       <c r="N25">
-        <v>0.9948877102063375</v>
+        <v>1.015218110308318</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.01908226462</v>
+        <v>1.046697836843514</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.010247556796491</v>
+        <v>1.039135025529617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014658409632204</v>
+        <v>1.013996763224378</v>
       </c>
       <c r="D2">
-        <v>1.030931933582496</v>
+        <v>1.029605689169927</v>
       </c>
       <c r="E2">
-        <v>1.02905469411615</v>
+        <v>1.02842875222758</v>
       </c>
       <c r="F2">
-        <v>1.039714602007931</v>
+        <v>1.038935667996874</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055215899212971</v>
+        <v>1.054917833685157</v>
       </c>
       <c r="J2">
-        <v>1.036409358241443</v>
+        <v>1.035766743640683</v>
       </c>
       <c r="K2">
-        <v>1.041976522145129</v>
+        <v>1.04066742039926</v>
       </c>
       <c r="L2">
-        <v>1.040123563615306</v>
+        <v>1.039505742567418</v>
       </c>
       <c r="M2">
-        <v>1.050647045965895</v>
+        <v>1.04987796239919</v>
       </c>
       <c r="N2">
-        <v>1.016014955544471</v>
+        <v>1.016675465331758</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048656084726474</v>
+        <v>1.048047413185609</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040751319498572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03983442645972</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022822498922463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018105071974435</v>
+        <v>1.017305969035848</v>
       </c>
       <c r="D3">
-        <v>1.033444435607519</v>
+        <v>1.031916924561515</v>
       </c>
       <c r="E3">
-        <v>1.031713200812907</v>
+        <v>1.030961875425191</v>
       </c>
       <c r="F3">
-        <v>1.04229673072248</v>
+        <v>1.041384055776769</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05593978196733</v>
+        <v>1.055580503955539</v>
       </c>
       <c r="J3">
-        <v>1.038114054435302</v>
+        <v>1.037335721676202</v>
       </c>
       <c r="K3">
-        <v>1.043666550743733</v>
+        <v>1.042157081556206</v>
       </c>
       <c r="L3">
-        <v>1.041955769047346</v>
+        <v>1.041213346426361</v>
       </c>
       <c r="M3">
-        <v>1.052415575494496</v>
+        <v>1.051513447453323</v>
       </c>
       <c r="N3">
-        <v>1.016584176448577</v>
+        <v>1.017091004814688</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050055740349484</v>
+        <v>1.049341775451829</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041943652967571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040884806850298</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023124523263234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020297631578719</v>
+        <v>1.019411858023819</v>
       </c>
       <c r="D4">
-        <v>1.035048979246945</v>
+        <v>1.033393875537131</v>
       </c>
       <c r="E4">
-        <v>1.033410083793428</v>
+        <v>1.032579568467106</v>
       </c>
       <c r="F4">
-        <v>1.043945417119688</v>
+        <v>1.042948159784461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056385457400191</v>
+        <v>1.055987411773999</v>
       </c>
       <c r="J4">
-        <v>1.039195997025554</v>
+        <v>1.038331711709965</v>
       </c>
       <c r="K4">
-        <v>1.044742025141983</v>
+        <v>1.043105303124126</v>
       </c>
       <c r="L4">
-        <v>1.043121331019258</v>
+        <v>1.042300066414316</v>
       </c>
       <c r="M4">
-        <v>1.053540884072577</v>
+        <v>1.052554463300518</v>
       </c>
       <c r="N4">
-        <v>1.016945523487928</v>
+        <v>1.017354877661562</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050946334504061</v>
+        <v>1.050165659295469</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042704993404833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04155625175289</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023314573726748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021213759972662</v>
+        <v>1.020291895311496</v>
       </c>
       <c r="D5">
-        <v>1.035723227463921</v>
+        <v>1.034014908970803</v>
       </c>
       <c r="E5">
-        <v>1.034120957195012</v>
+        <v>1.03325743917216</v>
       </c>
       <c r="F5">
-        <v>1.044636480131593</v>
+        <v>1.043603967680371</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056568833262211</v>
+        <v>1.056154606986825</v>
       </c>
       <c r="J5">
-        <v>1.039648974505442</v>
+        <v>1.038748815118088</v>
       </c>
       <c r="K5">
-        <v>1.045194520767568</v>
+        <v>1.043504674645927</v>
       </c>
       <c r="L5">
-        <v>1.043609573971449</v>
+        <v>1.042755419490076</v>
       </c>
       <c r="M5">
-        <v>1.054012591752046</v>
+        <v>1.052991003281586</v>
       </c>
       <c r="N5">
-        <v>1.017097083555793</v>
+        <v>1.017465599382432</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051319654103078</v>
+        <v>1.050511146788875</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043032085042315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041846493196069</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023394592161085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021370918228101</v>
+        <v>1.020442808312945</v>
       </c>
       <c r="D6">
-        <v>1.035841815123279</v>
+        <v>1.034124369229585</v>
       </c>
       <c r="E6">
-        <v>1.034243606228257</v>
+        <v>1.033374377606887</v>
       </c>
       <c r="F6">
-        <v>1.044756021625278</v>
+        <v>1.043717434046791</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056601015306618</v>
+        <v>1.056183989866154</v>
       </c>
       <c r="J6">
-        <v>1.039728498720419</v>
+        <v>1.038822130358785</v>
       </c>
       <c r="K6">
-        <v>1.045275855861625</v>
+        <v>1.043576896706784</v>
       </c>
       <c r="L6">
-        <v>1.043694847796575</v>
+        <v>1.042835001694908</v>
       </c>
       <c r="M6">
-        <v>1.0540953031448</v>
+        <v>1.05306765400861</v>
       </c>
       <c r="N6">
-        <v>1.017124005601875</v>
+        <v>1.017485299532117</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051385113658393</v>
+        <v>1.050571809870147</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043098303928091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04190713933388</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023409646456626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020320261580797</v>
+        <v>1.019439680554908</v>
       </c>
       <c r="D7">
-        <v>1.035073221493888</v>
+        <v>1.033421617570625</v>
       </c>
       <c r="E7">
-        <v>1.033429316678585</v>
+        <v>1.032603075155693</v>
       </c>
       <c r="F7">
-        <v>1.043964915784215</v>
+        <v>1.0429710240139</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056392521381853</v>
+        <v>1.055996645991806</v>
       </c>
       <c r="J7">
-        <v>1.039212172696967</v>
+        <v>1.038352944746748</v>
       </c>
       <c r="K7">
-        <v>1.044763132950645</v>
+        <v>1.04312986460766</v>
       </c>
       <c r="L7">
-        <v>1.043137478075324</v>
+        <v>1.04232043613543</v>
       </c>
       <c r="M7">
-        <v>1.053557337806264</v>
+        <v>1.052574241901602</v>
       </c>
       <c r="N7">
-        <v>1.016951785879501</v>
+        <v>1.017386897776444</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05095935634578</v>
+        <v>1.050181312525681</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04273995014603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041595653933233</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023321737089997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015844173504627</v>
+        <v>1.015153978814256</v>
       </c>
       <c r="D8">
-        <v>1.031804423764823</v>
+        <v>1.030423583500671</v>
       </c>
       <c r="E8">
-        <v>1.029970258916801</v>
+        <v>1.029316898809853</v>
       </c>
       <c r="F8">
-        <v>1.040604707057714</v>
+        <v>1.039792765537084</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055471024510888</v>
+        <v>1.055159814592827</v>
       </c>
       <c r="J8">
-        <v>1.037002544626467</v>
+        <v>1.03633154611899</v>
       </c>
       <c r="K8">
-        <v>1.04257015110523</v>
+        <v>1.041206633414866</v>
       </c>
       <c r="L8">
-        <v>1.040759008397639</v>
+        <v>1.040113873885511</v>
       </c>
       <c r="M8">
-        <v>1.051261378967243</v>
+        <v>1.050459403068935</v>
       </c>
       <c r="N8">
-        <v>1.016214117400447</v>
+        <v>1.016904101811211</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049142282527298</v>
+        <v>1.048507579595507</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041193894497447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040240796394077</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02293612951074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007640530642797</v>
+        <v>1.00728525312112</v>
       </c>
       <c r="D9">
-        <v>1.025851920440801</v>
+        <v>1.024954986279658</v>
       </c>
       <c r="E9">
-        <v>1.023674291272116</v>
+        <v>1.023325317572251</v>
       </c>
       <c r="F9">
-        <v>1.034491932476328</v>
+        <v>1.034003353054411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053663294526754</v>
+        <v>1.053500035024767</v>
       </c>
       <c r="J9">
-        <v>1.032926337365103</v>
+        <v>1.032583347489999</v>
       </c>
       <c r="K9">
-        <v>1.038539044143375</v>
+        <v>1.037655757306917</v>
       </c>
       <c r="L9">
-        <v>1.036394601614975</v>
+        <v>1.036050962954241</v>
       </c>
       <c r="M9">
-        <v>1.047049135002984</v>
+        <v>1.046567828768705</v>
       </c>
       <c r="N9">
-        <v>1.014852479953188</v>
+        <v>1.015920595469437</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045808605700619</v>
+        <v>1.045427686766581</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038340481475329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037726659307547</v>
+      </c>
+      <c r="S9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.022202346654042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002001949698148</v>
+        <v>1.001905958661185</v>
       </c>
       <c r="D10">
-        <v>1.021816587943166</v>
+        <v>1.021272481026159</v>
       </c>
       <c r="E10">
-        <v>1.019401974544112</v>
+        <v>1.019285472052137</v>
       </c>
       <c r="F10">
-        <v>1.030378251440559</v>
+        <v>1.030131057242257</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052359655214726</v>
+        <v>1.052309157392777</v>
       </c>
       <c r="J10">
-        <v>1.030136363738542</v>
+        <v>1.030044160208165</v>
       </c>
       <c r="K10">
-        <v>1.035802801438619</v>
+        <v>1.035267990498902</v>
       </c>
       <c r="L10">
-        <v>1.033429539161367</v>
+        <v>1.033315038220974</v>
       </c>
       <c r="M10">
-        <v>1.044219856076496</v>
+        <v>1.043976793629265</v>
       </c>
       <c r="N10">
-        <v>1.01392508928319</v>
+        <v>1.01536768720295</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043620553458462</v>
+        <v>1.043428198477721</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036422574376926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036056828967351</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021705690744574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9998751640717801</v>
+        <v>0.9998930933859232</v>
       </c>
       <c r="D11">
-        <v>1.020453031933874</v>
+        <v>1.020044598237247</v>
       </c>
       <c r="E11">
-        <v>1.017970564617274</v>
+        <v>1.017951172724459</v>
       </c>
       <c r="F11">
-        <v>1.029248632377201</v>
+        <v>1.02909827915791</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051950016209287</v>
+        <v>1.051947982786271</v>
       </c>
       <c r="J11">
-        <v>1.029253137286957</v>
+        <v>1.029270320474742</v>
       </c>
       <c r="K11">
-        <v>1.034999273729588</v>
+        <v>1.034598150534938</v>
       </c>
       <c r="L11">
-        <v>1.032561357431064</v>
+        <v>1.032542314661933</v>
       </c>
       <c r="M11">
-        <v>1.043639266546949</v>
+        <v>1.043491544358088</v>
       </c>
       <c r="N11">
-        <v>1.013664705543011</v>
+        <v>1.015413286637287</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043594732676455</v>
+        <v>1.043477886242151</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035887248069377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035619244244479</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021608693609255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9992030803882196</v>
+        <v>0.9992502306020368</v>
       </c>
       <c r="D12">
-        <v>1.020078684458692</v>
+        <v>1.019703524735142</v>
       </c>
       <c r="E12">
-        <v>1.017590496256036</v>
+        <v>1.017594062890459</v>
       </c>
       <c r="F12">
-        <v>1.029065196914634</v>
+        <v>1.028938265767108</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051856840295437</v>
+        <v>1.051867030314664</v>
       </c>
       <c r="J12">
-        <v>1.029041205618786</v>
+        <v>1.029086355946587</v>
       </c>
       <c r="K12">
-        <v>1.034831060096007</v>
+        <v>1.03446272767318</v>
       </c>
       <c r="L12">
-        <v>1.032388275332584</v>
+        <v>1.032391776677603</v>
       </c>
       <c r="M12">
-        <v>1.043655963332843</v>
+        <v>1.043531289346987</v>
       </c>
       <c r="N12">
-        <v>1.013619822041839</v>
+        <v>1.015482735527312</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043932593121661</v>
+        <v>1.043834010558899</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035768315861304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035523498055914</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021610358988415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9996219167121322</v>
+        <v>0.9996258662579843</v>
       </c>
       <c r="D13">
-        <v>1.020461847493517</v>
+        <v>1.020035974664794</v>
       </c>
       <c r="E13">
-        <v>1.018009526527067</v>
+        <v>1.017973130239726</v>
       </c>
       <c r="F13">
-        <v>1.029620466657012</v>
+        <v>1.02945573336995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052014549455814</v>
+        <v>1.052006158886638</v>
       </c>
       <c r="J13">
-        <v>1.029349606719543</v>
+        <v>1.029353389546422</v>
       </c>
       <c r="K13">
-        <v>1.035164502442367</v>
+        <v>1.034746346868584</v>
       </c>
       <c r="L13">
-        <v>1.032756735189066</v>
+        <v>1.032721002252655</v>
       </c>
       <c r="M13">
-        <v>1.044159161850431</v>
+        <v>1.043997344236781</v>
       </c>
       <c r="N13">
-        <v>1.013744956402991</v>
+        <v>1.015545366472358</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044605819105589</v>
+        <v>1.04447789810228</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036001580431976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035721289453922</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021694190655361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000411121472944</v>
+        <v>1.000352620996721</v>
       </c>
       <c r="D14">
-        <v>1.021075848067487</v>
+        <v>1.020576941632851</v>
       </c>
       <c r="E14">
-        <v>1.018666093732144</v>
+        <v>1.018573884740261</v>
       </c>
       <c r="F14">
-        <v>1.030345415475327</v>
+        <v>1.030126991101823</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052238942376407</v>
+        <v>1.052203823818784</v>
       </c>
       <c r="J14">
-        <v>1.029802436935352</v>
+        <v>1.029746370979831</v>
       </c>
       <c r="K14">
-        <v>1.035627419404977</v>
+        <v>1.035137441349494</v>
       </c>
       <c r="L14">
-        <v>1.033260894918724</v>
+        <v>1.033170345393024</v>
       </c>
       <c r="M14">
-        <v>1.044733136550237</v>
+        <v>1.044518529138957</v>
       </c>
       <c r="N14">
-        <v>1.013910036230508</v>
+        <v>1.015587765189611</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045232129379444</v>
+        <v>1.045062499427852</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03633029979874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035999361250184</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021790967870985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000845786726884</v>
+        <v>1.000756536699524</v>
       </c>
       <c r="D15">
-        <v>1.021398892588949</v>
+        <v>1.020863841161679</v>
       </c>
       <c r="E15">
-        <v>1.019007391659756</v>
+        <v>1.018888094029909</v>
       </c>
       <c r="F15">
-        <v>1.030694909902587</v>
+        <v>1.030450152176806</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052351192873153</v>
+        <v>1.052302926344128</v>
       </c>
       <c r="J15">
-        <v>1.030032546076212</v>
+        <v>1.029946978087784</v>
       </c>
       <c r="K15">
-        <v>1.035858482525065</v>
+        <v>1.035332933620598</v>
       </c>
       <c r="L15">
-        <v>1.033509555164453</v>
+        <v>1.033392388069932</v>
       </c>
       <c r="M15">
-        <v>1.04499144019536</v>
+        <v>1.044750926914834</v>
       </c>
       <c r="N15">
-        <v>1.013989838982802</v>
+        <v>1.01560140867819</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04547368418483</v>
+        <v>1.045283582698985</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036499530714417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036144011364791</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021835259350489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003157011354745</v>
+        <v>1.002925703477005</v>
       </c>
       <c r="D16">
-        <v>1.023041645765654</v>
+        <v>1.022335516182773</v>
       </c>
       <c r="E16">
-        <v>1.020741920133725</v>
+        <v>1.020498760354616</v>
       </c>
       <c r="F16">
-        <v>1.032355814983191</v>
+        <v>1.031988514972463</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052895495471061</v>
+        <v>1.05278637687434</v>
       </c>
       <c r="J16">
-        <v>1.031169544499674</v>
+        <v>1.030947306228237</v>
       </c>
       <c r="K16">
-        <v>1.036971482080079</v>
+        <v>1.036277346636938</v>
       </c>
       <c r="L16">
-        <v>1.034710897785365</v>
+        <v>1.034471889908264</v>
       </c>
       <c r="M16">
-        <v>1.046129420191325</v>
+        <v>1.045768212311337</v>
       </c>
       <c r="N16">
-        <v>1.014363971747139</v>
+        <v>1.015657420963449</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046334583148796</v>
+        <v>1.046049076661471</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037289619189634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036815200867526</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022027949220635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00451775541392</v>
+        <v>1.004216808308792</v>
       </c>
       <c r="D17">
-        <v>1.023981563473298</v>
+        <v>1.023187462863096</v>
       </c>
       <c r="E17">
-        <v>1.021729544848483</v>
+        <v>1.02142584750035</v>
       </c>
       <c r="F17">
-        <v>1.033247174684499</v>
+        <v>1.032818395427427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053191508238421</v>
+        <v>1.053052406861059</v>
       </c>
       <c r="J17">
-        <v>1.031803423172836</v>
+        <v>1.031513899713852</v>
       </c>
       <c r="K17">
-        <v>1.037581780650252</v>
+        <v>1.036800790052799</v>
       </c>
       <c r="L17">
-        <v>1.035367009485845</v>
+        <v>1.035068351349169</v>
       </c>
       <c r="M17">
-        <v>1.046696334706148</v>
+        <v>1.046274469071816</v>
       </c>
       <c r="N17">
-        <v>1.014564053480093</v>
+        <v>1.015706194765075</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04665421316037</v>
+        <v>1.046320728485643</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037723703946468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037188122620365</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022125562607518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005177892156546</v>
+        <v>1.00485594664047</v>
       </c>
       <c r="D18">
-        <v>1.024381505086648</v>
+        <v>1.023558098016252</v>
       </c>
       <c r="E18">
-        <v>1.022145803536213</v>
+        <v>1.021824709851298</v>
       </c>
       <c r="F18">
-        <v>1.03352405380373</v>
+        <v>1.033076087606579</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053296919771653</v>
+        <v>1.053148759451971</v>
       </c>
       <c r="J18">
-        <v>1.032046702110448</v>
+        <v>1.031736749103921</v>
       </c>
       <c r="K18">
-        <v>1.037792247269518</v>
+        <v>1.036982211419965</v>
       </c>
       <c r="L18">
-        <v>1.035592915500841</v>
+        <v>1.035277062076887</v>
       </c>
       <c r="M18">
-        <v>1.046788164876839</v>
+        <v>1.046347305843563</v>
       </c>
       <c r="N18">
-        <v>1.014625952688017</v>
+        <v>1.015711390290697</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046490300772107</v>
+        <v>1.04614172981633</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03786089695352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037303642592175</v>
+      </c>
+      <c r="S18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.0221417332994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005214726364027</v>
+        <v>1.004909897078165</v>
       </c>
       <c r="D19">
-        <v>1.024310286360562</v>
+        <v>1.023506068854623</v>
       </c>
       <c r="E19">
-        <v>1.022053277117217</v>
+        <v>1.02174890448777</v>
       </c>
       <c r="F19">
-        <v>1.03325365260064</v>
+        <v>1.032820642846322</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053237317548986</v>
+        <v>1.053096605725137</v>
       </c>
       <c r="J19">
-        <v>1.031948680592399</v>
+        <v>1.031655138487425</v>
       </c>
       <c r="K19">
-        <v>1.037659817311586</v>
+        <v>1.036868591782692</v>
       </c>
       <c r="L19">
-        <v>1.035439336172453</v>
+        <v>1.035139905460023</v>
       </c>
       <c r="M19">
-        <v>1.046460450172794</v>
+        <v>1.046034278213722</v>
       </c>
       <c r="N19">
-        <v>1.014569285291282</v>
+        <v>1.015662049838012</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045907527535014</v>
+        <v>1.045570460177862</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037773647282512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037230317951243</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022089977032996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003490090733136</v>
+        <v>1.003307375078868</v>
       </c>
       <c r="D20">
-        <v>1.022898871972449</v>
+        <v>1.022247751488992</v>
       </c>
       <c r="E20">
-        <v>1.020532867363705</v>
+        <v>1.020339619909912</v>
       </c>
       <c r="F20">
-        <v>1.03147048002657</v>
+        <v>1.031146932382267</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052715205972484</v>
+        <v>1.052627410458946</v>
       </c>
       <c r="J20">
-        <v>1.030887135022985</v>
+        <v>1.030711395623338</v>
       </c>
       <c r="K20">
-        <v>1.036550678209478</v>
+        <v>1.035910365258153</v>
       </c>
       <c r="L20">
-        <v>1.034224030415305</v>
+        <v>1.034034007884464</v>
       </c>
       <c r="M20">
-        <v>1.044981645491668</v>
+        <v>1.044663351993112</v>
       </c>
       <c r="N20">
-        <v>1.014177250375804</v>
+        <v>1.015447611486588</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044212941667473</v>
+        <v>1.043961047276124</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036993360859551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036557124242682</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02184283480762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9991888955780177</v>
+        <v>0.9992935282448018</v>
       </c>
       <c r="D21">
-        <v>1.019801224042631</v>
+        <v>1.01948988226727</v>
       </c>
       <c r="E21">
-        <v>1.017251991347092</v>
+        <v>1.017311738949404</v>
       </c>
       <c r="F21">
-        <v>1.02826381757532</v>
+        <v>1.028187123953039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.05167596188138</v>
+        <v>1.051711062331316</v>
       </c>
       <c r="J21">
-        <v>1.028720567920843</v>
+        <v>1.028820816476458</v>
       </c>
       <c r="K21">
-        <v>1.034416922178506</v>
+        <v>1.034111187169268</v>
       </c>
       <c r="L21">
-        <v>1.031913728428882</v>
+        <v>1.031972393559883</v>
       </c>
       <c r="M21">
-        <v>1.042728803821736</v>
+        <v>1.042653461607864</v>
       </c>
       <c r="N21">
-        <v>1.013450862561758</v>
+        <v>1.015360316381211</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042389370193304</v>
+        <v>1.042329742035885</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035487945455092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035288599796099</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021464767293411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.996445189475359</v>
+        <v>0.9967308756139298</v>
       </c>
       <c r="D22">
-        <v>1.01783490521068</v>
+        <v>1.017737732105331</v>
       </c>
       <c r="E22">
-        <v>1.015175601855436</v>
+        <v>1.015394636566772</v>
       </c>
       <c r="F22">
-        <v>1.026250023984044</v>
+        <v>1.026328867314488</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.05100231078842</v>
+        <v>1.051114446504844</v>
       </c>
       <c r="J22">
-        <v>1.027342203471655</v>
+        <v>1.027615227359881</v>
       </c>
       <c r="K22">
-        <v>1.033061139711066</v>
+        <v>1.03296580469738</v>
       </c>
       <c r="L22">
-        <v>1.030452304848906</v>
+        <v>1.030667169633672</v>
       </c>
       <c r="M22">
-        <v>1.041318802461408</v>
+        <v>1.041396186465095</v>
       </c>
       <c r="N22">
-        <v>1.012989717519629</v>
+        <v>1.015296992554436</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041273450710422</v>
+        <v>1.041334694892674</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034515856756982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034463974767216</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021222895155704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9978946581282999</v>
+        <v>0.9980751118791357</v>
       </c>
       <c r="D23">
-        <v>1.018866116529296</v>
+        <v>1.018648320866789</v>
       </c>
       <c r="E23">
-        <v>1.016270031705942</v>
+        <v>1.016396880977829</v>
       </c>
       <c r="F23">
-        <v>1.027310785969251</v>
+        <v>1.027300846633835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.0513576487624</v>
+        <v>1.051425154736715</v>
       </c>
       <c r="J23">
-        <v>1.028065995988883</v>
+        <v>1.028238684513794</v>
       </c>
       <c r="K23">
-        <v>1.033768494540001</v>
+        <v>1.033554713606949</v>
       </c>
       <c r="L23">
-        <v>1.031220410614432</v>
+        <v>1.031344907047459</v>
       </c>
       <c r="M23">
-        <v>1.042059205670485</v>
+        <v>1.042049445609216</v>
       </c>
       <c r="N23">
-        <v>1.013230954041304</v>
+        <v>1.015286438761398</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041859429342565</v>
+        <v>1.041851704922955</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035006357295287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034869784691752</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021344947052418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003509971033653</v>
+        <v>1.00332877039272</v>
       </c>
       <c r="D24">
-        <v>1.022888252336789</v>
+        <v>1.022238581808673</v>
       </c>
       <c r="E24">
-        <v>1.020528471933067</v>
+        <v>1.020336818147665</v>
       </c>
       <c r="F24">
-        <v>1.031440672448267</v>
+        <v>1.031118431348653</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052707319212232</v>
+        <v>1.052620186844757</v>
       </c>
       <c r="J24">
-        <v>1.03087357377524</v>
+        <v>1.030699281435605</v>
       </c>
       <c r="K24">
-        <v>1.036525003263005</v>
+        <v>1.035886102655251</v>
       </c>
       <c r="L24">
-        <v>1.034204426585599</v>
+        <v>1.034015967057483</v>
       </c>
       <c r="M24">
-        <v>1.044937269873832</v>
+        <v>1.044620255395869</v>
       </c>
       <c r="N24">
-        <v>1.014168382195683</v>
+        <v>1.015437431803051</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044137216334249</v>
+        <v>1.043886321844735</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036947843564699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036509930530696</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021831674472121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00981525048102</v>
+        <v>1.00936237022624</v>
       </c>
       <c r="D25">
-        <v>1.027435605862941</v>
+        <v>1.026403910966966</v>
       </c>
       <c r="E25">
-        <v>1.02534048849285</v>
+        <v>1.024903494474206</v>
       </c>
       <c r="F25">
-        <v>1.03611024621266</v>
+        <v>1.035529913433517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054159304771952</v>
+        <v>1.053953298432113</v>
       </c>
       <c r="J25">
-        <v>1.034016747946927</v>
+        <v>1.033578709697144</v>
       </c>
       <c r="K25">
-        <v>1.039622441416241</v>
+        <v>1.038605715105046</v>
       </c>
       <c r="L25">
-        <v>1.037557761529796</v>
+        <v>1.037127135977115</v>
       </c>
       <c r="M25">
-        <v>1.048172714915157</v>
+        <v>1.047600620010259</v>
       </c>
       <c r="N25">
-        <v>1.015218110308318</v>
+        <v>1.016152525549297</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046697836843514</v>
+        <v>1.046245065794675</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039135025529617</v>
+        <v>1.0384296604422</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022402502369039</v>
       </c>
     </row>
   </sheetData>
